--- a/DSA by Shradha Didi & Aman Bhaiya.xlsx
+++ b/DSA by Shradha Didi & Aman Bhaiya.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\programming\DSA sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nimit\Downloads\other\study\java-practice-programs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A8503F-1332-4CDF-B05D-23D285887D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECD97F1-F836-4986-B925-032E955311D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DSA in 2.5 Months" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,10 @@
   </definedNames>
   <calcPr calcId="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 4" guid="{DB562CAF-E1A0-40F3-9192-5E17BE155BA5}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{A6CE0597-98E5-4A5B-AB5F-6EEE71119C0A}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{FB58D069-98FB-40A6-98B6-6F873CC8E3CF}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{C68DABDE-8AC1-49C3-98CF-691EE57ABE88}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{FB58D069-98FB-40A6-98B6-6F873CC8E3CF}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{A6CE0597-98E5-4A5B-AB5F-6EEE71119C0A}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 4" guid="{DB562CAF-E1A0-40F3-9192-5E17BE155BA5}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -2350,7 +2350,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2413,12 +2413,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA2C4C9"/>
-        <bgColor rgb="FFA2C4C9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor rgb="FFD9EAD3"/>
       </patternFill>
@@ -2427,6 +2421,18 @@
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor rgb="FFD0E0E3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor rgb="FFA2C4C9"/>
       </patternFill>
     </fill>
   </fills>
@@ -2442,7 +2448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2527,28 +2533,11 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2571,6 +2560,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2581,17 +2581,31 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2813,26 +2827,26 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="A153" sqref="A153:XFD153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6328125" customWidth="1"/>
-    <col min="2" max="2" width="88.26953125" customWidth="1"/>
-    <col min="3" max="3" width="72.26953125" customWidth="1"/>
-    <col min="4" max="4" width="30.08984375" customWidth="1"/>
-    <col min="5" max="6" width="12.6328125" customWidth="1"/>
-    <col min="7" max="7" width="26.6328125" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="2" max="2" width="88.21875" customWidth="1"/>
+    <col min="3" max="3" width="72.21875" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" customWidth="1"/>
+    <col min="5" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2855,12 +2869,12 @@
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
     </row>
-    <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="52" t="s">
+    <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2882,10 +2896,10 @@
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
     </row>
-    <row r="3" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+    <row r="3" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2910,10 +2924,10 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
+    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -2936,7 +2950,7 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -2964,7 +2978,7 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -2994,14 +3008,14 @@
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
     </row>
-    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="51" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="2"/>
@@ -3026,14 +3040,14 @@
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="51"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -3056,7 +3070,7 @@
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="4"/>
       <c r="C9" s="7"/>
@@ -3082,7 +3096,7 @@
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -3108,7 +3122,7 @@
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>10</v>
       </c>
@@ -3142,7 +3156,7 @@
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -3174,7 +3188,7 @@
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
@@ -3206,7 +3220,7 @@
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
@@ -3240,7 +3254,7 @@
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
@@ -3272,7 +3286,7 @@
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -3304,7 +3318,7 @@
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
@@ -3336,7 +3350,7 @@
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>14</v>
       </c>
@@ -3368,7 +3382,7 @@
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>14</v>
       </c>
@@ -3400,7 +3414,7 @@
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>14</v>
       </c>
@@ -3432,7 +3446,7 @@
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>14</v>
       </c>
@@ -3464,7 +3478,7 @@
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>14</v>
       </c>
@@ -3496,7 +3510,7 @@
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>14</v>
       </c>
@@ -3528,7 +3542,7 @@
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>14</v>
       </c>
@@ -3560,7 +3574,7 @@
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>14</v>
       </c>
@@ -3592,7 +3606,7 @@
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>14</v>
       </c>
@@ -3624,7 +3638,7 @@
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
     </row>
-    <row r="27" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>14</v>
       </c>
@@ -3656,7 +3670,7 @@
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
     </row>
-    <row r="28" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>14</v>
       </c>
@@ -3688,7 +3702,7 @@
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
     </row>
-    <row r="29" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>14</v>
       </c>
@@ -3720,7 +3734,7 @@
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
     </row>
-    <row r="30" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>14</v>
       </c>
@@ -3752,7 +3766,7 @@
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
     </row>
-    <row r="31" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>14</v>
       </c>
@@ -3784,7 +3798,7 @@
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
     </row>
-    <row r="32" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>14</v>
       </c>
@@ -3816,7 +3830,7 @@
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
     </row>
-    <row r="33" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>14</v>
       </c>
@@ -3848,7 +3862,7 @@
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
     </row>
-    <row r="34" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>14</v>
       </c>
@@ -3880,7 +3894,7 @@
       <c r="W34" s="2"/>
       <c r="X34" s="2"/>
     </row>
-    <row r="35" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>14</v>
       </c>
@@ -3912,7 +3926,7 @@
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
     </row>
-    <row r="36" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>14</v>
       </c>
@@ -3944,7 +3958,7 @@
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
     </row>
-    <row r="37" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>14</v>
       </c>
@@ -3976,7 +3990,7 @@
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
     </row>
-    <row r="38" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="16"/>
       <c r="B38" s="17"/>
       <c r="C38" s="7"/>
@@ -4002,7 +4016,7 @@
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
     </row>
-    <row r="39" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="16"/>
       <c r="B39" s="17"/>
       <c r="C39" s="7"/>
@@ -4028,137 +4042,137 @@
       <c r="W39" s="2"/>
       <c r="X39" s="2"/>
     </row>
-    <row r="40" spans="1:24" s="58" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="54" t="s">
+    <row r="40" spans="1:24" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="55" t="s">
+      <c r="B40" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="C40" s="56" t="s">
+      <c r="C40" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="57"/>
-      <c r="K40" s="57"/>
-      <c r="L40" s="57"/>
-      <c r="M40" s="57"/>
-      <c r="N40" s="57"/>
-      <c r="O40" s="57"/>
-      <c r="P40" s="57"/>
-      <c r="Q40" s="57"/>
-      <c r="R40" s="57"/>
-      <c r="S40" s="57"/>
-      <c r="T40" s="57"/>
-      <c r="U40" s="57"/>
-      <c r="V40" s="57"/>
-      <c r="W40" s="57"/>
-      <c r="X40" s="57"/>
-    </row>
-    <row r="41" spans="1:24" s="58" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="54" t="s">
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="46"/>
+      <c r="N40" s="46"/>
+      <c r="O40" s="46"/>
+      <c r="P40" s="46"/>
+      <c r="Q40" s="46"/>
+      <c r="R40" s="46"/>
+      <c r="S40" s="46"/>
+      <c r="T40" s="46"/>
+      <c r="U40" s="46"/>
+      <c r="V40" s="46"/>
+      <c r="W40" s="46"/>
+      <c r="X40" s="46"/>
+    </row>
+    <row r="41" spans="1:24" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="B41" s="55" t="s">
+      <c r="B41" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="C41" s="56" t="s">
+      <c r="C41" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="D41" s="57"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="57"/>
-      <c r="H41" s="57"/>
-      <c r="I41" s="57"/>
-      <c r="J41" s="57"/>
-      <c r="K41" s="57"/>
-      <c r="L41" s="57"/>
-      <c r="M41" s="57"/>
-      <c r="N41" s="57"/>
-      <c r="O41" s="57"/>
-      <c r="P41" s="57"/>
-      <c r="Q41" s="57"/>
-      <c r="R41" s="57"/>
-      <c r="S41" s="57"/>
-      <c r="T41" s="57"/>
-      <c r="U41" s="57"/>
-      <c r="V41" s="57"/>
-      <c r="W41" s="57"/>
-      <c r="X41" s="57"/>
-    </row>
-    <row r="42" spans="1:24" s="58" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="54" t="s">
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="46"/>
+      <c r="M41" s="46"/>
+      <c r="N41" s="46"/>
+      <c r="O41" s="46"/>
+      <c r="P41" s="46"/>
+      <c r="Q41" s="46"/>
+      <c r="R41" s="46"/>
+      <c r="S41" s="46"/>
+      <c r="T41" s="46"/>
+      <c r="U41" s="46"/>
+      <c r="V41" s="46"/>
+      <c r="W41" s="46"/>
+      <c r="X41" s="46"/>
+    </row>
+    <row r="42" spans="1:24" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="55" t="s">
+      <c r="B42" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="C42" s="56" t="s">
+      <c r="C42" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="D42" s="57" t="s">
+      <c r="D42" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="E42" s="57"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="57"/>
-      <c r="H42" s="57"/>
-      <c r="I42" s="57"/>
-      <c r="J42" s="57"/>
-      <c r="K42" s="57"/>
-      <c r="L42" s="57"/>
-      <c r="M42" s="57"/>
-      <c r="N42" s="57"/>
-      <c r="O42" s="57"/>
-      <c r="P42" s="57"/>
-      <c r="Q42" s="57"/>
-      <c r="R42" s="57"/>
-      <c r="S42" s="57"/>
-      <c r="T42" s="57"/>
-      <c r="U42" s="57"/>
-      <c r="V42" s="57"/>
-      <c r="W42" s="57"/>
-      <c r="X42" s="57"/>
-    </row>
-    <row r="43" spans="1:24" s="58" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="54" t="s">
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="46"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="46"/>
+      <c r="M42" s="46"/>
+      <c r="N42" s="46"/>
+      <c r="O42" s="46"/>
+      <c r="P42" s="46"/>
+      <c r="Q42" s="46"/>
+      <c r="R42" s="46"/>
+      <c r="S42" s="46"/>
+      <c r="T42" s="46"/>
+      <c r="U42" s="46"/>
+      <c r="V42" s="46"/>
+      <c r="W42" s="46"/>
+      <c r="X42" s="46"/>
+    </row>
+    <row r="43" spans="1:24" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="B43" s="55" t="s">
+      <c r="B43" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="C43" s="56" t="s">
+      <c r="C43" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="57"/>
-      <c r="H43" s="57"/>
-      <c r="I43" s="57"/>
-      <c r="J43" s="57"/>
-      <c r="K43" s="57"/>
-      <c r="L43" s="57"/>
-      <c r="M43" s="57"/>
-      <c r="N43" s="57"/>
-      <c r="O43" s="57"/>
-      <c r="P43" s="57"/>
-      <c r="Q43" s="57"/>
-      <c r="R43" s="57"/>
-      <c r="S43" s="57"/>
-      <c r="T43" s="57"/>
-      <c r="U43" s="57"/>
-      <c r="V43" s="57"/>
-      <c r="W43" s="57"/>
-      <c r="X43" s="57"/>
-    </row>
-    <row r="44" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="46"/>
+      <c r="J43" s="46"/>
+      <c r="K43" s="46"/>
+      <c r="L43" s="46"/>
+      <c r="M43" s="46"/>
+      <c r="N43" s="46"/>
+      <c r="O43" s="46"/>
+      <c r="P43" s="46"/>
+      <c r="Q43" s="46"/>
+      <c r="R43" s="46"/>
+      <c r="S43" s="46"/>
+      <c r="T43" s="46"/>
+      <c r="U43" s="46"/>
+      <c r="V43" s="46"/>
+      <c r="W43" s="46"/>
+      <c r="X43" s="46"/>
+    </row>
+    <row r="44" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>61</v>
       </c>
@@ -4190,7 +4204,7 @@
       <c r="W44" s="2"/>
       <c r="X44" s="2"/>
     </row>
-    <row r="45" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>61</v>
       </c>
@@ -4222,7 +4236,7 @@
       <c r="W45" s="2"/>
       <c r="X45" s="2"/>
     </row>
-    <row r="46" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>61</v>
       </c>
@@ -4254,7 +4268,7 @@
       <c r="W46" s="2"/>
       <c r="X46" s="2"/>
     </row>
-    <row r="47" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
         <v>61</v>
       </c>
@@ -4286,7 +4300,7 @@
       <c r="W47" s="2"/>
       <c r="X47" s="2"/>
     </row>
-    <row r="48" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
         <v>61</v>
       </c>
@@ -4318,7 +4332,7 @@
       <c r="W48" s="2"/>
       <c r="X48" s="2"/>
     </row>
-    <row r="49" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>61</v>
       </c>
@@ -4350,7 +4364,7 @@
       <c r="W49" s="2"/>
       <c r="X49" s="2"/>
     </row>
-    <row r="50" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>61</v>
       </c>
@@ -4382,7 +4396,7 @@
       <c r="W50" s="2"/>
       <c r="X50" s="2"/>
     </row>
-    <row r="51" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
         <v>61</v>
       </c>
@@ -4414,7 +4428,7 @@
       <c r="W51" s="2"/>
       <c r="X51" s="2"/>
     </row>
-    <row r="52" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>61</v>
       </c>
@@ -4446,7 +4460,7 @@
       <c r="W52" s="2"/>
       <c r="X52" s="2"/>
     </row>
-    <row r="53" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>61</v>
       </c>
@@ -4478,7 +4492,7 @@
       <c r="W53" s="2"/>
       <c r="X53" s="2"/>
     </row>
-    <row r="54" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
         <v>61</v>
       </c>
@@ -4510,7 +4524,7 @@
       <c r="W54" s="2"/>
       <c r="X54" s="2"/>
     </row>
-    <row r="55" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
         <v>61</v>
       </c>
@@ -4542,7 +4556,7 @@
       <c r="W55" s="2"/>
       <c r="X55" s="2"/>
     </row>
-    <row r="56" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
         <v>61</v>
       </c>
@@ -4574,7 +4588,7 @@
       <c r="W56" s="2"/>
       <c r="X56" s="2"/>
     </row>
-    <row r="57" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
         <v>61</v>
       </c>
@@ -4606,7 +4620,7 @@
       <c r="W57" s="2"/>
       <c r="X57" s="2"/>
     </row>
-    <row r="58" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
         <v>61</v>
       </c>
@@ -4638,7 +4652,7 @@
       <c r="W58" s="2"/>
       <c r="X58" s="2"/>
     </row>
-    <row r="59" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>61</v>
       </c>
@@ -4670,7 +4684,7 @@
       <c r="W59" s="2"/>
       <c r="X59" s="2"/>
     </row>
-    <row r="60" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
         <v>61</v>
       </c>
@@ -4702,7 +4716,7 @@
       <c r="W60" s="2"/>
       <c r="X60" s="2"/>
     </row>
-    <row r="61" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
         <v>61</v>
       </c>
@@ -4736,7 +4750,7 @@
       <c r="W61" s="2"/>
       <c r="X61" s="2"/>
     </row>
-    <row r="62" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="16"/>
       <c r="B62" s="17"/>
       <c r="C62" s="7"/>
@@ -4762,7 +4776,7 @@
       <c r="W62" s="2"/>
       <c r="X62" s="2"/>
     </row>
-    <row r="63" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="16"/>
       <c r="B63" s="17"/>
       <c r="C63" s="7"/>
@@ -4788,7 +4802,7 @@
       <c r="W63" s="2"/>
       <c r="X63" s="2"/>
     </row>
-    <row r="64" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
         <v>105</v>
       </c>
@@ -4820,7 +4834,7 @@
       <c r="W64" s="2"/>
       <c r="X64" s="2"/>
     </row>
-    <row r="65" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
         <v>105</v>
       </c>
@@ -4852,7 +4866,7 @@
       <c r="W65" s="2"/>
       <c r="X65" s="2"/>
     </row>
-    <row r="66" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
         <v>105</v>
       </c>
@@ -4884,7 +4898,7 @@
       <c r="W66" s="2"/>
       <c r="X66" s="2"/>
     </row>
-    <row r="67" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
         <v>105</v>
       </c>
@@ -4916,7 +4930,7 @@
       <c r="W67" s="2"/>
       <c r="X67" s="2"/>
     </row>
-    <row r="68" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
         <v>105</v>
       </c>
@@ -4948,7 +4962,7 @@
       <c r="W68" s="2"/>
       <c r="X68" s="2"/>
     </row>
-    <row r="69" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
         <v>105</v>
       </c>
@@ -4982,7 +4996,7 @@
       <c r="W69" s="2"/>
       <c r="X69" s="2"/>
     </row>
-    <row r="70" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
         <v>105</v>
       </c>
@@ -5014,7 +5028,7 @@
       <c r="W70" s="2"/>
       <c r="X70" s="2"/>
     </row>
-    <row r="71" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
         <v>105</v>
       </c>
@@ -5046,7 +5060,7 @@
       <c r="W71" s="2"/>
       <c r="X71" s="2"/>
     </row>
-    <row r="72" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
         <v>105</v>
       </c>
@@ -5078,7 +5092,7 @@
       <c r="W72" s="2"/>
       <c r="X72" s="2"/>
     </row>
-    <row r="73" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
         <v>105</v>
       </c>
@@ -5110,7 +5124,7 @@
       <c r="W73" s="2"/>
       <c r="X73" s="2"/>
     </row>
-    <row r="74" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="18"/>
       <c r="B74" s="17"/>
       <c r="C74" s="7"/>
@@ -5136,7 +5150,7 @@
       <c r="W74" s="2"/>
       <c r="X74" s="2"/>
     </row>
-    <row r="75" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="18"/>
       <c r="B75" s="17"/>
       <c r="C75" s="7"/>
@@ -5162,7 +5176,7 @@
       <c r="W75" s="2"/>
       <c r="X75" s="2"/>
     </row>
-    <row r="76" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="19" t="s">
         <v>126</v>
       </c>
@@ -5194,7 +5208,7 @@
       <c r="W76" s="2"/>
       <c r="X76" s="2"/>
     </row>
-    <row r="77" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="19" t="s">
         <v>126</v>
       </c>
@@ -5226,7 +5240,7 @@
       <c r="W77" s="2"/>
       <c r="X77" s="2"/>
     </row>
-    <row r="78" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="19" t="s">
         <v>126</v>
       </c>
@@ -5258,7 +5272,7 @@
       <c r="W78" s="2"/>
       <c r="X78" s="2"/>
     </row>
-    <row r="79" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="19" t="s">
         <v>126</v>
       </c>
@@ -5290,7 +5304,7 @@
       <c r="W79" s="2"/>
       <c r="X79" s="2"/>
     </row>
-    <row r="80" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="19" t="s">
         <v>126</v>
       </c>
@@ -5322,7 +5336,7 @@
       <c r="W80" s="2"/>
       <c r="X80" s="2"/>
     </row>
-    <row r="81" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="19" t="s">
         <v>126</v>
       </c>
@@ -5354,7 +5368,7 @@
       <c r="W81" s="2"/>
       <c r="X81" s="2"/>
     </row>
-    <row r="82" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="21" t="s">
         <v>126</v>
       </c>
@@ -5386,7 +5400,7 @@
       <c r="W82" s="2"/>
       <c r="X82" s="2"/>
     </row>
-    <row r="83" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="21" t="s">
         <v>126</v>
       </c>
@@ -5418,7 +5432,7 @@
       <c r="W83" s="2"/>
       <c r="X83" s="2"/>
     </row>
-    <row r="84" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="21" t="s">
         <v>126</v>
       </c>
@@ -5449,7 +5463,7 @@
       <c r="W84" s="2"/>
       <c r="X84" s="2"/>
     </row>
-    <row r="85" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="21" t="s">
         <v>126</v>
       </c>
@@ -5480,7 +5494,7 @@
       <c r="W85" s="2"/>
       <c r="X85" s="2"/>
     </row>
-    <row r="86" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="21" t="s">
         <v>126</v>
       </c>
@@ -5512,7 +5526,7 @@
       <c r="W86" s="2"/>
       <c r="X86" s="2"/>
     </row>
-    <row r="87" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="21" t="s">
         <v>126</v>
       </c>
@@ -5544,7 +5558,7 @@
       <c r="W87" s="2"/>
       <c r="X87" s="2"/>
     </row>
-    <row r="88" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="21" t="s">
         <v>126</v>
       </c>
@@ -5576,7 +5590,7 @@
       <c r="W88" s="2"/>
       <c r="X88" s="2"/>
     </row>
-    <row r="89" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="21" t="s">
         <v>126</v>
       </c>
@@ -5608,7 +5622,7 @@
       <c r="W89" s="2"/>
       <c r="X89" s="2"/>
     </row>
-    <row r="90" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="21" t="s">
         <v>126</v>
       </c>
@@ -5640,7 +5654,7 @@
       <c r="W90" s="2"/>
       <c r="X90" s="2"/>
     </row>
-    <row r="91" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="21" t="s">
         <v>126</v>
       </c>
@@ -5672,7 +5686,7 @@
       <c r="W91" s="2"/>
       <c r="X91" s="2"/>
     </row>
-    <row r="92" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="23" t="s">
         <v>126</v>
       </c>
@@ -5704,7 +5718,7 @@
       <c r="W92" s="2"/>
       <c r="X92" s="2"/>
     </row>
-    <row r="93" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="23" t="s">
         <v>126</v>
       </c>
@@ -5736,7 +5750,7 @@
       <c r="W93" s="2"/>
       <c r="X93" s="2"/>
     </row>
-    <row r="94" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="23" t="s">
         <v>126</v>
       </c>
@@ -5768,7 +5782,7 @@
       <c r="W94" s="2"/>
       <c r="X94" s="2"/>
     </row>
-    <row r="95" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="23" t="s">
         <v>126</v>
       </c>
@@ -5800,7 +5814,7 @@
       <c r="W95" s="2"/>
       <c r="X95" s="2"/>
     </row>
-    <row r="96" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="23" t="s">
         <v>126</v>
       </c>
@@ -5832,7 +5846,7 @@
       <c r="W96" s="2"/>
       <c r="X96" s="2"/>
     </row>
-    <row r="97" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="23" t="s">
         <v>126</v>
       </c>
@@ -5864,7 +5878,7 @@
       <c r="W97" s="2"/>
       <c r="X97" s="2"/>
     </row>
-    <row r="98" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="23" t="s">
         <v>126</v>
       </c>
@@ -5896,7 +5910,7 @@
       <c r="W98" s="2"/>
       <c r="X98" s="2"/>
     </row>
-    <row r="99" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="18"/>
       <c r="B99" s="17"/>
       <c r="C99" s="7"/>
@@ -5922,7 +5936,7 @@
       <c r="W99" s="2"/>
       <c r="X99" s="2"/>
     </row>
-    <row r="100" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="18"/>
       <c r="B100" s="17"/>
       <c r="C100" s="7"/>
@@ -5948,7 +5962,7 @@
       <c r="W100" s="2"/>
       <c r="X100" s="2"/>
     </row>
-    <row r="101" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="8" t="s">
         <v>169</v>
       </c>
@@ -5980,7 +5994,7 @@
       <c r="W101" s="2"/>
       <c r="X101" s="2"/>
     </row>
-    <row r="102" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="8" t="s">
         <v>169</v>
       </c>
@@ -6012,7 +6026,7 @@
       <c r="W102" s="2"/>
       <c r="X102" s="2"/>
     </row>
-    <row r="103" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="8" t="s">
         <v>169</v>
       </c>
@@ -6044,7 +6058,7 @@
       <c r="W103" s="2"/>
       <c r="X103" s="2"/>
     </row>
-    <row r="104" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="8" t="s">
         <v>169</v>
       </c>
@@ -6076,7 +6090,7 @@
       <c r="W104" s="2"/>
       <c r="X104" s="2"/>
     </row>
-    <row r="105" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="8" t="s">
         <v>169</v>
       </c>
@@ -6108,7 +6122,7 @@
       <c r="W105" s="2"/>
       <c r="X105" s="2"/>
     </row>
-    <row r="106" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="8" t="s">
         <v>169</v>
       </c>
@@ -6140,7 +6154,7 @@
       <c r="W106" s="2"/>
       <c r="X106" s="2"/>
     </row>
-    <row r="107" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="8" t="s">
         <v>169</v>
       </c>
@@ -6172,7 +6186,7 @@
       <c r="W107" s="2"/>
       <c r="X107" s="2"/>
     </row>
-    <row r="108" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="8" t="s">
         <v>169</v>
       </c>
@@ -6204,7 +6218,7 @@
       <c r="W108" s="2"/>
       <c r="X108" s="2"/>
     </row>
-    <row r="109" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="9" t="s">
         <v>169</v>
       </c>
@@ -6235,7 +6249,7 @@
       <c r="W109" s="2"/>
       <c r="X109" s="2"/>
     </row>
-    <row r="110" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="9" t="s">
         <v>169</v>
       </c>
@@ -6266,7 +6280,7 @@
       <c r="W110" s="2"/>
       <c r="X110" s="2"/>
     </row>
-    <row r="111" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="9" t="s">
         <v>169</v>
       </c>
@@ -6297,7 +6311,7 @@
       <c r="W111" s="2"/>
       <c r="X111" s="2"/>
     </row>
-    <row r="112" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="9" t="s">
         <v>169</v>
       </c>
@@ -6326,7 +6340,7 @@
       <c r="W112" s="2"/>
       <c r="X112" s="2"/>
     </row>
-    <row r="113" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="9" t="s">
         <v>169</v>
       </c>
@@ -6357,7 +6371,7 @@
       <c r="W113" s="2"/>
       <c r="X113" s="2"/>
     </row>
-    <row r="114" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="9" t="s">
         <v>169</v>
       </c>
@@ -6388,7 +6402,7 @@
       <c r="W114" s="2"/>
       <c r="X114" s="2"/>
     </row>
-    <row r="115" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="9" t="s">
         <v>169</v>
       </c>
@@ -6420,7 +6434,7 @@
       <c r="W115" s="2"/>
       <c r="X115" s="2"/>
     </row>
-    <row r="116" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="9" t="s">
         <v>169</v>
       </c>
@@ -6452,7 +6466,7 @@
       <c r="W116" s="2"/>
       <c r="X116" s="2"/>
     </row>
-    <row r="117" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="9" t="s">
         <v>169</v>
       </c>
@@ -6484,7 +6498,7 @@
       <c r="W117" s="2"/>
       <c r="X117" s="2"/>
     </row>
-    <row r="118" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="9" t="s">
         <v>169</v>
       </c>
@@ -6516,7 +6530,7 @@
       <c r="W118" s="2"/>
       <c r="X118" s="2"/>
     </row>
-    <row r="119" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="9" t="s">
         <v>169</v>
       </c>
@@ -6546,7 +6560,7 @@
       <c r="W119" s="2"/>
       <c r="X119" s="2"/>
     </row>
-    <row r="120" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="9" t="s">
         <v>169</v>
       </c>
@@ -6576,7 +6590,7 @@
       <c r="W120" s="2"/>
       <c r="X120" s="2"/>
     </row>
-    <row r="121" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="9" t="s">
         <v>169</v>
       </c>
@@ -6606,7 +6620,7 @@
       <c r="W121" s="2"/>
       <c r="X121" s="2"/>
     </row>
-    <row r="122" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="18"/>
       <c r="B122" s="17"/>
       <c r="C122" s="7"/>
@@ -6630,7 +6644,7 @@
       <c r="W122" s="2"/>
       <c r="X122" s="2"/>
     </row>
-    <row r="123" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="18"/>
       <c r="B123" s="17"/>
       <c r="C123" s="7"/>
@@ -6654,7 +6668,7 @@
       <c r="W123" s="2"/>
       <c r="X123" s="2"/>
     </row>
-    <row r="124" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="5" t="s">
         <v>203</v>
       </c>
@@ -6685,7 +6699,7 @@
       <c r="W124" s="2"/>
       <c r="X124" s="2"/>
     </row>
-    <row r="125" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="5" t="s">
         <v>203</v>
       </c>
@@ -6716,7 +6730,7 @@
       <c r="W125" s="2"/>
       <c r="X125" s="2"/>
     </row>
-    <row r="126" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="5" t="s">
         <v>203</v>
       </c>
@@ -6747,7 +6761,7 @@
       <c r="W126" s="2"/>
       <c r="X126" s="2"/>
     </row>
-    <row r="127" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="5" t="s">
         <v>203</v>
       </c>
@@ -6778,7 +6792,7 @@
       <c r="W127" s="2"/>
       <c r="X127" s="2"/>
     </row>
-    <row r="128" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="5" t="s">
         <v>203</v>
       </c>
@@ -6809,7 +6823,7 @@
       <c r="W128" s="2"/>
       <c r="X128" s="2"/>
     </row>
-    <row r="129" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="5" t="s">
         <v>203</v>
       </c>
@@ -6840,7 +6854,7 @@
       <c r="W129" s="2"/>
       <c r="X129" s="2"/>
     </row>
-    <row r="130" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="5" t="s">
         <v>203</v>
       </c>
@@ -6871,7 +6885,7 @@
       <c r="W130" s="2"/>
       <c r="X130" s="2"/>
     </row>
-    <row r="131" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="8" t="s">
         <v>203</v>
       </c>
@@ -6902,7 +6916,7 @@
       <c r="W131" s="2"/>
       <c r="X131" s="2"/>
     </row>
-    <row r="132" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="8" t="s">
         <v>203</v>
       </c>
@@ -6933,7 +6947,7 @@
       <c r="W132" s="2"/>
       <c r="X132" s="2"/>
     </row>
-    <row r="133" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="8" t="s">
         <v>203</v>
       </c>
@@ -6964,7 +6978,7 @@
       <c r="W133" s="2"/>
       <c r="X133" s="2"/>
     </row>
-    <row r="134" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="8" t="s">
         <v>203</v>
       </c>
@@ -6995,7 +7009,7 @@
       <c r="W134" s="2"/>
       <c r="X134" s="2"/>
     </row>
-    <row r="135" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="8" t="s">
         <v>203</v>
       </c>
@@ -7027,7 +7041,7 @@
       <c r="W135" s="2"/>
       <c r="X135" s="2"/>
     </row>
-    <row r="136" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="8" t="s">
         <v>203</v>
       </c>
@@ -7059,7 +7073,7 @@
       <c r="W136" s="2"/>
       <c r="X136" s="2"/>
     </row>
-    <row r="137" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="8" t="s">
         <v>203</v>
       </c>
@@ -7091,7 +7105,7 @@
       <c r="W137" s="2"/>
       <c r="X137" s="2"/>
     </row>
-    <row r="138" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="8" t="s">
         <v>203</v>
       </c>
@@ -7123,7 +7137,7 @@
       <c r="W138" s="2"/>
       <c r="X138" s="2"/>
     </row>
-    <row r="139" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="8" t="s">
         <v>203</v>
       </c>
@@ -7155,7 +7169,7 @@
       <c r="W139" s="2"/>
       <c r="X139" s="2"/>
     </row>
-    <row r="140" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="8" t="s">
         <v>203</v>
       </c>
@@ -7187,7 +7201,7 @@
       <c r="W140" s="2"/>
       <c r="X140" s="2"/>
     </row>
-    <row r="141" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="8" t="s">
         <v>203</v>
       </c>
@@ -7219,7 +7233,7 @@
       <c r="W141" s="2"/>
       <c r="X141" s="2"/>
     </row>
-    <row r="142" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="8" t="s">
         <v>203</v>
       </c>
@@ -7251,7 +7265,7 @@
       <c r="W142" s="2"/>
       <c r="X142" s="2"/>
     </row>
-    <row r="143" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="9" t="s">
         <v>203</v>
       </c>
@@ -7283,7 +7297,7 @@
       <c r="W143" s="2"/>
       <c r="X143" s="2"/>
     </row>
-    <row r="144" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="9" t="s">
         <v>203</v>
       </c>
@@ -7317,7 +7331,7 @@
       <c r="W144" s="2"/>
       <c r="X144" s="2"/>
     </row>
-    <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="9" t="s">
         <v>203</v>
       </c>
@@ -7351,7 +7365,7 @@
       <c r="W145" s="2"/>
       <c r="X145" s="2"/>
     </row>
-    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="9" t="s">
         <v>203</v>
       </c>
@@ -7383,7 +7397,7 @@
       <c r="W146" s="2"/>
       <c r="X146" s="2"/>
     </row>
-    <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="9" t="s">
         <v>203</v>
       </c>
@@ -7415,7 +7429,7 @@
       <c r="W147" s="2"/>
       <c r="X147" s="2"/>
     </row>
-    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="9" t="s">
         <v>203</v>
       </c>
@@ -7447,7 +7461,7 @@
       <c r="W148" s="2"/>
       <c r="X148" s="2"/>
     </row>
-    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="9" t="s">
         <v>203</v>
       </c>
@@ -7479,7 +7493,7 @@
       <c r="W149" s="2"/>
       <c r="X149" s="2"/>
     </row>
-    <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="18"/>
       <c r="B150" s="17"/>
       <c r="C150" s="7"/>
@@ -7505,7 +7519,7 @@
       <c r="W150" s="2"/>
       <c r="X150" s="2"/>
     </row>
-    <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="18"/>
       <c r="B151" s="17" t="s">
         <v>252</v>
@@ -7533,75 +7547,75 @@
       <c r="W151" s="2"/>
       <c r="X151" s="2"/>
     </row>
-    <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="31" t="s">
+    <row r="152" spans="1:26" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A152" s="52" t="s">
         <v>253</v>
       </c>
-      <c r="B152" s="32" t="s">
+      <c r="B152" s="53" t="s">
         <v>254</v>
       </c>
-      <c r="C152" s="33" t="s">
+      <c r="C152" s="54" t="s">
         <v>255</v>
       </c>
-      <c r="D152" s="34"/>
-      <c r="E152" s="34"/>
-      <c r="F152" s="34"/>
-      <c r="G152" s="34"/>
-      <c r="H152" s="34"/>
-      <c r="I152" s="34"/>
-      <c r="J152" s="34"/>
-      <c r="K152" s="34"/>
-      <c r="L152" s="34"/>
-      <c r="M152" s="34"/>
-      <c r="N152" s="34"/>
-      <c r="O152" s="34"/>
-      <c r="P152" s="34"/>
-      <c r="Q152" s="34"/>
-      <c r="R152" s="34"/>
-      <c r="S152" s="34"/>
-      <c r="T152" s="34"/>
-      <c r="U152" s="34"/>
-      <c r="V152" s="34"/>
-      <c r="W152" s="34"/>
-      <c r="X152" s="34"/>
-      <c r="Y152" s="35"/>
-      <c r="Z152" s="35"/>
-    </row>
-    <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="36" t="s">
+      <c r="D152" s="55"/>
+      <c r="E152" s="55"/>
+      <c r="F152" s="55"/>
+      <c r="G152" s="55"/>
+      <c r="H152" s="55"/>
+      <c r="I152" s="55"/>
+      <c r="J152" s="55"/>
+      <c r="K152" s="55"/>
+      <c r="L152" s="55"/>
+      <c r="M152" s="55"/>
+      <c r="N152" s="55"/>
+      <c r="O152" s="55"/>
+      <c r="P152" s="55"/>
+      <c r="Q152" s="55"/>
+      <c r="R152" s="55"/>
+      <c r="S152" s="55"/>
+      <c r="T152" s="55"/>
+      <c r="U152" s="55"/>
+      <c r="V152" s="55"/>
+      <c r="W152" s="55"/>
+      <c r="X152" s="55"/>
+      <c r="Y152" s="56"/>
+      <c r="Z152" s="56"/>
+    </row>
+    <row r="153" spans="1:26" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A153" s="57" t="s">
         <v>253</v>
       </c>
-      <c r="B153" s="37" t="s">
+      <c r="B153" s="58" t="s">
         <v>256</v>
       </c>
-      <c r="C153" s="38" t="s">
+      <c r="C153" s="59" t="s">
         <v>257</v>
       </c>
-      <c r="D153" s="39"/>
-      <c r="E153" s="40"/>
-      <c r="F153" s="40"/>
-      <c r="G153" s="40"/>
-      <c r="H153" s="40"/>
-      <c r="I153" s="40"/>
-      <c r="J153" s="40"/>
-      <c r="K153" s="40"/>
-      <c r="L153" s="40"/>
-      <c r="M153" s="40"/>
-      <c r="N153" s="40"/>
-      <c r="O153" s="40"/>
-      <c r="P153" s="40"/>
-      <c r="Q153" s="40"/>
-      <c r="R153" s="40"/>
-      <c r="S153" s="40"/>
-      <c r="T153" s="40"/>
-      <c r="U153" s="40"/>
-      <c r="V153" s="40"/>
-      <c r="W153" s="40"/>
-      <c r="X153" s="40"/>
-      <c r="Y153" s="41"/>
-      <c r="Z153" s="41"/>
-    </row>
-    <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D153" s="60"/>
+      <c r="E153" s="61"/>
+      <c r="F153" s="61"/>
+      <c r="G153" s="61"/>
+      <c r="H153" s="61"/>
+      <c r="I153" s="61"/>
+      <c r="J153" s="61"/>
+      <c r="K153" s="61"/>
+      <c r="L153" s="61"/>
+      <c r="M153" s="61"/>
+      <c r="N153" s="61"/>
+      <c r="O153" s="61"/>
+      <c r="P153" s="61"/>
+      <c r="Q153" s="61"/>
+      <c r="R153" s="61"/>
+      <c r="S153" s="61"/>
+      <c r="T153" s="61"/>
+      <c r="U153" s="61"/>
+      <c r="V153" s="61"/>
+      <c r="W153" s="61"/>
+      <c r="X153" s="61"/>
+      <c r="Y153" s="62"/>
+      <c r="Z153" s="62"/>
+    </row>
+    <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="5" t="s">
         <v>253</v>
       </c>
@@ -7633,7 +7647,7 @@
       <c r="W154" s="2"/>
       <c r="X154" s="2"/>
     </row>
-    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="5" t="s">
         <v>253</v>
       </c>
@@ -7665,7 +7679,7 @@
       <c r="W155" s="2"/>
       <c r="X155" s="2"/>
     </row>
-    <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="5" t="s">
         <v>253</v>
       </c>
@@ -7697,7 +7711,7 @@
       <c r="W156" s="2"/>
       <c r="X156" s="2"/>
     </row>
-    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="5" t="s">
         <v>253</v>
       </c>
@@ -7729,7 +7743,7 @@
       <c r="W157" s="2"/>
       <c r="X157" s="2"/>
     </row>
-    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="8" t="s">
         <v>253</v>
       </c>
@@ -7761,7 +7775,7 @@
       <c r="W158" s="2"/>
       <c r="X158" s="2"/>
     </row>
-    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="8" t="s">
         <v>253</v>
       </c>
@@ -7793,7 +7807,7 @@
       <c r="W159" s="2"/>
       <c r="X159" s="2"/>
     </row>
-    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="8" t="s">
         <v>253</v>
       </c>
@@ -7825,7 +7839,7 @@
       <c r="W160" s="2"/>
       <c r="X160" s="2"/>
     </row>
-    <row r="161" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="8" t="s">
         <v>253</v>
       </c>
@@ -7855,7 +7869,7 @@
       <c r="W161" s="2"/>
       <c r="X161" s="2"/>
     </row>
-    <row r="162" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="8" t="s">
         <v>253</v>
       </c>
@@ -7885,7 +7899,7 @@
       <c r="W162" s="2"/>
       <c r="X162" s="2"/>
     </row>
-    <row r="163" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="8" t="s">
         <v>253</v>
       </c>
@@ -7915,7 +7929,7 @@
       <c r="W163" s="2"/>
       <c r="X163" s="2"/>
     </row>
-    <row r="164" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="8" t="s">
         <v>253</v>
       </c>
@@ -7945,7 +7959,7 @@
       <c r="W164" s="2"/>
       <c r="X164" s="2"/>
     </row>
-    <row r="165" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="8" t="s">
         <v>253</v>
       </c>
@@ -7975,7 +7989,7 @@
       <c r="W165" s="2"/>
       <c r="X165" s="2"/>
     </row>
-    <row r="166" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="8" t="s">
         <v>253</v>
       </c>
@@ -8005,7 +8019,7 @@
       <c r="W166" s="2"/>
       <c r="X166" s="2"/>
     </row>
-    <row r="167" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="8" t="s">
         <v>253</v>
       </c>
@@ -8035,7 +8049,7 @@
       <c r="W167" s="2"/>
       <c r="X167" s="2"/>
     </row>
-    <row r="168" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="8" t="s">
         <v>253</v>
       </c>
@@ -8065,7 +8079,7 @@
       <c r="W168" s="2"/>
       <c r="X168" s="2"/>
     </row>
-    <row r="169" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="8" t="s">
         <v>253</v>
       </c>
@@ -8095,7 +8109,7 @@
       <c r="W169" s="2"/>
       <c r="X169" s="2"/>
     </row>
-    <row r="170" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="8" t="s">
         <v>253</v>
       </c>
@@ -8125,7 +8139,7 @@
       <c r="W170" s="2"/>
       <c r="X170" s="2"/>
     </row>
-    <row r="171" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="8" t="s">
         <v>253</v>
       </c>
@@ -8155,7 +8169,7 @@
       <c r="W171" s="2"/>
       <c r="X171" s="2"/>
     </row>
-    <row r="172" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="8" t="s">
         <v>253</v>
       </c>
@@ -8185,7 +8199,7 @@
       <c r="W172" s="2"/>
       <c r="X172" s="2"/>
     </row>
-    <row r="173" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="9" t="s">
         <v>253</v>
       </c>
@@ -8215,7 +8229,7 @@
       <c r="W173" s="2"/>
       <c r="X173" s="2"/>
     </row>
-    <row r="174" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="9" t="s">
         <v>253</v>
       </c>
@@ -8245,7 +8259,7 @@
       <c r="W174" s="2"/>
       <c r="X174" s="2"/>
     </row>
-    <row r="175" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="9" t="s">
         <v>253</v>
       </c>
@@ -8275,7 +8289,7 @@
       <c r="W175" s="2"/>
       <c r="X175" s="2"/>
     </row>
-    <row r="176" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="9" t="s">
         <v>253</v>
       </c>
@@ -8305,7 +8319,7 @@
       <c r="W176" s="2"/>
       <c r="X176" s="2"/>
     </row>
-    <row r="177" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="9" t="s">
         <v>253</v>
       </c>
@@ -8315,7 +8329,7 @@
       <c r="C177" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="D177" s="42"/>
+      <c r="D177" s="35"/>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
       <c r="G177" s="2"/>
@@ -8337,7 +8351,7 @@
       <c r="W177" s="2"/>
       <c r="X177" s="2"/>
     </row>
-    <row r="178" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="9" t="s">
         <v>253</v>
       </c>
@@ -8347,7 +8361,7 @@
       <c r="C178" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="D178" s="42"/>
+      <c r="D178" s="35"/>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
       <c r="G178" s="2"/>
@@ -8369,9 +8383,9 @@
       <c r="W178" s="2"/>
       <c r="X178" s="2"/>
     </row>
-    <row r="179" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C179" s="7"/>
-      <c r="D179" s="42"/>
+      <c r="D179" s="35"/>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
       <c r="G179" s="2"/>
@@ -8393,7 +8407,7 @@
       <c r="W179" s="2"/>
       <c r="X179" s="2"/>
     </row>
-    <row r="180" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="18"/>
       <c r="B180" s="17"/>
       <c r="C180" s="7"/>
@@ -8419,14 +8433,14 @@
       <c r="W180" s="2"/>
       <c r="X180" s="2"/>
     </row>
-    <row r="181" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="5" t="s">
         <v>301</v>
       </c>
       <c r="B181" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="C181" s="43" t="s">
+      <c r="C181" s="36" t="s">
         <v>303</v>
       </c>
       <c r="D181" s="2"/>
@@ -8451,14 +8465,14 @@
       <c r="W181" s="2"/>
       <c r="X181" s="2"/>
     </row>
-    <row r="182" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="5" t="s">
         <v>301</v>
       </c>
       <c r="B182" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="C182" s="43" t="s">
+      <c r="C182" s="36" t="s">
         <v>305</v>
       </c>
       <c r="D182" s="2"/>
@@ -8483,14 +8497,14 @@
       <c r="W182" s="2"/>
       <c r="X182" s="2"/>
     </row>
-    <row r="183" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="5" t="s">
         <v>301</v>
       </c>
       <c r="B183" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="C183" s="43" t="s">
+      <c r="C183" s="36" t="s">
         <v>120</v>
       </c>
       <c r="D183" s="2"/>
@@ -8515,14 +8529,14 @@
       <c r="W183" s="2"/>
       <c r="X183" s="2"/>
     </row>
-    <row r="184" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="5" t="s">
         <v>301</v>
       </c>
       <c r="B184" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="C184" s="43" t="s">
+      <c r="C184" s="36" t="s">
         <v>107</v>
       </c>
       <c r="D184" s="2"/>
@@ -8547,14 +8561,14 @@
       <c r="W184" s="2"/>
       <c r="X184" s="2"/>
     </row>
-    <row r="185" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="5" t="s">
         <v>301</v>
       </c>
       <c r="B185" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="C185" s="43" t="s">
+      <c r="C185" s="36" t="s">
         <v>309</v>
       </c>
       <c r="D185" s="2"/>
@@ -8579,14 +8593,14 @@
       <c r="W185" s="2"/>
       <c r="X185" s="2"/>
     </row>
-    <row r="186" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="5" t="s">
         <v>301</v>
       </c>
       <c r="B186" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="C186" s="43"/>
+      <c r="C186" s="36"/>
       <c r="F186" s="2"/>
       <c r="G186" s="2"/>
       <c r="H186" s="2"/>
@@ -8607,14 +8621,14 @@
       <c r="W186" s="2"/>
       <c r="X186" s="2"/>
     </row>
-    <row r="187" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="5" t="s">
         <v>301</v>
       </c>
       <c r="B187" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="C187" s="43" t="s">
+      <c r="C187" s="36" t="s">
         <v>312</v>
       </c>
       <c r="F187" s="2"/>
@@ -8637,14 +8651,14 @@
       <c r="W187" s="2"/>
       <c r="X187" s="2"/>
     </row>
-    <row r="188" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="8" t="s">
         <v>301</v>
       </c>
       <c r="B188" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="C188" s="43" t="s">
+      <c r="C188" s="36" t="s">
         <v>314</v>
       </c>
       <c r="F188" s="2"/>
@@ -8667,14 +8681,14 @@
       <c r="W188" s="2"/>
       <c r="X188" s="2"/>
     </row>
-    <row r="189" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="8" t="s">
         <v>301</v>
       </c>
       <c r="B189" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="C189" s="43"/>
+      <c r="C189" s="36"/>
       <c r="F189" s="2"/>
       <c r="G189" s="2"/>
       <c r="H189" s="2"/>
@@ -8695,14 +8709,14 @@
       <c r="W189" s="2"/>
       <c r="X189" s="2"/>
     </row>
-    <row r="190" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="8" t="s">
         <v>301</v>
       </c>
       <c r="B190" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="C190" s="43" t="s">
+      <c r="C190" s="36" t="s">
         <v>96</v>
       </c>
       <c r="F190" s="2"/>
@@ -8725,14 +8739,14 @@
       <c r="W190" s="2"/>
       <c r="X190" s="2"/>
     </row>
-    <row r="191" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="8" t="s">
         <v>301</v>
       </c>
       <c r="B191" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="C191" s="43" t="s">
+      <c r="C191" s="36" t="s">
         <v>318</v>
       </c>
       <c r="F191" s="2"/>
@@ -8755,14 +8769,14 @@
       <c r="W191" s="2"/>
       <c r="X191" s="2"/>
     </row>
-    <row r="192" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="8" t="s">
         <v>301</v>
       </c>
       <c r="B192" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="C192" s="43" t="s">
+      <c r="C192" s="36" t="s">
         <v>320</v>
       </c>
       <c r="F192" s="2"/>
@@ -8785,14 +8799,14 @@
       <c r="W192" s="2"/>
       <c r="X192" s="2"/>
     </row>
-    <row r="193" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="8" t="s">
         <v>301</v>
       </c>
       <c r="B193" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="C193" s="43" t="s">
+      <c r="C193" s="36" t="s">
         <v>322</v>
       </c>
       <c r="F193" s="2"/>
@@ -8815,7 +8829,7 @@
       <c r="W193" s="2"/>
       <c r="X193" s="2"/>
     </row>
-    <row r="194" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="8" t="s">
         <v>301</v>
       </c>
@@ -8845,14 +8859,14 @@
       <c r="W194" s="2"/>
       <c r="X194" s="2"/>
     </row>
-    <row r="195" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="8" t="s">
         <v>301</v>
       </c>
       <c r="B195" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="C195" s="43" t="s">
+      <c r="C195" s="36" t="s">
         <v>52</v>
       </c>
       <c r="F195" s="2"/>
@@ -8875,7 +8889,7 @@
       <c r="W195" s="2"/>
       <c r="X195" s="2"/>
     </row>
-    <row r="196" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="8" t="s">
         <v>301</v>
       </c>
@@ -8905,7 +8919,7 @@
       <c r="W196" s="2"/>
       <c r="X196" s="2"/>
     </row>
-    <row r="197" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="9" t="s">
         <v>301</v>
       </c>
@@ -8933,7 +8947,7 @@
       <c r="W197" s="2"/>
       <c r="X197" s="2"/>
     </row>
-    <row r="198" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="9" t="s">
         <v>301</v>
       </c>
@@ -8963,7 +8977,7 @@
       <c r="W198" s="2"/>
       <c r="X198" s="2"/>
     </row>
-    <row r="199" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="9" t="s">
         <v>301</v>
       </c>
@@ -8993,7 +9007,7 @@
       <c r="W199" s="2"/>
       <c r="X199" s="2"/>
     </row>
-    <row r="200" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="9" t="s">
         <v>301</v>
       </c>
@@ -9021,7 +9035,7 @@
       <c r="W200" s="2"/>
       <c r="X200" s="2"/>
     </row>
-    <row r="201" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="9" t="s">
         <v>301</v>
       </c>
@@ -9049,7 +9063,7 @@
       <c r="W201" s="2"/>
       <c r="X201" s="2"/>
     </row>
-    <row r="202" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="9" t="s">
         <v>301</v>
       </c>
@@ -9079,7 +9093,7 @@
       <c r="W202" s="2"/>
       <c r="X202" s="2"/>
     </row>
-    <row r="203" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="18"/>
       <c r="B203" s="17"/>
       <c r="C203" s="7"/>
@@ -9105,7 +9119,7 @@
       <c r="W203" s="2"/>
       <c r="X203" s="2"/>
     </row>
-    <row r="204" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="18"/>
       <c r="B204" s="17"/>
       <c r="C204" s="7"/>
@@ -9131,7 +9145,7 @@
       <c r="W204" s="2"/>
       <c r="X204" s="2"/>
     </row>
-    <row r="205" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="5" t="s">
         <v>334</v>
       </c>
@@ -9143,7 +9157,7 @@
       </c>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
-      <c r="F205" s="42"/>
+      <c r="F205" s="35"/>
       <c r="G205" s="2"/>
       <c r="H205" s="2"/>
       <c r="I205" s="2"/>
@@ -9163,7 +9177,7 @@
       <c r="W205" s="2"/>
       <c r="X205" s="2"/>
     </row>
-    <row r="206" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="5" t="s">
         <v>334</v>
       </c>
@@ -9175,7 +9189,7 @@
       </c>
       <c r="D206" s="2"/>
       <c r="E206" s="2"/>
-      <c r="F206" s="42"/>
+      <c r="F206" s="35"/>
       <c r="G206" s="2"/>
       <c r="H206" s="2"/>
       <c r="I206" s="2"/>
@@ -9195,7 +9209,7 @@
       <c r="W206" s="2"/>
       <c r="X206" s="2"/>
     </row>
-    <row r="207" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="5" t="s">
         <v>334</v>
       </c>
@@ -9207,7 +9221,7 @@
       </c>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
-      <c r="F207" s="42"/>
+      <c r="F207" s="35"/>
       <c r="G207" s="2"/>
       <c r="H207" s="2"/>
       <c r="I207" s="2"/>
@@ -9227,7 +9241,7 @@
       <c r="W207" s="2"/>
       <c r="X207" s="2"/>
     </row>
-    <row r="208" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="5" t="s">
         <v>334</v>
       </c>
@@ -9239,7 +9253,7 @@
       </c>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
-      <c r="F208" s="42"/>
+      <c r="F208" s="35"/>
       <c r="G208" s="2"/>
       <c r="H208" s="2"/>
       <c r="I208" s="2"/>
@@ -9259,7 +9273,7 @@
       <c r="W208" s="2"/>
       <c r="X208" s="2"/>
     </row>
-    <row r="209" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="5" t="s">
         <v>334</v>
       </c>
@@ -9271,7 +9285,7 @@
       </c>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
-      <c r="F209" s="42"/>
+      <c r="F209" s="35"/>
       <c r="G209" s="2"/>
       <c r="H209" s="2"/>
       <c r="I209" s="2"/>
@@ -9291,7 +9305,7 @@
       <c r="W209" s="2"/>
       <c r="X209" s="2"/>
     </row>
-    <row r="210" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="5" t="s">
         <v>334</v>
       </c>
@@ -9303,7 +9317,7 @@
       </c>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
-      <c r="F210" s="42"/>
+      <c r="F210" s="35"/>
       <c r="G210" s="2"/>
       <c r="H210" s="2"/>
       <c r="I210" s="2"/>
@@ -9323,7 +9337,7 @@
       <c r="W210" s="2"/>
       <c r="X210" s="2"/>
     </row>
-    <row r="211" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="5" t="s">
         <v>334</v>
       </c>
@@ -9334,7 +9348,7 @@
         <v>102</v>
       </c>
       <c r="E211" s="2"/>
-      <c r="F211" s="42"/>
+      <c r="F211" s="35"/>
       <c r="G211" s="2"/>
       <c r="H211" s="2"/>
       <c r="I211" s="2"/>
@@ -9354,7 +9368,7 @@
       <c r="W211" s="2"/>
       <c r="X211" s="2"/>
     </row>
-    <row r="212" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="5" t="s">
         <v>334</v>
       </c>
@@ -9365,7 +9379,7 @@
         <v>349</v>
       </c>
       <c r="E212" s="2"/>
-      <c r="F212" s="42"/>
+      <c r="F212" s="35"/>
       <c r="G212" s="2"/>
       <c r="H212" s="2"/>
       <c r="I212" s="2"/>
@@ -9385,7 +9399,7 @@
       <c r="W212" s="2"/>
       <c r="X212" s="2"/>
     </row>
-    <row r="213" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="5" t="s">
         <v>334</v>
       </c>
@@ -9396,7 +9410,7 @@
         <v>351</v>
       </c>
       <c r="E213" s="2"/>
-      <c r="F213" s="42"/>
+      <c r="F213" s="35"/>
       <c r="G213" s="2"/>
       <c r="H213" s="2"/>
       <c r="I213" s="2"/>
@@ -9416,7 +9430,7 @@
       <c r="W213" s="2"/>
       <c r="X213" s="2"/>
     </row>
-    <row r="214" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="5" t="s">
         <v>334</v>
       </c>
@@ -9427,7 +9441,7 @@
         <v>107</v>
       </c>
       <c r="E214" s="2"/>
-      <c r="F214" s="42"/>
+      <c r="F214" s="35"/>
       <c r="G214" s="2"/>
       <c r="H214" s="2"/>
       <c r="I214" s="2"/>
@@ -9447,7 +9461,7 @@
       <c r="W214" s="2"/>
       <c r="X214" s="2"/>
     </row>
-    <row r="215" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="5" t="s">
         <v>334</v>
       </c>
@@ -9458,7 +9472,7 @@
         <v>354</v>
       </c>
       <c r="E215" s="2"/>
-      <c r="F215" s="42"/>
+      <c r="F215" s="35"/>
       <c r="G215" s="2"/>
       <c r="H215" s="2"/>
       <c r="I215" s="2"/>
@@ -9478,7 +9492,7 @@
       <c r="W215" s="2"/>
       <c r="X215" s="2"/>
     </row>
-    <row r="216" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="5" t="s">
         <v>334</v>
       </c>
@@ -9489,7 +9503,7 @@
         <v>356</v>
       </c>
       <c r="E216" s="2"/>
-      <c r="F216" s="42"/>
+      <c r="F216" s="35"/>
       <c r="G216" s="2"/>
       <c r="H216" s="2"/>
       <c r="I216" s="2"/>
@@ -9509,7 +9523,7 @@
       <c r="W216" s="2"/>
       <c r="X216" s="2"/>
     </row>
-    <row r="217" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="5" t="s">
         <v>334</v>
       </c>
@@ -9520,7 +9534,7 @@
         <v>318</v>
       </c>
       <c r="E217" s="2"/>
-      <c r="F217" s="42"/>
+      <c r="F217" s="35"/>
       <c r="G217" s="2"/>
       <c r="H217" s="2"/>
       <c r="I217" s="2"/>
@@ -9540,7 +9554,7 @@
       <c r="W217" s="2"/>
       <c r="X217" s="2"/>
     </row>
-    <row r="218" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="5" t="s">
         <v>334</v>
       </c>
@@ -9551,7 +9565,7 @@
         <v>297</v>
       </c>
       <c r="E218" s="2"/>
-      <c r="F218" s="42"/>
+      <c r="F218" s="35"/>
       <c r="G218" s="2"/>
       <c r="H218" s="2"/>
       <c r="I218" s="2"/>
@@ -9571,7 +9585,7 @@
       <c r="W218" s="2"/>
       <c r="X218" s="2"/>
     </row>
-    <row r="219" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="8" t="s">
         <v>334</v>
       </c>
@@ -9583,7 +9597,7 @@
       </c>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
-      <c r="F219" s="42"/>
+      <c r="F219" s="35"/>
       <c r="G219" s="2"/>
       <c r="H219" s="2"/>
       <c r="I219" s="2"/>
@@ -9603,7 +9617,7 @@
       <c r="W219" s="2"/>
       <c r="X219" s="2"/>
     </row>
-    <row r="220" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="8" t="s">
         <v>334</v>
       </c>
@@ -9615,7 +9629,7 @@
       </c>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
-      <c r="F220" s="42"/>
+      <c r="F220" s="35"/>
       <c r="G220" s="2"/>
       <c r="H220" s="2"/>
       <c r="I220" s="2"/>
@@ -9635,7 +9649,7 @@
       <c r="W220" s="2"/>
       <c r="X220" s="2"/>
     </row>
-    <row r="221" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="8" t="s">
         <v>334</v>
       </c>
@@ -9647,7 +9661,7 @@
       </c>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
-      <c r="F221" s="42"/>
+      <c r="F221" s="35"/>
       <c r="G221" s="2"/>
       <c r="H221" s="2"/>
       <c r="I221" s="2"/>
@@ -9667,7 +9681,7 @@
       <c r="W221" s="2"/>
       <c r="X221" s="2"/>
     </row>
-    <row r="222" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="8" t="s">
         <v>334</v>
       </c>
@@ -9679,7 +9693,7 @@
       </c>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
-      <c r="F222" s="42"/>
+      <c r="F222" s="35"/>
       <c r="G222" s="2"/>
       <c r="H222" s="2"/>
       <c r="I222" s="2"/>
@@ -9699,7 +9713,7 @@
       <c r="W222" s="2"/>
       <c r="X222" s="2"/>
     </row>
-    <row r="223" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="8" t="s">
         <v>334</v>
       </c>
@@ -9711,7 +9725,7 @@
       </c>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
-      <c r="F223" s="42"/>
+      <c r="F223" s="35"/>
       <c r="G223" s="2"/>
       <c r="H223" s="2"/>
       <c r="I223" s="2"/>
@@ -9731,7 +9745,7 @@
       <c r="W223" s="2"/>
       <c r="X223" s="2"/>
     </row>
-    <row r="224" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="8" t="s">
         <v>334</v>
       </c>
@@ -9743,7 +9757,7 @@
       </c>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
-      <c r="F224" s="42"/>
+      <c r="F224" s="35"/>
       <c r="G224" s="2"/>
       <c r="H224" s="2"/>
       <c r="I224" s="2"/>
@@ -9763,7 +9777,7 @@
       <c r="W224" s="2"/>
       <c r="X224" s="2"/>
     </row>
-    <row r="225" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="8" t="s">
         <v>334</v>
       </c>
@@ -9775,7 +9789,7 @@
       </c>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
-      <c r="F225" s="42"/>
+      <c r="F225" s="35"/>
       <c r="G225" s="2"/>
       <c r="H225" s="2"/>
       <c r="I225" s="2"/>
@@ -9795,7 +9809,7 @@
       <c r="W225" s="2"/>
       <c r="X225" s="2"/>
     </row>
-    <row r="226" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="8" t="s">
         <v>334</v>
       </c>
@@ -9807,7 +9821,7 @@
       </c>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
-      <c r="F226" s="42"/>
+      <c r="F226" s="35"/>
       <c r="G226" s="2"/>
       <c r="H226" s="2"/>
       <c r="I226" s="2"/>
@@ -9827,7 +9841,7 @@
       <c r="W226" s="2"/>
       <c r="X226" s="2"/>
     </row>
-    <row r="227" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="8" t="s">
         <v>334</v>
       </c>
@@ -9839,7 +9853,7 @@
       </c>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
-      <c r="F227" s="42"/>
+      <c r="F227" s="35"/>
       <c r="G227" s="2"/>
       <c r="H227" s="2"/>
       <c r="I227" s="2"/>
@@ -9859,7 +9873,7 @@
       <c r="W227" s="2"/>
       <c r="X227" s="2"/>
     </row>
-    <row r="228" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="8" t="s">
         <v>334</v>
       </c>
@@ -9871,7 +9885,7 @@
       </c>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
-      <c r="F228" s="42"/>
+      <c r="F228" s="35"/>
       <c r="G228" s="2"/>
       <c r="H228" s="2"/>
       <c r="I228" s="2"/>
@@ -9891,7 +9905,7 @@
       <c r="W228" s="2"/>
       <c r="X228" s="2"/>
     </row>
-    <row r="229" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="8" t="s">
         <v>334</v>
       </c>
@@ -9903,7 +9917,7 @@
       </c>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
-      <c r="F229" s="42"/>
+      <c r="F229" s="35"/>
       <c r="G229" s="2"/>
       <c r="H229" s="2"/>
       <c r="I229" s="2"/>
@@ -9923,7 +9937,7 @@
       <c r="W229" s="2"/>
       <c r="X229" s="2"/>
     </row>
-    <row r="230" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="8" t="s">
         <v>334</v>
       </c>
@@ -9935,7 +9949,7 @@
       </c>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
-      <c r="F230" s="42"/>
+      <c r="F230" s="35"/>
       <c r="G230" s="2"/>
       <c r="H230" s="2"/>
       <c r="I230" s="2"/>
@@ -9955,7 +9969,7 @@
       <c r="W230" s="2"/>
       <c r="X230" s="2"/>
     </row>
-    <row r="231" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="8" t="s">
         <v>334</v>
       </c>
@@ -9967,7 +9981,7 @@
       </c>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
-      <c r="F231" s="42"/>
+      <c r="F231" s="35"/>
       <c r="G231" s="1"/>
       <c r="H231" s="2"/>
       <c r="I231" s="2"/>
@@ -9987,7 +10001,7 @@
       <c r="W231" s="2"/>
       <c r="X231" s="2"/>
     </row>
-    <row r="232" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="8" t="s">
         <v>334</v>
       </c>
@@ -9999,7 +10013,7 @@
       </c>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
-      <c r="F232" s="42"/>
+      <c r="F232" s="35"/>
       <c r="G232" s="1"/>
       <c r="H232" s="2"/>
       <c r="I232" s="2"/>
@@ -10019,7 +10033,7 @@
       <c r="W232" s="2"/>
       <c r="X232" s="2"/>
     </row>
-    <row r="233" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="8" t="s">
         <v>334</v>
       </c>
@@ -10031,7 +10045,7 @@
       </c>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
-      <c r="F233" s="42"/>
+      <c r="F233" s="35"/>
       <c r="G233" s="1"/>
       <c r="H233" s="2"/>
       <c r="I233" s="2"/>
@@ -10051,7 +10065,7 @@
       <c r="W233" s="2"/>
       <c r="X233" s="2"/>
     </row>
-    <row r="234" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="9" t="s">
         <v>334</v>
       </c>
@@ -10063,7 +10077,7 @@
       </c>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
-      <c r="F234" s="42"/>
+      <c r="F234" s="35"/>
       <c r="G234" s="1"/>
       <c r="H234" s="2"/>
       <c r="I234" s="2"/>
@@ -10083,7 +10097,7 @@
       <c r="W234" s="2"/>
       <c r="X234" s="2"/>
     </row>
-    <row r="235" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="9" t="s">
         <v>334</v>
       </c>
@@ -10095,7 +10109,7 @@
       </c>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
-      <c r="F235" s="42"/>
+      <c r="F235" s="35"/>
       <c r="G235" s="1"/>
       <c r="H235" s="2"/>
       <c r="I235" s="2"/>
@@ -10115,7 +10129,7 @@
       <c r="W235" s="2"/>
       <c r="X235" s="2"/>
     </row>
-    <row r="236" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="9" t="s">
         <v>334</v>
       </c>
@@ -10127,7 +10141,7 @@
       </c>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
-      <c r="F236" s="42"/>
+      <c r="F236" s="35"/>
       <c r="G236" s="1"/>
       <c r="H236" s="2"/>
       <c r="I236" s="2"/>
@@ -10147,7 +10161,7 @@
       <c r="W236" s="2"/>
       <c r="X236" s="2"/>
     </row>
-    <row r="237" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="9" t="s">
         <v>334</v>
       </c>
@@ -10159,7 +10173,7 @@
       </c>
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
-      <c r="F237" s="42"/>
+      <c r="F237" s="35"/>
       <c r="G237" s="2"/>
       <c r="H237" s="2"/>
       <c r="I237" s="2"/>
@@ -10179,13 +10193,13 @@
       <c r="W237" s="2"/>
       <c r="X237" s="2"/>
     </row>
-    <row r="238" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="18"/>
       <c r="B238" s="17"/>
       <c r="C238" s="7"/>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
-      <c r="F238" s="42"/>
+      <c r="F238" s="35"/>
       <c r="G238" s="2"/>
       <c r="H238" s="2"/>
       <c r="I238" s="2"/>
@@ -10205,13 +10219,13 @@
       <c r="W238" s="2"/>
       <c r="X238" s="2"/>
     </row>
-    <row r="239" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="18"/>
       <c r="B239" s="17"/>
       <c r="C239" s="7"/>
       <c r="D239" s="2"/>
       <c r="E239" s="2"/>
-      <c r="F239" s="42"/>
+      <c r="F239" s="35"/>
       <c r="G239" s="2"/>
       <c r="H239" s="2"/>
       <c r="I239" s="2"/>
@@ -10231,7 +10245,7 @@
       <c r="W239" s="2"/>
       <c r="X239" s="2"/>
     </row>
-    <row r="240" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="5" t="s">
         <v>394</v>
       </c>
@@ -10243,7 +10257,7 @@
       </c>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
-      <c r="F240" s="42"/>
+      <c r="F240" s="35"/>
       <c r="G240" s="2"/>
       <c r="H240" s="2"/>
       <c r="I240" s="2"/>
@@ -10263,7 +10277,7 @@
       <c r="W240" s="2"/>
       <c r="X240" s="2"/>
     </row>
-    <row r="241" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="5" t="s">
         <v>394</v>
       </c>
@@ -10275,7 +10289,7 @@
       </c>
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
-      <c r="F241" s="42"/>
+      <c r="F241" s="35"/>
       <c r="G241" s="2"/>
       <c r="H241" s="2"/>
       <c r="I241" s="2"/>
@@ -10295,7 +10309,7 @@
       <c r="W241" s="2"/>
       <c r="X241" s="2"/>
     </row>
-    <row r="242" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="5" t="s">
         <v>394</v>
       </c>
@@ -10306,8 +10320,8 @@
         <v>96</v>
       </c>
       <c r="D242" s="2"/>
-      <c r="E242" s="42"/>
-      <c r="F242" s="42"/>
+      <c r="E242" s="35"/>
+      <c r="F242" s="35"/>
       <c r="G242" s="2"/>
       <c r="H242" s="2"/>
       <c r="I242" s="2"/>
@@ -10327,7 +10341,7 @@
       <c r="W242" s="2"/>
       <c r="X242" s="2"/>
     </row>
-    <row r="243" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="5" t="s">
         <v>394</v>
       </c>
@@ -10338,7 +10352,7 @@
         <v>401</v>
       </c>
       <c r="D243" s="13"/>
-      <c r="F243" s="42"/>
+      <c r="F243" s="35"/>
       <c r="G243" s="2"/>
       <c r="H243" s="2"/>
       <c r="I243" s="2"/>
@@ -10358,7 +10372,7 @@
       <c r="W243" s="2"/>
       <c r="X243" s="2"/>
     </row>
-    <row r="244" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="5" t="s">
         <v>394</v>
       </c>
@@ -10389,7 +10403,7 @@
       <c r="W244" s="2"/>
       <c r="X244" s="2"/>
     </row>
-    <row r="245" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="5" t="s">
         <v>394</v>
       </c>
@@ -10420,7 +10434,7 @@
       <c r="W245" s="2"/>
       <c r="X245" s="2"/>
     </row>
-    <row r="246" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A246" s="5" t="s">
         <v>394</v>
       </c>
@@ -10451,7 +10465,7 @@
       <c r="W246" s="2"/>
       <c r="X246" s="2"/>
     </row>
-    <row r="247" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="8" t="s">
         <v>394</v>
       </c>
@@ -10482,7 +10496,7 @@
       <c r="W247" s="2"/>
       <c r="X247" s="2"/>
     </row>
-    <row r="248" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="8" t="s">
         <v>394</v>
       </c>
@@ -10513,7 +10527,7 @@
       <c r="W248" s="2"/>
       <c r="X248" s="2"/>
     </row>
-    <row r="249" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A249" s="8" t="s">
         <v>394</v>
       </c>
@@ -10544,7 +10558,7 @@
       <c r="W249" s="2"/>
       <c r="X249" s="2"/>
     </row>
-    <row r="250" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A250" s="8" t="s">
         <v>394</v>
       </c>
@@ -10575,7 +10589,7 @@
       <c r="W250" s="2"/>
       <c r="X250" s="2"/>
     </row>
-    <row r="251" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A251" s="8" t="s">
         <v>394</v>
       </c>
@@ -10606,7 +10620,7 @@
       <c r="W251" s="2"/>
       <c r="X251" s="2"/>
     </row>
-    <row r="252" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A252" s="8" t="s">
         <v>394</v>
       </c>
@@ -10637,7 +10651,7 @@
       <c r="W252" s="2"/>
       <c r="X252" s="2"/>
     </row>
-    <row r="253" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A253" s="8" t="s">
         <v>394</v>
       </c>
@@ -10668,7 +10682,7 @@
       <c r="W253" s="2"/>
       <c r="X253" s="2"/>
     </row>
-    <row r="254" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A254" s="8" t="s">
         <v>394</v>
       </c>
@@ -10699,7 +10713,7 @@
       <c r="W254" s="2"/>
       <c r="X254" s="2"/>
     </row>
-    <row r="255" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A255" s="8" t="s">
         <v>394</v>
       </c>
@@ -10730,7 +10744,7 @@
       <c r="W255" s="2"/>
       <c r="X255" s="2"/>
     </row>
-    <row r="256" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A256" s="9" t="s">
         <v>394</v>
       </c>
@@ -10761,7 +10775,7 @@
       <c r="W256" s="2"/>
       <c r="X256" s="2"/>
     </row>
-    <row r="257" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A257" s="9" t="s">
         <v>394</v>
       </c>
@@ -10792,7 +10806,7 @@
       <c r="W257" s="2"/>
       <c r="X257" s="2"/>
     </row>
-    <row r="258" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A258" s="9" t="s">
         <v>394</v>
       </c>
@@ -10823,7 +10837,7 @@
       <c r="W258" s="2"/>
       <c r="X258" s="2"/>
     </row>
-    <row r="259" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A259" s="9" t="s">
         <v>394</v>
       </c>
@@ -10855,7 +10869,7 @@
       <c r="W259" s="2"/>
       <c r="X259" s="2"/>
     </row>
-    <row r="260" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A260" s="9" t="s">
         <v>394</v>
       </c>
@@ -10889,7 +10903,7 @@
       <c r="W260" s="2"/>
       <c r="X260" s="2"/>
     </row>
-    <row r="261" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A261" s="18"/>
       <c r="B261" s="17"/>
       <c r="C261" s="7"/>
@@ -10915,7 +10929,7 @@
       <c r="W261" s="2"/>
       <c r="X261" s="2"/>
     </row>
-    <row r="262" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A262" s="18"/>
       <c r="B262" s="17"/>
       <c r="C262" s="7"/>
@@ -10941,7 +10955,7 @@
       <c r="W262" s="2"/>
       <c r="X262" s="2"/>
     </row>
-    <row r="263" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A263" s="8" t="s">
         <v>429</v>
       </c>
@@ -10971,7 +10985,7 @@
       <c r="W263" s="2"/>
       <c r="X263" s="2"/>
     </row>
-    <row r="264" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A264" s="8" t="s">
         <v>429</v>
       </c>
@@ -11003,7 +11017,7 @@
       <c r="W264" s="2"/>
       <c r="X264" s="2"/>
     </row>
-    <row r="265" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A265" s="8" t="s">
         <v>429</v>
       </c>
@@ -11035,7 +11049,7 @@
       <c r="W265" s="2"/>
       <c r="X265" s="2"/>
     </row>
-    <row r="266" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A266" s="8" t="s">
         <v>429</v>
       </c>
@@ -11067,7 +11081,7 @@
       <c r="W266" s="2"/>
       <c r="X266" s="2"/>
     </row>
-    <row r="267" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A267" s="8" t="s">
         <v>429</v>
       </c>
@@ -11099,7 +11113,7 @@
       <c r="W267" s="2"/>
       <c r="X267" s="2"/>
     </row>
-    <row r="268" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A268" s="8" t="s">
         <v>429</v>
       </c>
@@ -11131,7 +11145,7 @@
       <c r="W268" s="2"/>
       <c r="X268" s="2"/>
     </row>
-    <row r="269" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A269" s="8" t="s">
         <v>429</v>
       </c>
@@ -11163,7 +11177,7 @@
       <c r="W269" s="2"/>
       <c r="X269" s="2"/>
     </row>
-    <row r="270" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A270" s="8" t="s">
         <v>429</v>
       </c>
@@ -11195,7 +11209,7 @@
       <c r="W270" s="2"/>
       <c r="X270" s="2"/>
     </row>
-    <row r="271" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A271" s="8" t="s">
         <v>429</v>
       </c>
@@ -11227,7 +11241,7 @@
       <c r="W271" s="2"/>
       <c r="X271" s="2"/>
     </row>
-    <row r="272" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A272" s="8" t="s">
         <v>429</v>
       </c>
@@ -11259,7 +11273,7 @@
       <c r="W272" s="2"/>
       <c r="X272" s="2"/>
     </row>
-    <row r="273" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A273" s="8" t="s">
         <v>429</v>
       </c>
@@ -11291,7 +11305,7 @@
       <c r="W273" s="2"/>
       <c r="X273" s="2"/>
     </row>
-    <row r="274" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A274" s="8" t="s">
         <v>429</v>
       </c>
@@ -11323,7 +11337,7 @@
       <c r="W274" s="2"/>
       <c r="X274" s="2"/>
     </row>
-    <row r="275" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A275" s="8" t="s">
         <v>429</v>
       </c>
@@ -11355,7 +11369,7 @@
       <c r="W275" s="2"/>
       <c r="X275" s="2"/>
     </row>
-    <row r="276" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A276" s="8" t="s">
         <v>429</v>
       </c>
@@ -11387,7 +11401,7 @@
       <c r="W276" s="2"/>
       <c r="X276" s="2"/>
     </row>
-    <row r="277" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A277" s="8" t="s">
         <v>429</v>
       </c>
@@ -11419,7 +11433,7 @@
       <c r="W277" s="2"/>
       <c r="X277" s="2"/>
     </row>
-    <row r="278" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A278" s="8" t="s">
         <v>429</v>
       </c>
@@ -11451,7 +11465,7 @@
       <c r="W278" s="2"/>
       <c r="X278" s="2"/>
     </row>
-    <row r="279" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A279" s="9" t="s">
         <v>429</v>
       </c>
@@ -11483,7 +11497,7 @@
       <c r="W279" s="2"/>
       <c r="X279" s="2"/>
     </row>
-    <row r="280" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A280" s="9" t="s">
         <v>429</v>
       </c>
@@ -11515,7 +11529,7 @@
       <c r="W280" s="2"/>
       <c r="X280" s="2"/>
     </row>
-    <row r="281" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A281" s="9" t="s">
         <v>429</v>
       </c>
@@ -11546,7 +11560,7 @@
       <c r="W281" s="2"/>
       <c r="X281" s="2"/>
     </row>
-    <row r="282" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A282" s="9" t="s">
         <v>429</v>
       </c>
@@ -11577,7 +11591,7 @@
       <c r="W282" s="2"/>
       <c r="X282" s="2"/>
     </row>
-    <row r="283" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A283" s="9" t="s">
         <v>429</v>
       </c>
@@ -11608,7 +11622,7 @@
       <c r="W283" s="2"/>
       <c r="X283" s="2"/>
     </row>
-    <row r="284" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A284" s="9" t="s">
         <v>429</v>
       </c>
@@ -11639,7 +11653,7 @@
       <c r="W284" s="2"/>
       <c r="X284" s="2"/>
     </row>
-    <row r="285" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A285" s="9" t="s">
         <v>429</v>
       </c>
@@ -11670,7 +11684,7 @@
       <c r="W285" s="2"/>
       <c r="X285" s="2"/>
     </row>
-    <row r="286" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A286" s="9" t="s">
         <v>429</v>
       </c>
@@ -11701,7 +11715,7 @@
       <c r="W286" s="2"/>
       <c r="X286" s="2"/>
     </row>
-    <row r="287" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A287" s="9" t="s">
         <v>429</v>
       </c>
@@ -11732,7 +11746,7 @@
       <c r="W287" s="2"/>
       <c r="X287" s="2"/>
     </row>
-    <row r="288" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A288" s="9" t="s">
         <v>429</v>
       </c>
@@ -11763,7 +11777,7 @@
       <c r="W288" s="2"/>
       <c r="X288" s="2"/>
     </row>
-    <row r="289" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A289" s="9" t="s">
         <v>429</v>
       </c>
@@ -11794,7 +11808,7 @@
       <c r="W289" s="2"/>
       <c r="X289" s="2"/>
     </row>
-    <row r="290" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A290" s="9" t="s">
         <v>429</v>
       </c>
@@ -11825,7 +11839,7 @@
       <c r="W290" s="2"/>
       <c r="X290" s="2"/>
     </row>
-    <row r="291" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A291" s="18"/>
       <c r="B291" s="17"/>
       <c r="C291" s="7"/>
@@ -11850,7 +11864,7 @@
       <c r="W291" s="2"/>
       <c r="X291" s="2"/>
     </row>
-    <row r="292" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A292" s="18"/>
       <c r="B292" s="17"/>
       <c r="C292" s="7"/>
@@ -11876,7 +11890,7 @@
       <c r="W292" s="2"/>
       <c r="X292" s="2"/>
     </row>
-    <row r="293" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A293" s="5" t="s">
         <v>474</v>
       </c>
@@ -11886,7 +11900,7 @@
       <c r="C293" s="13" t="s">
         <v>476</v>
       </c>
-      <c r="D293" s="42"/>
+      <c r="D293" s="35"/>
       <c r="E293" s="2"/>
       <c r="F293" s="2"/>
       <c r="G293" s="2"/>
@@ -11908,7 +11922,7 @@
       <c r="W293" s="2"/>
       <c r="X293" s="2"/>
     </row>
-    <row r="294" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A294" s="5" t="s">
         <v>474</v>
       </c>
@@ -11918,7 +11932,7 @@
       <c r="C294" s="13" t="s">
         <v>478</v>
       </c>
-      <c r="D294" s="42"/>
+      <c r="D294" s="35"/>
       <c r="E294" s="2"/>
       <c r="F294" s="2"/>
       <c r="G294" s="2"/>
@@ -11940,7 +11954,7 @@
       <c r="W294" s="2"/>
       <c r="X294" s="2"/>
     </row>
-    <row r="295" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A295" s="5" t="s">
         <v>474</v>
       </c>
@@ -11950,7 +11964,7 @@
       <c r="C295" s="13" t="s">
         <v>480</v>
       </c>
-      <c r="D295" s="42"/>
+      <c r="D295" s="35"/>
       <c r="E295" s="2"/>
       <c r="F295" s="2"/>
       <c r="G295" s="2"/>
@@ -11972,7 +11986,7 @@
       <c r="W295" s="2"/>
       <c r="X295" s="2"/>
     </row>
-    <row r="296" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A296" s="5" t="s">
         <v>474</v>
       </c>
@@ -11982,7 +11996,7 @@
       <c r="C296" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="D296" s="42"/>
+      <c r="D296" s="35"/>
       <c r="E296" s="2"/>
       <c r="F296" s="2"/>
       <c r="G296" s="2"/>
@@ -12004,7 +12018,7 @@
       <c r="W296" s="2"/>
       <c r="X296" s="2"/>
     </row>
-    <row r="297" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A297" s="8" t="s">
         <v>474</v>
       </c>
@@ -12014,7 +12028,7 @@
       <c r="C297" s="13" t="s">
         <v>483</v>
       </c>
-      <c r="D297" s="42"/>
+      <c r="D297" s="35"/>
       <c r="E297" s="2"/>
       <c r="F297" s="2"/>
       <c r="G297" s="2"/>
@@ -12036,7 +12050,7 @@
       <c r="W297" s="2"/>
       <c r="X297" s="2"/>
     </row>
-    <row r="298" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A298" s="8" t="s">
         <v>474</v>
       </c>
@@ -12046,7 +12060,7 @@
       <c r="C298" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="D298" s="42"/>
+      <c r="D298" s="35"/>
       <c r="E298" s="2"/>
       <c r="F298" s="2"/>
       <c r="G298" s="2"/>
@@ -12068,7 +12082,7 @@
       <c r="W298" s="2"/>
       <c r="X298" s="2"/>
     </row>
-    <row r="299" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A299" s="8" t="s">
         <v>474</v>
       </c>
@@ -12078,7 +12092,7 @@
       <c r="C299" s="13" t="s">
         <v>486</v>
       </c>
-      <c r="D299" s="42"/>
+      <c r="D299" s="35"/>
       <c r="E299" s="2"/>
       <c r="F299" s="2"/>
       <c r="G299" s="2"/>
@@ -12100,7 +12114,7 @@
       <c r="W299" s="2"/>
       <c r="X299" s="2"/>
     </row>
-    <row r="300" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A300" s="8" t="s">
         <v>474</v>
       </c>
@@ -12110,7 +12124,7 @@
       <c r="C300" s="13" t="s">
         <v>488</v>
       </c>
-      <c r="D300" s="42"/>
+      <c r="D300" s="35"/>
       <c r="E300" s="2"/>
       <c r="F300" s="2"/>
       <c r="G300" s="2"/>
@@ -12132,7 +12146,7 @@
       <c r="W300" s="2"/>
       <c r="X300" s="2"/>
     </row>
-    <row r="301" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A301" s="8" t="s">
         <v>474</v>
       </c>
@@ -12142,7 +12156,7 @@
       <c r="C301" s="13" t="s">
         <v>490</v>
       </c>
-      <c r="D301" s="42"/>
+      <c r="D301" s="35"/>
       <c r="E301" s="2"/>
       <c r="F301" s="2"/>
       <c r="G301" s="2"/>
@@ -12164,7 +12178,7 @@
       <c r="W301" s="2"/>
       <c r="X301" s="2"/>
     </row>
-    <row r="302" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A302" s="8" t="s">
         <v>474</v>
       </c>
@@ -12174,7 +12188,7 @@
       <c r="C302" s="13" t="s">
         <v>488</v>
       </c>
-      <c r="D302" s="42"/>
+      <c r="D302" s="35"/>
       <c r="E302" s="2"/>
       <c r="F302" s="2"/>
       <c r="G302" s="2"/>
@@ -12196,7 +12210,7 @@
       <c r="W302" s="2"/>
       <c r="X302" s="2"/>
     </row>
-    <row r="303" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A303" s="8" t="s">
         <v>474</v>
       </c>
@@ -12206,7 +12220,7 @@
       <c r="C303" s="13" t="s">
         <v>493</v>
       </c>
-      <c r="D303" s="42"/>
+      <c r="D303" s="35"/>
       <c r="E303" s="2"/>
       <c r="F303" s="2"/>
       <c r="G303" s="2"/>
@@ -12228,7 +12242,7 @@
       <c r="W303" s="2"/>
       <c r="X303" s="2"/>
     </row>
-    <row r="304" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A304" s="8" t="s">
         <v>474</v>
       </c>
@@ -12238,7 +12252,7 @@
       <c r="C304" s="13" t="s">
         <v>495</v>
       </c>
-      <c r="D304" s="42"/>
+      <c r="D304" s="35"/>
       <c r="E304" s="2"/>
       <c r="F304" s="2"/>
       <c r="G304" s="2"/>
@@ -12260,7 +12274,7 @@
       <c r="W304" s="2"/>
       <c r="X304" s="2"/>
     </row>
-    <row r="305" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A305" s="8" t="s">
         <v>474</v>
       </c>
@@ -12270,7 +12284,7 @@
       <c r="C305" s="13" t="s">
         <v>486</v>
       </c>
-      <c r="D305" s="42"/>
+      <c r="D305" s="35"/>
       <c r="E305" s="2"/>
       <c r="F305" s="2"/>
       <c r="G305" s="2"/>
@@ -12292,7 +12306,7 @@
       <c r="W305" s="2"/>
       <c r="X305" s="2"/>
     </row>
-    <row r="306" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A306" s="8" t="s">
         <v>474</v>
       </c>
@@ -12302,7 +12316,7 @@
       <c r="C306" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D306" s="42"/>
+      <c r="D306" s="35"/>
       <c r="E306" s="2"/>
       <c r="F306" s="2"/>
       <c r="G306" s="2"/>
@@ -12324,7 +12338,7 @@
       <c r="W306" s="2"/>
       <c r="X306" s="2"/>
     </row>
-    <row r="307" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A307" s="8" t="s">
         <v>474</v>
       </c>
@@ -12334,7 +12348,7 @@
       <c r="C307" s="13" t="s">
         <v>499</v>
       </c>
-      <c r="D307" s="42"/>
+      <c r="D307" s="35"/>
       <c r="E307" s="2"/>
       <c r="F307" s="2"/>
       <c r="G307" s="2"/>
@@ -12356,7 +12370,7 @@
       <c r="W307" s="2"/>
       <c r="X307" s="2"/>
     </row>
-    <row r="308" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A308" s="8" t="s">
         <v>474</v>
       </c>
@@ -12366,7 +12380,7 @@
       <c r="C308" s="13" t="s">
         <v>501</v>
       </c>
-      <c r="D308" s="42"/>
+      <c r="D308" s="35"/>
       <c r="E308" s="2"/>
       <c r="F308" s="2"/>
       <c r="G308" s="2"/>
@@ -12388,7 +12402,7 @@
       <c r="W308" s="2"/>
       <c r="X308" s="2"/>
     </row>
-    <row r="309" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A309" s="8" t="s">
         <v>474</v>
       </c>
@@ -12398,7 +12412,7 @@
       <c r="C309" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="D309" s="42"/>
+      <c r="D309" s="35"/>
       <c r="E309" s="2"/>
       <c r="F309" s="2"/>
       <c r="G309" s="2"/>
@@ -12420,17 +12434,17 @@
       <c r="W309" s="2"/>
       <c r="X309" s="2"/>
     </row>
-    <row r="310" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A310" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="B310" s="44" t="s">
+      <c r="B310" s="37" t="s">
         <v>503</v>
       </c>
       <c r="C310" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D310" s="42"/>
+      <c r="D310" s="35"/>
       <c r="E310" s="2"/>
       <c r="F310" s="2"/>
       <c r="G310" s="2"/>
@@ -12452,7 +12466,7 @@
       <c r="W310" s="2"/>
       <c r="X310" s="2"/>
     </row>
-    <row r="311" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A311" s="8" t="s">
         <v>474</v>
       </c>
@@ -12462,7 +12476,7 @@
       <c r="C311" s="13" t="s">
         <v>505</v>
       </c>
-      <c r="D311" s="42"/>
+      <c r="D311" s="35"/>
       <c r="E311" s="2"/>
       <c r="F311" s="2"/>
       <c r="G311" s="2"/>
@@ -12484,7 +12498,7 @@
       <c r="W311" s="2"/>
       <c r="X311" s="2"/>
     </row>
-    <row r="312" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A312" s="8" t="s">
         <v>474</v>
       </c>
@@ -12494,7 +12508,7 @@
       <c r="C312" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="D312" s="42"/>
+      <c r="D312" s="35"/>
       <c r="E312" s="2"/>
       <c r="F312" s="2"/>
       <c r="G312" s="2"/>
@@ -12516,7 +12530,7 @@
       <c r="W312" s="2"/>
       <c r="X312" s="2"/>
     </row>
-    <row r="313" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A313" s="8" t="s">
         <v>474</v>
       </c>
@@ -12526,7 +12540,7 @@
       <c r="C313" s="13" t="s">
         <v>508</v>
       </c>
-      <c r="D313" s="42"/>
+      <c r="D313" s="35"/>
       <c r="E313" s="2"/>
       <c r="F313" s="2"/>
       <c r="G313" s="2"/>
@@ -12548,7 +12562,7 @@
       <c r="W313" s="2"/>
       <c r="X313" s="2"/>
     </row>
-    <row r="314" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A314" s="8" t="s">
         <v>474</v>
       </c>
@@ -12558,7 +12572,7 @@
       <c r="C314" s="13" t="s">
         <v>510</v>
       </c>
-      <c r="D314" s="42"/>
+      <c r="D314" s="35"/>
       <c r="E314" s="2"/>
       <c r="F314" s="2"/>
       <c r="G314" s="2"/>
@@ -12580,7 +12594,7 @@
       <c r="W314" s="2"/>
       <c r="X314" s="2"/>
     </row>
-    <row r="315" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A315" s="8" t="s">
         <v>474</v>
       </c>
@@ -12590,7 +12604,7 @@
       <c r="C315" s="13" t="s">
         <v>512</v>
       </c>
-      <c r="D315" s="42"/>
+      <c r="D315" s="35"/>
       <c r="E315" s="2"/>
       <c r="F315" s="2"/>
       <c r="G315" s="2"/>
@@ -12612,7 +12626,7 @@
       <c r="W315" s="2"/>
       <c r="X315" s="2"/>
     </row>
-    <row r="316" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A316" s="8" t="s">
         <v>474</v>
       </c>
@@ -12622,7 +12636,7 @@
       <c r="C316" s="13" t="s">
         <v>514</v>
       </c>
-      <c r="D316" s="42"/>
+      <c r="D316" s="35"/>
       <c r="E316" s="2"/>
       <c r="F316" s="2"/>
       <c r="G316" s="2"/>
@@ -12644,7 +12658,7 @@
       <c r="W316" s="2"/>
       <c r="X316" s="2"/>
     </row>
-    <row r="317" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A317" s="8" t="s">
         <v>474</v>
       </c>
@@ -12654,7 +12668,7 @@
       <c r="C317" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="D317" s="42"/>
+      <c r="D317" s="35"/>
       <c r="E317" s="2"/>
       <c r="F317" s="2"/>
       <c r="G317" s="2"/>
@@ -12676,7 +12690,7 @@
       <c r="W317" s="2"/>
       <c r="X317" s="2"/>
     </row>
-    <row r="318" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A318" s="8" t="s">
         <v>474</v>
       </c>
@@ -12686,7 +12700,7 @@
       <c r="C318" s="13" t="s">
         <v>516</v>
       </c>
-      <c r="D318" s="42"/>
+      <c r="D318" s="35"/>
       <c r="E318" s="2"/>
       <c r="F318" s="2"/>
       <c r="G318" s="2"/>
@@ -12708,7 +12722,7 @@
       <c r="W318" s="2"/>
       <c r="X318" s="2"/>
     </row>
-    <row r="319" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A319" s="8" t="s">
         <v>474</v>
       </c>
@@ -12718,7 +12732,7 @@
       <c r="C319" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="D319" s="42"/>
+      <c r="D319" s="35"/>
       <c r="E319" s="2"/>
       <c r="F319" s="2"/>
       <c r="G319" s="2"/>
@@ -12740,7 +12754,7 @@
       <c r="W319" s="2"/>
       <c r="X319" s="2"/>
     </row>
-    <row r="320" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A320" s="8" t="s">
         <v>474</v>
       </c>
@@ -12750,7 +12764,7 @@
       <c r="C320" s="13" t="s">
         <v>486</v>
       </c>
-      <c r="D320" s="42"/>
+      <c r="D320" s="35"/>
       <c r="E320" s="2"/>
       <c r="F320" s="2"/>
       <c r="G320" s="2"/>
@@ -12772,7 +12786,7 @@
       <c r="W320" s="2"/>
       <c r="X320" s="2"/>
     </row>
-    <row r="321" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A321" s="8" t="s">
         <v>474</v>
       </c>
@@ -12782,7 +12796,7 @@
       <c r="C321" s="13" t="s">
         <v>521</v>
       </c>
-      <c r="D321" s="42"/>
+      <c r="D321" s="35"/>
       <c r="E321" s="2"/>
       <c r="F321" s="2"/>
       <c r="G321" s="2"/>
@@ -12804,7 +12818,7 @@
       <c r="W321" s="2"/>
       <c r="X321" s="2"/>
     </row>
-    <row r="322" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A322" s="9" t="s">
         <v>474</v>
       </c>
@@ -12814,7 +12828,7 @@
       <c r="C322" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D322" s="42"/>
+      <c r="D322" s="35"/>
       <c r="E322" s="2"/>
       <c r="F322" s="2"/>
       <c r="G322" s="2"/>
@@ -12836,7 +12850,7 @@
       <c r="W322" s="2"/>
       <c r="X322" s="2"/>
     </row>
-    <row r="323" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A323" s="9" t="s">
         <v>474</v>
       </c>
@@ -12846,7 +12860,7 @@
       <c r="C323" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="D323" s="42"/>
+      <c r="D323" s="35"/>
       <c r="E323" s="2"/>
       <c r="F323" s="2"/>
       <c r="G323" s="2"/>
@@ -12868,7 +12882,7 @@
       <c r="W323" s="2"/>
       <c r="X323" s="2"/>
     </row>
-    <row r="324" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A324" s="9" t="s">
         <v>474</v>
       </c>
@@ -12902,7 +12916,7 @@
       <c r="W324" s="2"/>
       <c r="X324" s="2"/>
     </row>
-    <row r="325" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A325" s="9" t="s">
         <v>474</v>
       </c>
@@ -12912,7 +12926,7 @@
       <c r="C325" s="13" t="s">
         <v>527</v>
       </c>
-      <c r="D325" s="42"/>
+      <c r="D325" s="35"/>
       <c r="E325" s="2"/>
       <c r="F325" s="2"/>
       <c r="G325" s="2"/>
@@ -12934,7 +12948,7 @@
       <c r="W325" s="2"/>
       <c r="X325" s="2"/>
     </row>
-    <row r="326" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A326" s="9" t="s">
         <v>474</v>
       </c>
@@ -12968,7 +12982,7 @@
       <c r="W326" s="2"/>
       <c r="X326" s="2"/>
     </row>
-    <row r="327" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A327" s="9" t="s">
         <v>474</v>
       </c>
@@ -12978,7 +12992,7 @@
       <c r="C327" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="D327" s="42"/>
+      <c r="D327" s="35"/>
       <c r="E327" s="2"/>
       <c r="F327" s="2"/>
       <c r="G327" s="2"/>
@@ -13000,7 +13014,7 @@
       <c r="W327" s="2"/>
       <c r="X327" s="2"/>
     </row>
-    <row r="328" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A328" s="9" t="s">
         <v>474</v>
       </c>
@@ -13010,7 +13024,7 @@
       <c r="C328" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D328" s="42"/>
+      <c r="D328" s="35"/>
       <c r="E328" s="2"/>
       <c r="F328" s="2"/>
       <c r="G328" s="2"/>
@@ -13032,7 +13046,7 @@
       <c r="W328" s="2"/>
       <c r="X328" s="2"/>
     </row>
-    <row r="329" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A329" s="9" t="s">
         <v>474</v>
       </c>
@@ -13042,7 +13056,7 @@
       <c r="C329" s="13" t="s">
         <v>533</v>
       </c>
-      <c r="D329" s="42"/>
+      <c r="D329" s="35"/>
       <c r="E329" s="2"/>
       <c r="F329" s="2"/>
       <c r="G329" s="2"/>
@@ -13064,7 +13078,7 @@
       <c r="W329" s="2"/>
       <c r="X329" s="2"/>
     </row>
-    <row r="330" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A330" s="9" t="s">
         <v>474</v>
       </c>
@@ -13074,7 +13088,7 @@
       <c r="C330" s="13" t="s">
         <v>514</v>
       </c>
-      <c r="D330" s="42"/>
+      <c r="D330" s="35"/>
       <c r="E330" s="2"/>
       <c r="F330" s="2"/>
       <c r="G330" s="2"/>
@@ -13096,7 +13110,7 @@
       <c r="W330" s="2"/>
       <c r="X330" s="2"/>
     </row>
-    <row r="331" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A331" s="9" t="s">
         <v>474</v>
       </c>
@@ -13106,7 +13120,7 @@
       <c r="C331" s="13" t="s">
         <v>533</v>
       </c>
-      <c r="D331" s="42"/>
+      <c r="D331" s="35"/>
       <c r="E331" s="2"/>
       <c r="F331" s="2"/>
       <c r="G331" s="2"/>
@@ -13128,7 +13142,7 @@
       <c r="W331" s="2"/>
       <c r="X331" s="2"/>
     </row>
-    <row r="332" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A332" s="9" t="s">
         <v>474</v>
       </c>
@@ -13138,7 +13152,7 @@
       <c r="C332" s="13" t="s">
         <v>537</v>
       </c>
-      <c r="D332" s="42"/>
+      <c r="D332" s="35"/>
       <c r="E332" s="2"/>
       <c r="F332" s="2"/>
       <c r="G332" s="2"/>
@@ -13160,11 +13174,11 @@
       <c r="W332" s="2"/>
       <c r="X332" s="2"/>
     </row>
-    <row r="333" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A333" s="18"/>
       <c r="B333" s="17"/>
       <c r="C333" s="7"/>
-      <c r="D333" s="42"/>
+      <c r="D333" s="35"/>
       <c r="E333" s="2"/>
       <c r="F333" s="2"/>
       <c r="G333" s="2"/>
@@ -13186,7 +13200,7 @@
       <c r="W333" s="2"/>
       <c r="X333" s="2"/>
     </row>
-    <row r="334" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A334" s="18"/>
       <c r="B334" s="17"/>
       <c r="C334" s="7"/>
@@ -13212,11 +13226,11 @@
       <c r="W334" s="2"/>
       <c r="X334" s="2"/>
     </row>
-    <row r="335" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A335" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="B335" s="45" t="s">
+      <c r="B335" s="38" t="s">
         <v>539</v>
       </c>
       <c r="C335" s="13" t="s">
@@ -13244,11 +13258,11 @@
       <c r="W335" s="2"/>
       <c r="X335" s="2"/>
     </row>
-    <row r="336" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A336" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="B336" s="45" t="s">
+      <c r="B336" s="38" t="s">
         <v>541</v>
       </c>
       <c r="C336" s="13" t="s">
@@ -13276,11 +13290,11 @@
       <c r="W336" s="2"/>
       <c r="X336" s="2"/>
     </row>
-    <row r="337" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A337" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="B337" s="45" t="s">
+      <c r="B337" s="38" t="s">
         <v>543</v>
       </c>
       <c r="C337" s="13" t="s">
@@ -13308,11 +13322,11 @@
       <c r="W337" s="2"/>
       <c r="X337" s="2"/>
     </row>
-    <row r="338" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A338" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="B338" s="45" t="s">
+      <c r="B338" s="38" t="s">
         <v>545</v>
       </c>
       <c r="C338" s="13" t="s">
@@ -13340,11 +13354,11 @@
       <c r="W338" s="2"/>
       <c r="X338" s="2"/>
     </row>
-    <row r="339" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A339" s="9" t="s">
         <v>538</v>
       </c>
-      <c r="B339" s="45" t="s">
+      <c r="B339" s="38" t="s">
         <v>547</v>
       </c>
       <c r="C339" s="13" t="s">
@@ -13372,11 +13386,11 @@
       <c r="W339" s="2"/>
       <c r="X339" s="2"/>
     </row>
-    <row r="340" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A340" s="9" t="s">
         <v>538</v>
       </c>
-      <c r="B340" s="45" t="s">
+      <c r="B340" s="38" t="s">
         <v>549</v>
       </c>
       <c r="C340" s="13" t="s">
@@ -13404,7 +13418,7 @@
       <c r="W340" s="2"/>
       <c r="X340" s="2"/>
     </row>
-    <row r="341" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A341" s="18"/>
       <c r="B341" s="17"/>
       <c r="C341" s="7"/>
@@ -13430,7 +13444,7 @@
       <c r="W341" s="2"/>
       <c r="X341" s="2"/>
     </row>
-    <row r="342" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A342" s="18"/>
       <c r="B342" s="17"/>
       <c r="C342" s="7"/>
@@ -13456,7 +13470,7 @@
       <c r="W342" s="2"/>
       <c r="X342" s="2"/>
     </row>
-    <row r="343" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A343" s="5" t="s">
         <v>551</v>
       </c>
@@ -13488,7 +13502,7 @@
       <c r="W343" s="2"/>
       <c r="X343" s="2"/>
     </row>
-    <row r="344" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A344" s="5" t="s">
         <v>551</v>
       </c>
@@ -13520,7 +13534,7 @@
       <c r="W344" s="2"/>
       <c r="X344" s="2"/>
     </row>
-    <row r="345" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A345" s="5" t="s">
         <v>551</v>
       </c>
@@ -13552,7 +13566,7 @@
       <c r="W345" s="2"/>
       <c r="X345" s="2"/>
     </row>
-    <row r="346" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A346" s="5" t="s">
         <v>551</v>
       </c>
@@ -13584,7 +13598,7 @@
       <c r="W346" s="2"/>
       <c r="X346" s="2"/>
     </row>
-    <row r="347" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A347" s="5" t="s">
         <v>551</v>
       </c>
@@ -13616,7 +13630,7 @@
       <c r="W347" s="2"/>
       <c r="X347" s="2"/>
     </row>
-    <row r="348" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A348" s="5" t="s">
         <v>551</v>
       </c>
@@ -13648,7 +13662,7 @@
       <c r="W348" s="2"/>
       <c r="X348" s="2"/>
     </row>
-    <row r="349" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A349" s="5" t="s">
         <v>551</v>
       </c>
@@ -13659,7 +13673,7 @@
         <v>559</v>
       </c>
       <c r="D349" s="2"/>
-      <c r="E349" s="42"/>
+      <c r="E349" s="35"/>
       <c r="F349" s="2"/>
       <c r="G349" s="2"/>
       <c r="H349" s="2"/>
@@ -13680,7 +13694,7 @@
       <c r="W349" s="2"/>
       <c r="X349" s="2"/>
     </row>
-    <row r="350" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A350" s="5" t="s">
         <v>551</v>
       </c>
@@ -13691,7 +13705,7 @@
         <v>383</v>
       </c>
       <c r="D350" s="2"/>
-      <c r="E350" s="42"/>
+      <c r="E350" s="35"/>
       <c r="F350" s="2"/>
       <c r="G350" s="2"/>
       <c r="H350" s="2"/>
@@ -13712,7 +13726,7 @@
       <c r="W350" s="2"/>
       <c r="X350" s="2"/>
     </row>
-    <row r="351" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A351" s="5" t="s">
         <v>551</v>
       </c>
@@ -13723,7 +13737,7 @@
         <v>52</v>
       </c>
       <c r="D351" s="2"/>
-      <c r="E351" s="42"/>
+      <c r="E351" s="35"/>
       <c r="F351" s="2"/>
       <c r="G351" s="2"/>
       <c r="H351" s="2"/>
@@ -13744,7 +13758,7 @@
       <c r="W351" s="2"/>
       <c r="X351" s="2"/>
     </row>
-    <row r="352" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A352" s="8" t="s">
         <v>551</v>
       </c>
@@ -13776,7 +13790,7 @@
       <c r="W352" s="2"/>
       <c r="X352" s="2"/>
     </row>
-    <row r="353" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A353" s="8" t="s">
         <v>551</v>
       </c>
@@ -13808,7 +13822,7 @@
       <c r="W353" s="2"/>
       <c r="X353" s="2"/>
     </row>
-    <row r="354" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A354" s="8" t="s">
         <v>551</v>
       </c>
@@ -13840,7 +13854,7 @@
       <c r="W354" s="2"/>
       <c r="X354" s="2"/>
     </row>
-    <row r="355" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A355" s="8" t="s">
         <v>551</v>
       </c>
@@ -13872,7 +13886,7 @@
       <c r="W355" s="2"/>
       <c r="X355" s="2"/>
     </row>
-    <row r="356" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A356" s="8" t="s">
         <v>551</v>
       </c>
@@ -13904,7 +13918,7 @@
       <c r="W356" s="2"/>
       <c r="X356" s="2"/>
     </row>
-    <row r="357" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A357" s="8" t="s">
         <v>551</v>
       </c>
@@ -13936,7 +13950,7 @@
       <c r="W357" s="2"/>
       <c r="X357" s="2"/>
     </row>
-    <row r="358" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A358" s="8" t="s">
         <v>551</v>
       </c>
@@ -13968,7 +13982,7 @@
       <c r="W358" s="2"/>
       <c r="X358" s="2"/>
     </row>
-    <row r="359" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A359" s="8" t="s">
         <v>551</v>
       </c>
@@ -14000,7 +14014,7 @@
       <c r="W359" s="2"/>
       <c r="X359" s="2"/>
     </row>
-    <row r="360" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A360" s="8" t="s">
         <v>551</v>
       </c>
@@ -14032,7 +14046,7 @@
       <c r="W360" s="2"/>
       <c r="X360" s="2"/>
     </row>
-    <row r="361" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A361" s="8" t="s">
         <v>551</v>
       </c>
@@ -14064,7 +14078,7 @@
       <c r="W361" s="2"/>
       <c r="X361" s="2"/>
     </row>
-    <row r="362" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A362" s="8" t="s">
         <v>551</v>
       </c>
@@ -14096,7 +14110,7 @@
       <c r="W362" s="2"/>
       <c r="X362" s="2"/>
     </row>
-    <row r="363" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A363" s="8" t="s">
         <v>551</v>
       </c>
@@ -14128,7 +14142,7 @@
       <c r="W363" s="2"/>
       <c r="X363" s="2"/>
     </row>
-    <row r="364" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A364" s="8" t="s">
         <v>551</v>
       </c>
@@ -14160,7 +14174,7 @@
       <c r="W364" s="2"/>
       <c r="X364" s="2"/>
     </row>
-    <row r="365" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A365" s="8" t="s">
         <v>551</v>
       </c>
@@ -14192,7 +14206,7 @@
       <c r="W365" s="2"/>
       <c r="X365" s="2"/>
     </row>
-    <row r="366" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A366" s="8" t="s">
         <v>551</v>
       </c>
@@ -14224,7 +14238,7 @@
       <c r="W366" s="2"/>
       <c r="X366" s="2"/>
     </row>
-    <row r="367" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A367" s="8" t="s">
         <v>551</v>
       </c>
@@ -14256,7 +14270,7 @@
       <c r="W367" s="2"/>
       <c r="X367" s="2"/>
     </row>
-    <row r="368" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A368" s="8" t="s">
         <v>551</v>
       </c>
@@ -14288,7 +14302,7 @@
       <c r="W368" s="2"/>
       <c r="X368" s="2"/>
     </row>
-    <row r="369" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A369" s="8" t="s">
         <v>551</v>
       </c>
@@ -14320,7 +14334,7 @@
       <c r="W369" s="2"/>
       <c r="X369" s="2"/>
     </row>
-    <row r="370" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A370" s="8" t="s">
         <v>551</v>
       </c>
@@ -14331,7 +14345,7 @@
         <v>594</v>
       </c>
       <c r="D370" s="2"/>
-      <c r="E370" s="42"/>
+      <c r="E370" s="35"/>
       <c r="F370" s="2"/>
       <c r="G370" s="2"/>
       <c r="H370" s="2"/>
@@ -14352,7 +14366,7 @@
       <c r="W370" s="2"/>
       <c r="X370" s="2"/>
     </row>
-    <row r="371" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A371" s="8" t="s">
         <v>551</v>
       </c>
@@ -14363,7 +14377,7 @@
         <v>596</v>
       </c>
       <c r="D371" s="2"/>
-      <c r="E371" s="42"/>
+      <c r="E371" s="35"/>
       <c r="F371" s="2"/>
       <c r="G371" s="2"/>
       <c r="H371" s="2"/>
@@ -14384,7 +14398,7 @@
       <c r="W371" s="2"/>
       <c r="X371" s="2"/>
     </row>
-    <row r="372" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A372" s="8" t="s">
         <v>551</v>
       </c>
@@ -14395,7 +14409,7 @@
         <v>594</v>
       </c>
       <c r="D372" s="2"/>
-      <c r="E372" s="42"/>
+      <c r="E372" s="35"/>
       <c r="F372" s="2"/>
       <c r="G372" s="2"/>
       <c r="H372" s="2"/>
@@ -14416,7 +14430,7 @@
       <c r="W372" s="2"/>
       <c r="X372" s="2"/>
     </row>
-    <row r="373" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A373" s="8" t="s">
         <v>551</v>
       </c>
@@ -14427,7 +14441,7 @@
         <v>599</v>
       </c>
       <c r="D373" s="2"/>
-      <c r="E373" s="42"/>
+      <c r="E373" s="35"/>
       <c r="F373" s="2"/>
       <c r="G373" s="2"/>
       <c r="H373" s="2"/>
@@ -14448,7 +14462,7 @@
       <c r="W373" s="2"/>
       <c r="X373" s="2"/>
     </row>
-    <row r="374" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A374" s="8" t="s">
         <v>551</v>
       </c>
@@ -14459,7 +14473,7 @@
         <v>318</v>
       </c>
       <c r="D374" s="2"/>
-      <c r="E374" s="42"/>
+      <c r="E374" s="35"/>
       <c r="F374" s="2"/>
       <c r="G374" s="2"/>
       <c r="H374" s="2"/>
@@ -14480,7 +14494,7 @@
       <c r="W374" s="2"/>
       <c r="X374" s="2"/>
     </row>
-    <row r="375" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A375" s="8" t="s">
         <v>551</v>
       </c>
@@ -14491,7 +14505,7 @@
         <v>602</v>
       </c>
       <c r="D375" s="2"/>
-      <c r="E375" s="42"/>
+      <c r="E375" s="35"/>
       <c r="F375" s="2"/>
       <c r="G375" s="2"/>
       <c r="H375" s="2"/>
@@ -14512,7 +14526,7 @@
       <c r="W375" s="2"/>
       <c r="X375" s="2"/>
     </row>
-    <row r="376" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A376" s="8" t="s">
         <v>551</v>
       </c>
@@ -14523,7 +14537,7 @@
         <v>604</v>
       </c>
       <c r="D376" s="2"/>
-      <c r="E376" s="42"/>
+      <c r="E376" s="35"/>
       <c r="F376" s="2"/>
       <c r="G376" s="2"/>
       <c r="H376" s="2"/>
@@ -14544,7 +14558,7 @@
       <c r="W376" s="2"/>
       <c r="X376" s="2"/>
     </row>
-    <row r="377" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A377" s="8" t="s">
         <v>551</v>
       </c>
@@ -14555,7 +14569,7 @@
         <v>606</v>
       </c>
       <c r="D377" s="2"/>
-      <c r="E377" s="42"/>
+      <c r="E377" s="35"/>
       <c r="F377" s="2"/>
       <c r="G377" s="2"/>
       <c r="H377" s="2"/>
@@ -14576,7 +14590,7 @@
       <c r="W377" s="2"/>
       <c r="X377" s="2"/>
     </row>
-    <row r="378" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A378" s="8" t="s">
         <v>551</v>
       </c>
@@ -14587,7 +14601,7 @@
         <v>107</v>
       </c>
       <c r="D378" s="2"/>
-      <c r="E378" s="42"/>
+      <c r="E378" s="35"/>
       <c r="F378" s="2"/>
       <c r="G378" s="2"/>
       <c r="H378" s="2"/>
@@ -14608,7 +14622,7 @@
       <c r="W378" s="2"/>
       <c r="X378" s="2"/>
     </row>
-    <row r="379" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A379" s="8" t="s">
         <v>551</v>
       </c>
@@ -14619,7 +14633,7 @@
         <v>609</v>
       </c>
       <c r="D379" s="2"/>
-      <c r="E379" s="42"/>
+      <c r="E379" s="35"/>
       <c r="F379" s="2"/>
       <c r="G379" s="2"/>
       <c r="H379" s="2"/>
@@ -14640,7 +14654,7 @@
       <c r="W379" s="2"/>
       <c r="X379" s="2"/>
     </row>
-    <row r="380" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A380" s="8" t="s">
         <v>551</v>
       </c>
@@ -14651,7 +14665,7 @@
         <v>610</v>
       </c>
       <c r="D380" s="2"/>
-      <c r="E380" s="42"/>
+      <c r="E380" s="35"/>
       <c r="F380" s="2"/>
       <c r="G380" s="2"/>
       <c r="H380" s="2"/>
@@ -14672,7 +14686,7 @@
       <c r="W380" s="2"/>
       <c r="X380" s="2"/>
     </row>
-    <row r="381" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A381" s="8" t="s">
         <v>551</v>
       </c>
@@ -14683,7 +14697,7 @@
         <v>79</v>
       </c>
       <c r="D381" s="2"/>
-      <c r="E381" s="42"/>
+      <c r="E381" s="35"/>
       <c r="F381" s="2"/>
       <c r="G381" s="2"/>
       <c r="H381" s="2"/>
@@ -14704,7 +14718,7 @@
       <c r="W381" s="2"/>
       <c r="X381" s="2"/>
     </row>
-    <row r="382" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A382" s="8" t="s">
         <v>551</v>
       </c>
@@ -14715,7 +14729,7 @@
         <v>613</v>
       </c>
       <c r="D382" s="2"/>
-      <c r="E382" s="42"/>
+      <c r="E382" s="35"/>
       <c r="F382" s="2"/>
       <c r="G382" s="2"/>
       <c r="H382" s="2"/>
@@ -14736,7 +14750,7 @@
       <c r="W382" s="2"/>
       <c r="X382" s="2"/>
     </row>
-    <row r="383" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A383" s="8" t="s">
         <v>551</v>
       </c>
@@ -14747,7 +14761,7 @@
         <v>614</v>
       </c>
       <c r="D383" s="2"/>
-      <c r="E383" s="42"/>
+      <c r="E383" s="35"/>
       <c r="F383" s="2"/>
       <c r="G383" s="2"/>
       <c r="H383" s="2"/>
@@ -14768,7 +14782,7 @@
       <c r="W383" s="2"/>
       <c r="X383" s="2"/>
     </row>
-    <row r="384" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A384" s="8" t="s">
         <v>551</v>
       </c>
@@ -14779,7 +14793,7 @@
         <v>383</v>
       </c>
       <c r="D384" s="2"/>
-      <c r="E384" s="42"/>
+      <c r="E384" s="35"/>
       <c r="F384" s="2"/>
       <c r="G384" s="2"/>
       <c r="H384" s="2"/>
@@ -14800,7 +14814,7 @@
       <c r="W384" s="2"/>
       <c r="X384" s="2"/>
     </row>
-    <row r="385" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A385" s="8" t="s">
         <v>551</v>
       </c>
@@ -14811,7 +14825,7 @@
         <v>514</v>
       </c>
       <c r="D385" s="2"/>
-      <c r="E385" s="42"/>
+      <c r="E385" s="35"/>
       <c r="F385" s="2"/>
       <c r="G385" s="2"/>
       <c r="H385" s="2"/>
@@ -14832,7 +14846,7 @@
       <c r="W385" s="2"/>
       <c r="X385" s="2"/>
     </row>
-    <row r="386" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A386" s="8" t="s">
         <v>551</v>
       </c>
@@ -14843,7 +14857,7 @@
         <v>618</v>
       </c>
       <c r="D386" s="2"/>
-      <c r="E386" s="42"/>
+      <c r="E386" s="35"/>
       <c r="F386" s="2"/>
       <c r="G386" s="2"/>
       <c r="H386" s="2"/>
@@ -14864,7 +14878,7 @@
       <c r="W386" s="2"/>
       <c r="X386" s="2"/>
     </row>
-    <row r="387" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A387" s="8" t="s">
         <v>551</v>
       </c>
@@ -14875,7 +14889,7 @@
         <v>383</v>
       </c>
       <c r="D387" s="2"/>
-      <c r="E387" s="42"/>
+      <c r="E387" s="35"/>
       <c r="F387" s="2"/>
       <c r="G387" s="2"/>
       <c r="H387" s="2"/>
@@ -14896,7 +14910,7 @@
       <c r="W387" s="2"/>
       <c r="X387" s="2"/>
     </row>
-    <row r="388" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A388" s="8" t="s">
         <v>551</v>
       </c>
@@ -14907,7 +14921,7 @@
         <v>621</v>
       </c>
       <c r="D388" s="2"/>
-      <c r="E388" s="42"/>
+      <c r="E388" s="35"/>
       <c r="F388" s="2"/>
       <c r="G388" s="2"/>
       <c r="H388" s="2"/>
@@ -14928,7 +14942,7 @@
       <c r="W388" s="2"/>
       <c r="X388" s="2"/>
     </row>
-    <row r="389" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A389" s="8" t="s">
         <v>551</v>
       </c>
@@ -14939,7 +14953,7 @@
         <v>60</v>
       </c>
       <c r="D389" s="2"/>
-      <c r="E389" s="42"/>
+      <c r="E389" s="35"/>
       <c r="F389" s="2"/>
       <c r="G389" s="2"/>
       <c r="H389" s="2"/>
@@ -14960,7 +14974,7 @@
       <c r="W389" s="2"/>
       <c r="X389" s="2"/>
     </row>
-    <row r="390" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A390" s="8" t="s">
         <v>551</v>
       </c>
@@ -14971,7 +14985,7 @@
         <v>318</v>
       </c>
       <c r="D390" s="2"/>
-      <c r="E390" s="42"/>
+      <c r="E390" s="35"/>
       <c r="F390" s="2"/>
       <c r="G390" s="2"/>
       <c r="H390" s="2"/>
@@ -14992,7 +15006,7 @@
       <c r="W390" s="2"/>
       <c r="X390" s="2"/>
     </row>
-    <row r="391" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A391" s="8" t="s">
         <v>551</v>
       </c>
@@ -15003,7 +15017,7 @@
         <v>318</v>
       </c>
       <c r="D391" s="2"/>
-      <c r="E391" s="42"/>
+      <c r="E391" s="35"/>
       <c r="F391" s="2"/>
       <c r="G391" s="2"/>
       <c r="H391" s="2"/>
@@ -15024,7 +15038,7 @@
       <c r="W391" s="2"/>
       <c r="X391" s="2"/>
     </row>
-    <row r="392" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A392" s="9" t="s">
         <v>551</v>
       </c>
@@ -15035,7 +15049,7 @@
         <v>625</v>
       </c>
       <c r="D392" s="2"/>
-      <c r="E392" s="42"/>
+      <c r="E392" s="35"/>
       <c r="F392" s="2"/>
       <c r="G392" s="2"/>
       <c r="H392" s="2"/>
@@ -15056,7 +15070,7 @@
       <c r="W392" s="2"/>
       <c r="X392" s="2"/>
     </row>
-    <row r="393" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A393" s="9" t="s">
         <v>551</v>
       </c>
@@ -15067,7 +15081,7 @@
         <v>360</v>
       </c>
       <c r="D393" s="2"/>
-      <c r="E393" s="42"/>
+      <c r="E393" s="35"/>
       <c r="F393" s="2"/>
       <c r="G393" s="2"/>
       <c r="H393" s="2"/>
@@ -15088,7 +15102,7 @@
       <c r="W393" s="2"/>
       <c r="X393" s="2"/>
     </row>
-    <row r="394" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A394" s="9" t="s">
         <v>551</v>
       </c>
@@ -15099,7 +15113,7 @@
         <v>195</v>
       </c>
       <c r="D394" s="2"/>
-      <c r="E394" s="42"/>
+      <c r="E394" s="35"/>
       <c r="F394" s="2"/>
       <c r="G394" s="2"/>
       <c r="H394" s="2"/>
@@ -15120,7 +15134,7 @@
       <c r="W394" s="2"/>
       <c r="X394" s="2"/>
     </row>
-    <row r="395" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A395" s="9" t="s">
         <v>551</v>
       </c>
@@ -15131,7 +15145,7 @@
         <v>451</v>
       </c>
       <c r="D395" s="2"/>
-      <c r="E395" s="42"/>
+      <c r="E395" s="35"/>
       <c r="F395" s="2"/>
       <c r="G395" s="2"/>
       <c r="H395" s="2"/>
@@ -15152,7 +15166,7 @@
       <c r="W395" s="2"/>
       <c r="X395" s="2"/>
     </row>
-    <row r="396" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A396" s="9" t="s">
         <v>551</v>
       </c>
@@ -15163,7 +15177,7 @@
         <v>630</v>
       </c>
       <c r="D396" s="2"/>
-      <c r="E396" s="42"/>
+      <c r="E396" s="35"/>
       <c r="F396" s="2"/>
       <c r="G396" s="2"/>
       <c r="H396" s="2"/>
@@ -15184,10 +15198,10 @@
       <c r="W396" s="2"/>
       <c r="X396" s="2"/>
     </row>
-    <row r="397" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C397" s="7"/>
       <c r="D397" s="2"/>
-      <c r="E397" s="42"/>
+      <c r="E397" s="35"/>
       <c r="F397" s="2"/>
       <c r="G397" s="2"/>
       <c r="H397" s="2"/>
@@ -15208,12 +15222,12 @@
       <c r="W397" s="2"/>
       <c r="X397" s="2"/>
     </row>
-    <row r="398" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A398" s="18"/>
       <c r="B398" s="17"/>
       <c r="C398" s="7"/>
       <c r="D398" s="2"/>
-      <c r="E398" s="42"/>
+      <c r="E398" s="35"/>
       <c r="F398" s="2"/>
       <c r="G398" s="2"/>
       <c r="H398" s="2"/>
@@ -15234,45 +15248,45 @@
       <c r="W398" s="2"/>
       <c r="X398" s="2"/>
     </row>
-    <row r="399" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A399" s="31" t="s">
         <v>631</v>
       </c>
-      <c r="B399" s="46" t="s">
+      <c r="B399" s="39" t="s">
         <v>632</v>
       </c>
-      <c r="C399" s="33" t="s">
+      <c r="C399" s="32" t="s">
         <v>633</v>
       </c>
-      <c r="D399" s="35"/>
-      <c r="E399" s="35"/>
-      <c r="F399" s="34"/>
-      <c r="G399" s="34"/>
-      <c r="H399" s="34"/>
-      <c r="I399" s="34"/>
-      <c r="J399" s="34"/>
-      <c r="K399" s="34"/>
-      <c r="L399" s="34"/>
-      <c r="M399" s="34"/>
-      <c r="N399" s="34"/>
-      <c r="O399" s="34"/>
-      <c r="P399" s="34"/>
-      <c r="Q399" s="34"/>
-      <c r="R399" s="34"/>
-      <c r="S399" s="34"/>
-      <c r="T399" s="34"/>
-      <c r="U399" s="34"/>
-      <c r="V399" s="34"/>
-      <c r="W399" s="34"/>
-      <c r="X399" s="34"/>
-      <c r="Y399" s="35"/>
-      <c r="Z399" s="35"/>
-    </row>
-    <row r="400" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D399" s="34"/>
+      <c r="E399" s="34"/>
+      <c r="F399" s="33"/>
+      <c r="G399" s="33"/>
+      <c r="H399" s="33"/>
+      <c r="I399" s="33"/>
+      <c r="J399" s="33"/>
+      <c r="K399" s="33"/>
+      <c r="L399" s="33"/>
+      <c r="M399" s="33"/>
+      <c r="N399" s="33"/>
+      <c r="O399" s="33"/>
+      <c r="P399" s="33"/>
+      <c r="Q399" s="33"/>
+      <c r="R399" s="33"/>
+      <c r="S399" s="33"/>
+      <c r="T399" s="33"/>
+      <c r="U399" s="33"/>
+      <c r="V399" s="33"/>
+      <c r="W399" s="33"/>
+      <c r="X399" s="33"/>
+      <c r="Y399" s="34"/>
+      <c r="Z399" s="34"/>
+    </row>
+    <row r="400" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A400" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="B400" s="45" t="s">
+      <c r="B400" s="38" t="s">
         <v>634</v>
       </c>
       <c r="C400" s="13" t="s">
@@ -15298,11 +15312,11 @@
       <c r="W400" s="2"/>
       <c r="X400" s="2"/>
     </row>
-    <row r="401" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A401" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="B401" s="45" t="s">
+      <c r="B401" s="38" t="s">
         <v>636</v>
       </c>
       <c r="C401" s="13" t="s">
@@ -15328,11 +15342,11 @@
       <c r="W401" s="2"/>
       <c r="X401" s="2"/>
     </row>
-    <row r="402" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A402" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="B402" s="45" t="s">
+      <c r="B402" s="38" t="s">
         <v>637</v>
       </c>
       <c r="C402" s="13" t="s">
@@ -15358,11 +15372,11 @@
       <c r="W402" s="2"/>
       <c r="X402" s="2"/>
     </row>
-    <row r="403" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A403" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="B403" s="45" t="s">
+      <c r="B403" s="38" t="s">
         <v>638</v>
       </c>
       <c r="C403" s="13" t="s">
@@ -15388,11 +15402,11 @@
       <c r="W403" s="2"/>
       <c r="X403" s="2"/>
     </row>
-    <row r="404" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A404" s="8" t="s">
         <v>631</v>
       </c>
-      <c r="B404" s="45" t="s">
+      <c r="B404" s="38" t="s">
         <v>640</v>
       </c>
       <c r="C404" s="13" t="s">
@@ -15418,11 +15432,11 @@
       <c r="W404" s="2"/>
       <c r="X404" s="2"/>
     </row>
-    <row r="405" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A405" s="8" t="s">
         <v>631</v>
       </c>
-      <c r="B405" s="45" t="s">
+      <c r="B405" s="38" t="s">
         <v>641</v>
       </c>
       <c r="C405" s="13" t="s">
@@ -15448,11 +15462,11 @@
       <c r="W405" s="2"/>
       <c r="X405" s="2"/>
     </row>
-    <row r="406" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A406" s="8" t="s">
         <v>631</v>
       </c>
-      <c r="B406" s="45" t="s">
+      <c r="B406" s="38" t="s">
         <v>642</v>
       </c>
       <c r="C406" s="13" t="s">
@@ -15478,11 +15492,11 @@
       <c r="W406" s="2"/>
       <c r="X406" s="2"/>
     </row>
-    <row r="407" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A407" s="8" t="s">
         <v>631</v>
       </c>
-      <c r="B407" s="45" t="s">
+      <c r="B407" s="38" t="s">
         <v>643</v>
       </c>
       <c r="C407" s="13" t="s">
@@ -15508,11 +15522,11 @@
       <c r="W407" s="2"/>
       <c r="X407" s="2"/>
     </row>
-    <row r="408" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A408" s="8" t="s">
         <v>631</v>
       </c>
-      <c r="B408" s="45" t="s">
+      <c r="B408" s="38" t="s">
         <v>644</v>
       </c>
       <c r="C408" s="13" t="s">
@@ -15538,7 +15552,7 @@
       <c r="W408" s="2"/>
       <c r="X408" s="2"/>
     </row>
-    <row r="409" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A409" s="18"/>
       <c r="B409" s="17"/>
       <c r="C409" s="7"/>
@@ -15562,7 +15576,7 @@
       <c r="W409" s="2"/>
       <c r="X409" s="2"/>
     </row>
-    <row r="410" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A410" s="18"/>
       <c r="B410" s="17"/>
       <c r="C410" s="7"/>
@@ -15586,7 +15600,7 @@
       <c r="W410" s="2"/>
       <c r="X410" s="2"/>
     </row>
-    <row r="411" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A411" s="8" t="s">
         <v>646</v>
       </c>
@@ -15614,7 +15628,7 @@
       <c r="W411" s="2"/>
       <c r="X411" s="2"/>
     </row>
-    <row r="412" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A412" s="8" t="s">
         <v>646</v>
       </c>
@@ -15644,11 +15658,11 @@
       <c r="W412" s="2"/>
       <c r="X412" s="2"/>
     </row>
-    <row r="413" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A413" s="8" t="s">
         <v>646</v>
       </c>
-      <c r="B413" s="44" t="s">
+      <c r="B413" s="37" t="s">
         <v>649</v>
       </c>
       <c r="C413" s="13" t="s">
@@ -15674,7 +15688,7 @@
       <c r="W413" s="2"/>
       <c r="X413" s="2"/>
     </row>
-    <row r="414" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A414" s="9" t="s">
         <v>646</v>
       </c>
@@ -15704,7 +15718,7 @@
       <c r="W414" s="2"/>
       <c r="X414" s="2"/>
     </row>
-    <row r="415" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A415" s="9" t="s">
         <v>646</v>
       </c>
@@ -15736,7 +15750,7 @@
       <c r="W415" s="2"/>
       <c r="X415" s="2"/>
     </row>
-    <row r="416" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A416" s="9" t="s">
         <v>646</v>
       </c>
@@ -15768,7 +15782,7 @@
       <c r="W416" s="2"/>
       <c r="X416" s="2"/>
     </row>
-    <row r="417" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A417" s="16"/>
       <c r="B417" s="17"/>
       <c r="C417" s="7"/>
@@ -15794,10 +15808,10 @@
       <c r="W417" s="2"/>
       <c r="X417" s="2"/>
     </row>
-    <row r="418" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A418" s="16"/>
       <c r="B418" s="17"/>
-      <c r="C418" s="47"/>
+      <c r="C418" s="40"/>
       <c r="D418" s="2"/>
       <c r="E418" s="2"/>
       <c r="F418" s="2"/>
@@ -15820,10 +15834,10 @@
       <c r="W418" s="2"/>
       <c r="X418" s="2"/>
     </row>
-    <row r="419" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A419" s="16"/>
       <c r="B419" s="17"/>
-      <c r="C419" s="47"/>
+      <c r="C419" s="40"/>
       <c r="D419" s="2"/>
       <c r="E419" s="2"/>
       <c r="F419" s="2"/>
@@ -15846,10 +15860,10 @@
       <c r="W419" s="2"/>
       <c r="X419" s="2"/>
     </row>
-    <row r="420" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A420" s="16"/>
       <c r="B420" s="17"/>
-      <c r="C420" s="47"/>
+      <c r="C420" s="40"/>
       <c r="D420" s="2"/>
       <c r="E420" s="2"/>
       <c r="F420" s="2"/>
@@ -15872,10 +15886,10 @@
       <c r="W420" s="2"/>
       <c r="X420" s="2"/>
     </row>
-    <row r="421" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A421" s="16"/>
       <c r="B421" s="17"/>
-      <c r="C421" s="47"/>
+      <c r="C421" s="40"/>
       <c r="D421" s="2"/>
       <c r="E421" s="2"/>
       <c r="F421" s="2"/>
@@ -15898,10 +15912,10 @@
       <c r="W421" s="2"/>
       <c r="X421" s="2"/>
     </row>
-    <row r="422" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A422" s="16"/>
       <c r="B422" s="17"/>
-      <c r="C422" s="47"/>
+      <c r="C422" s="40"/>
       <c r="D422" s="2"/>
       <c r="E422" s="2"/>
       <c r="F422" s="2"/>
@@ -15924,10 +15938,10 @@
       <c r="W422" s="2"/>
       <c r="X422" s="2"/>
     </row>
-    <row r="423" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A423" s="16"/>
       <c r="B423" s="17"/>
-      <c r="C423" s="47"/>
+      <c r="C423" s="40"/>
       <c r="D423" s="2"/>
       <c r="E423" s="2"/>
       <c r="F423" s="2"/>
@@ -15950,10 +15964,10 @@
       <c r="W423" s="2"/>
       <c r="X423" s="2"/>
     </row>
-    <row r="424" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A424" s="16"/>
       <c r="B424" s="17"/>
-      <c r="C424" s="47"/>
+      <c r="C424" s="40"/>
       <c r="D424" s="2"/>
       <c r="E424" s="2"/>
       <c r="F424" s="2"/>
@@ -15976,10 +15990,10 @@
       <c r="W424" s="2"/>
       <c r="X424" s="2"/>
     </row>
-    <row r="425" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A425" s="16"/>
       <c r="B425" s="17"/>
-      <c r="C425" s="47"/>
+      <c r="C425" s="40"/>
       <c r="D425" s="2"/>
       <c r="E425" s="2"/>
       <c r="F425" s="2"/>
@@ -16002,10 +16016,10 @@
       <c r="W425" s="2"/>
       <c r="X425" s="2"/>
     </row>
-    <row r="426" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A426" s="16"/>
       <c r="B426" s="17"/>
-      <c r="C426" s="47"/>
+      <c r="C426" s="40"/>
       <c r="D426" s="2"/>
       <c r="E426" s="2"/>
       <c r="F426" s="2"/>
@@ -16028,10 +16042,10 @@
       <c r="W426" s="2"/>
       <c r="X426" s="2"/>
     </row>
-    <row r="427" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A427" s="16"/>
       <c r="B427" s="17"/>
-      <c r="C427" s="47"/>
+      <c r="C427" s="40"/>
       <c r="D427" s="2"/>
       <c r="E427" s="2"/>
       <c r="F427" s="2"/>
@@ -16054,10 +16068,10 @@
       <c r="W427" s="2"/>
       <c r="X427" s="2"/>
     </row>
-    <row r="428" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A428" s="16"/>
       <c r="B428" s="17"/>
-      <c r="C428" s="47"/>
+      <c r="C428" s="40"/>
       <c r="D428" s="2"/>
       <c r="E428" s="2"/>
       <c r="F428" s="2"/>
@@ -16080,10 +16094,10 @@
       <c r="W428" s="2"/>
       <c r="X428" s="2"/>
     </row>
-    <row r="429" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A429" s="16"/>
       <c r="B429" s="17"/>
-      <c r="C429" s="47"/>
+      <c r="C429" s="40"/>
       <c r="D429" s="2"/>
       <c r="E429" s="2"/>
       <c r="F429" s="2"/>
@@ -16106,10 +16120,10 @@
       <c r="W429" s="2"/>
       <c r="X429" s="2"/>
     </row>
-    <row r="430" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A430" s="16"/>
       <c r="B430" s="17"/>
-      <c r="C430" s="47"/>
+      <c r="C430" s="40"/>
       <c r="D430" s="2"/>
       <c r="E430" s="2"/>
       <c r="F430" s="2"/>
@@ -16132,10 +16146,10 @@
       <c r="W430" s="2"/>
       <c r="X430" s="2"/>
     </row>
-    <row r="431" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A431" s="16"/>
       <c r="B431" s="17"/>
-      <c r="C431" s="47"/>
+      <c r="C431" s="40"/>
       <c r="D431" s="2"/>
       <c r="E431" s="2"/>
       <c r="F431" s="2"/>
@@ -16158,10 +16172,10 @@
       <c r="W431" s="2"/>
       <c r="X431" s="2"/>
     </row>
-    <row r="432" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A432" s="16"/>
       <c r="B432" s="17"/>
-      <c r="C432" s="47"/>
+      <c r="C432" s="40"/>
       <c r="D432" s="2"/>
       <c r="E432" s="2"/>
       <c r="F432" s="2"/>
@@ -16184,10 +16198,10 @@
       <c r="W432" s="2"/>
       <c r="X432" s="2"/>
     </row>
-    <row r="433" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A433" s="16"/>
       <c r="B433" s="17"/>
-      <c r="C433" s="47"/>
+      <c r="C433" s="40"/>
       <c r="D433" s="2"/>
       <c r="E433" s="2"/>
       <c r="F433" s="2"/>
@@ -16210,10 +16224,10 @@
       <c r="W433" s="2"/>
       <c r="X433" s="2"/>
     </row>
-    <row r="434" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A434" s="16"/>
       <c r="B434" s="17"/>
-      <c r="C434" s="47"/>
+      <c r="C434" s="40"/>
       <c r="D434" s="2"/>
       <c r="E434" s="2"/>
       <c r="F434" s="2"/>
@@ -16236,10 +16250,10 @@
       <c r="W434" s="2"/>
       <c r="X434" s="2"/>
     </row>
-    <row r="435" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A435" s="16"/>
       <c r="B435" s="17"/>
-      <c r="C435" s="47"/>
+      <c r="C435" s="40"/>
       <c r="D435" s="2"/>
       <c r="E435" s="2"/>
       <c r="F435" s="2"/>
@@ -16262,10 +16276,10 @@
       <c r="W435" s="2"/>
       <c r="X435" s="2"/>
     </row>
-    <row r="436" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A436" s="16"/>
       <c r="B436" s="17"/>
-      <c r="C436" s="47"/>
+      <c r="C436" s="40"/>
       <c r="D436" s="2"/>
       <c r="E436" s="2"/>
       <c r="F436" s="2"/>
@@ -16288,10 +16302,10 @@
       <c r="W436" s="2"/>
       <c r="X436" s="2"/>
     </row>
-    <row r="437" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A437" s="16"/>
       <c r="B437" s="17"/>
-      <c r="C437" s="47"/>
+      <c r="C437" s="40"/>
       <c r="D437" s="2"/>
       <c r="E437" s="2"/>
       <c r="F437" s="2"/>
@@ -16314,10 +16328,10 @@
       <c r="W437" s="2"/>
       <c r="X437" s="2"/>
     </row>
-    <row r="438" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A438" s="16"/>
       <c r="B438" s="17"/>
-      <c r="C438" s="47"/>
+      <c r="C438" s="40"/>
       <c r="D438" s="2"/>
       <c r="E438" s="2"/>
       <c r="F438" s="2"/>
@@ -16340,10 +16354,10 @@
       <c r="W438" s="2"/>
       <c r="X438" s="2"/>
     </row>
-    <row r="439" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A439" s="16"/>
       <c r="B439" s="17"/>
-      <c r="C439" s="47"/>
+      <c r="C439" s="40"/>
       <c r="D439" s="2"/>
       <c r="E439" s="2"/>
       <c r="F439" s="2"/>
@@ -16366,10 +16380,10 @@
       <c r="W439" s="2"/>
       <c r="X439" s="2"/>
     </row>
-    <row r="440" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A440" s="16"/>
       <c r="B440" s="17"/>
-      <c r="C440" s="47"/>
+      <c r="C440" s="40"/>
       <c r="D440" s="2"/>
       <c r="E440" s="2"/>
       <c r="F440" s="2"/>
@@ -16392,10 +16406,10 @@
       <c r="W440" s="2"/>
       <c r="X440" s="2"/>
     </row>
-    <row r="441" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A441" s="16"/>
       <c r="B441" s="17"/>
-      <c r="C441" s="47"/>
+      <c r="C441" s="40"/>
       <c r="D441" s="2"/>
       <c r="E441" s="2"/>
       <c r="F441" s="2"/>
@@ -16418,10 +16432,10 @@
       <c r="W441" s="2"/>
       <c r="X441" s="2"/>
     </row>
-    <row r="442" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A442" s="16"/>
       <c r="B442" s="17"/>
-      <c r="C442" s="47"/>
+      <c r="C442" s="40"/>
       <c r="D442" s="2"/>
       <c r="E442" s="2"/>
       <c r="F442" s="2"/>
@@ -16444,10 +16458,10 @@
       <c r="W442" s="2"/>
       <c r="X442" s="2"/>
     </row>
-    <row r="443" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A443" s="16"/>
       <c r="B443" s="17"/>
-      <c r="C443" s="47"/>
+      <c r="C443" s="40"/>
       <c r="D443" s="2"/>
       <c r="E443" s="2"/>
       <c r="F443" s="2"/>
@@ -16470,10 +16484,10 @@
       <c r="W443" s="2"/>
       <c r="X443" s="2"/>
     </row>
-    <row r="444" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A444" s="16"/>
       <c r="B444" s="17"/>
-      <c r="C444" s="47"/>
+      <c r="C444" s="40"/>
       <c r="D444" s="2"/>
       <c r="E444" s="2"/>
       <c r="F444" s="2"/>
@@ -16496,10 +16510,10 @@
       <c r="W444" s="2"/>
       <c r="X444" s="2"/>
     </row>
-    <row r="445" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A445" s="16"/>
       <c r="B445" s="17"/>
-      <c r="C445" s="47"/>
+      <c r="C445" s="40"/>
       <c r="D445" s="2"/>
       <c r="E445" s="2"/>
       <c r="F445" s="2"/>
@@ -16522,10 +16536,10 @@
       <c r="W445" s="2"/>
       <c r="X445" s="2"/>
     </row>
-    <row r="446" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A446" s="16"/>
       <c r="B446" s="17"/>
-      <c r="C446" s="47"/>
+      <c r="C446" s="40"/>
       <c r="D446" s="2"/>
       <c r="E446" s="2"/>
       <c r="F446" s="2"/>
@@ -16548,10 +16562,10 @@
       <c r="W446" s="2"/>
       <c r="X446" s="2"/>
     </row>
-    <row r="447" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A447" s="16"/>
       <c r="B447" s="17"/>
-      <c r="C447" s="47"/>
+      <c r="C447" s="40"/>
       <c r="D447" s="2"/>
       <c r="E447" s="2"/>
       <c r="F447" s="2"/>
@@ -16574,10 +16588,10 @@
       <c r="W447" s="2"/>
       <c r="X447" s="2"/>
     </row>
-    <row r="448" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A448" s="16"/>
       <c r="B448" s="17"/>
-      <c r="C448" s="47"/>
+      <c r="C448" s="40"/>
       <c r="D448" s="2"/>
       <c r="E448" s="2"/>
       <c r="F448" s="2"/>
@@ -16600,10 +16614,10 @@
       <c r="W448" s="2"/>
       <c r="X448" s="2"/>
     </row>
-    <row r="449" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A449" s="16"/>
       <c r="B449" s="17"/>
-      <c r="C449" s="47"/>
+      <c r="C449" s="40"/>
       <c r="D449" s="2"/>
       <c r="E449" s="2"/>
       <c r="F449" s="2"/>
@@ -16626,10 +16640,10 @@
       <c r="W449" s="2"/>
       <c r="X449" s="2"/>
     </row>
-    <row r="450" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A450" s="16"/>
       <c r="B450" s="17"/>
-      <c r="C450" s="47"/>
+      <c r="C450" s="40"/>
       <c r="D450" s="2"/>
       <c r="E450" s="2"/>
       <c r="F450" s="2"/>
@@ -16652,10 +16666,10 @@
       <c r="W450" s="2"/>
       <c r="X450" s="2"/>
     </row>
-    <row r="451" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A451" s="16"/>
       <c r="B451" s="17"/>
-      <c r="C451" s="47"/>
+      <c r="C451" s="40"/>
       <c r="D451" s="2"/>
       <c r="E451" s="2"/>
       <c r="F451" s="2"/>
@@ -16678,10 +16692,10 @@
       <c r="W451" s="2"/>
       <c r="X451" s="2"/>
     </row>
-    <row r="452" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A452" s="16"/>
       <c r="B452" s="17"/>
-      <c r="C452" s="47"/>
+      <c r="C452" s="40"/>
       <c r="D452" s="2"/>
       <c r="E452" s="2"/>
       <c r="F452" s="2"/>
@@ -16704,10 +16718,10 @@
       <c r="W452" s="2"/>
       <c r="X452" s="2"/>
     </row>
-    <row r="453" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A453" s="16"/>
       <c r="B453" s="17"/>
-      <c r="C453" s="47"/>
+      <c r="C453" s="40"/>
       <c r="D453" s="2"/>
       <c r="E453" s="2"/>
       <c r="F453" s="2"/>
@@ -16730,10 +16744,10 @@
       <c r="W453" s="2"/>
       <c r="X453" s="2"/>
     </row>
-    <row r="454" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A454" s="16"/>
       <c r="B454" s="17"/>
-      <c r="C454" s="47"/>
+      <c r="C454" s="40"/>
       <c r="D454" s="2"/>
       <c r="E454" s="2"/>
       <c r="F454" s="2"/>
@@ -16756,10 +16770,10 @@
       <c r="W454" s="2"/>
       <c r="X454" s="2"/>
     </row>
-    <row r="455" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A455" s="16"/>
       <c r="B455" s="17"/>
-      <c r="C455" s="47"/>
+      <c r="C455" s="40"/>
       <c r="D455" s="2"/>
       <c r="E455" s="2"/>
       <c r="F455" s="2"/>
@@ -16782,10 +16796,10 @@
       <c r="W455" s="2"/>
       <c r="X455" s="2"/>
     </row>
-    <row r="456" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A456" s="16"/>
       <c r="B456" s="17"/>
-      <c r="C456" s="47"/>
+      <c r="C456" s="40"/>
       <c r="D456" s="2"/>
       <c r="E456" s="2"/>
       <c r="F456" s="2"/>
@@ -16808,10 +16822,10 @@
       <c r="W456" s="2"/>
       <c r="X456" s="2"/>
     </row>
-    <row r="457" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A457" s="16"/>
       <c r="B457" s="17"/>
-      <c r="C457" s="47"/>
+      <c r="C457" s="40"/>
       <c r="D457" s="2"/>
       <c r="E457" s="2"/>
       <c r="F457" s="2"/>
@@ -16834,10 +16848,10 @@
       <c r="W457" s="2"/>
       <c r="X457" s="2"/>
     </row>
-    <row r="458" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A458" s="16"/>
       <c r="B458" s="17"/>
-      <c r="C458" s="47"/>
+      <c r="C458" s="40"/>
       <c r="D458" s="2"/>
       <c r="E458" s="2"/>
       <c r="F458" s="2"/>
@@ -16860,10 +16874,10 @@
       <c r="W458" s="2"/>
       <c r="X458" s="2"/>
     </row>
-    <row r="459" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A459" s="16"/>
       <c r="B459" s="17"/>
-      <c r="C459" s="47"/>
+      <c r="C459" s="40"/>
       <c r="D459" s="2"/>
       <c r="E459" s="2"/>
       <c r="F459" s="2"/>
@@ -16886,10 +16900,10 @@
       <c r="W459" s="2"/>
       <c r="X459" s="2"/>
     </row>
-    <row r="460" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A460" s="16"/>
       <c r="B460" s="17"/>
-      <c r="C460" s="47"/>
+      <c r="C460" s="40"/>
       <c r="D460" s="2"/>
       <c r="E460" s="2"/>
       <c r="F460" s="2"/>
@@ -16912,10 +16926,10 @@
       <c r="W460" s="2"/>
       <c r="X460" s="2"/>
     </row>
-    <row r="461" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A461" s="16"/>
       <c r="B461" s="17"/>
-      <c r="C461" s="47"/>
+      <c r="C461" s="40"/>
       <c r="D461" s="2"/>
       <c r="E461" s="2"/>
       <c r="F461" s="2"/>
@@ -16938,10 +16952,10 @@
       <c r="W461" s="2"/>
       <c r="X461" s="2"/>
     </row>
-    <row r="462" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A462" s="16"/>
       <c r="B462" s="17"/>
-      <c r="C462" s="47"/>
+      <c r="C462" s="40"/>
       <c r="D462" s="2"/>
       <c r="E462" s="2"/>
       <c r="F462" s="2"/>
@@ -16964,10 +16978,10 @@
       <c r="W462" s="2"/>
       <c r="X462" s="2"/>
     </row>
-    <row r="463" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A463" s="16"/>
       <c r="B463" s="17"/>
-      <c r="C463" s="47"/>
+      <c r="C463" s="40"/>
       <c r="D463" s="2"/>
       <c r="E463" s="2"/>
       <c r="F463" s="2"/>
@@ -16990,10 +17004,10 @@
       <c r="W463" s="2"/>
       <c r="X463" s="2"/>
     </row>
-    <row r="464" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A464" s="16"/>
       <c r="B464" s="17"/>
-      <c r="C464" s="47"/>
+      <c r="C464" s="40"/>
       <c r="D464" s="2"/>
       <c r="E464" s="2"/>
       <c r="F464" s="2"/>
@@ -17016,10 +17030,10 @@
       <c r="W464" s="2"/>
       <c r="X464" s="2"/>
     </row>
-    <row r="465" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A465" s="16"/>
       <c r="B465" s="17"/>
-      <c r="C465" s="47"/>
+      <c r="C465" s="40"/>
       <c r="D465" s="2"/>
       <c r="E465" s="2"/>
       <c r="F465" s="2"/>
@@ -17042,10 +17056,10 @@
       <c r="W465" s="2"/>
       <c r="X465" s="2"/>
     </row>
-    <row r="466" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A466" s="16"/>
       <c r="B466" s="17"/>
-      <c r="C466" s="47"/>
+      <c r="C466" s="40"/>
       <c r="D466" s="2"/>
       <c r="E466" s="2"/>
       <c r="F466" s="2"/>
@@ -17068,10 +17082,10 @@
       <c r="W466" s="2"/>
       <c r="X466" s="2"/>
     </row>
-    <row r="467" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A467" s="16"/>
       <c r="B467" s="17"/>
-      <c r="C467" s="47"/>
+      <c r="C467" s="40"/>
       <c r="D467" s="2"/>
       <c r="E467" s="2"/>
       <c r="F467" s="2"/>
@@ -17094,10 +17108,10 @@
       <c r="W467" s="2"/>
       <c r="X467" s="2"/>
     </row>
-    <row r="468" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A468" s="16"/>
       <c r="B468" s="17"/>
-      <c r="C468" s="47"/>
+      <c r="C468" s="40"/>
       <c r="D468" s="2"/>
       <c r="E468" s="2"/>
       <c r="F468" s="2"/>
@@ -17120,10 +17134,10 @@
       <c r="W468" s="2"/>
       <c r="X468" s="2"/>
     </row>
-    <row r="469" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A469" s="16"/>
       <c r="B469" s="17"/>
-      <c r="C469" s="47"/>
+      <c r="C469" s="40"/>
       <c r="D469" s="2"/>
       <c r="E469" s="2"/>
       <c r="F469" s="2"/>
@@ -17146,10 +17160,10 @@
       <c r="W469" s="2"/>
       <c r="X469" s="2"/>
     </row>
-    <row r="470" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A470" s="16"/>
       <c r="B470" s="17"/>
-      <c r="C470" s="47"/>
+      <c r="C470" s="40"/>
       <c r="D470" s="2"/>
       <c r="E470" s="2"/>
       <c r="F470" s="2"/>
@@ -17172,10 +17186,10 @@
       <c r="W470" s="2"/>
       <c r="X470" s="2"/>
     </row>
-    <row r="471" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A471" s="16"/>
       <c r="B471" s="17"/>
-      <c r="C471" s="47"/>
+      <c r="C471" s="40"/>
       <c r="D471" s="2"/>
       <c r="E471" s="2"/>
       <c r="F471" s="2"/>
@@ -17198,10 +17212,10 @@
       <c r="W471" s="2"/>
       <c r="X471" s="2"/>
     </row>
-    <row r="472" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A472" s="16"/>
       <c r="B472" s="17"/>
-      <c r="C472" s="47"/>
+      <c r="C472" s="40"/>
       <c r="D472" s="2"/>
       <c r="E472" s="2"/>
       <c r="F472" s="2"/>
@@ -17224,10 +17238,10 @@
       <c r="W472" s="2"/>
       <c r="X472" s="2"/>
     </row>
-    <row r="473" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A473" s="16"/>
       <c r="B473" s="17"/>
-      <c r="C473" s="47"/>
+      <c r="C473" s="40"/>
       <c r="D473" s="2"/>
       <c r="E473" s="2"/>
       <c r="F473" s="2"/>
@@ -17250,10 +17264,10 @@
       <c r="W473" s="2"/>
       <c r="X473" s="2"/>
     </row>
-    <row r="474" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A474" s="16"/>
       <c r="B474" s="17"/>
-      <c r="C474" s="47"/>
+      <c r="C474" s="40"/>
       <c r="D474" s="2"/>
       <c r="E474" s="2"/>
       <c r="F474" s="2"/>
@@ -17276,10 +17290,10 @@
       <c r="W474" s="2"/>
       <c r="X474" s="2"/>
     </row>
-    <row r="475" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A475" s="16"/>
       <c r="B475" s="17"/>
-      <c r="C475" s="47"/>
+      <c r="C475" s="40"/>
       <c r="D475" s="2"/>
       <c r="E475" s="2"/>
       <c r="F475" s="2"/>
@@ -17302,10 +17316,10 @@
       <c r="W475" s="2"/>
       <c r="X475" s="2"/>
     </row>
-    <row r="476" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A476" s="16"/>
       <c r="B476" s="17"/>
-      <c r="C476" s="47"/>
+      <c r="C476" s="40"/>
       <c r="D476" s="2"/>
       <c r="E476" s="2"/>
       <c r="F476" s="2"/>
@@ -17328,10 +17342,10 @@
       <c r="W476" s="2"/>
       <c r="X476" s="2"/>
     </row>
-    <row r="477" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A477" s="16"/>
       <c r="B477" s="17"/>
-      <c r="C477" s="47"/>
+      <c r="C477" s="40"/>
       <c r="D477" s="2"/>
       <c r="E477" s="2"/>
       <c r="F477" s="2"/>
@@ -17354,10 +17368,10 @@
       <c r="W477" s="2"/>
       <c r="X477" s="2"/>
     </row>
-    <row r="478" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A478" s="16"/>
       <c r="B478" s="17"/>
-      <c r="C478" s="47"/>
+      <c r="C478" s="40"/>
       <c r="D478" s="2"/>
       <c r="E478" s="2"/>
       <c r="F478" s="2"/>
@@ -17380,10 +17394,10 @@
       <c r="W478" s="2"/>
       <c r="X478" s="2"/>
     </row>
-    <row r="479" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A479" s="16"/>
       <c r="B479" s="17"/>
-      <c r="C479" s="47"/>
+      <c r="C479" s="40"/>
       <c r="D479" s="2"/>
       <c r="E479" s="2"/>
       <c r="F479" s="2"/>
@@ -17406,10 +17420,10 @@
       <c r="W479" s="2"/>
       <c r="X479" s="2"/>
     </row>
-    <row r="480" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A480" s="16"/>
       <c r="B480" s="17"/>
-      <c r="C480" s="47"/>
+      <c r="C480" s="40"/>
       <c r="D480" s="2"/>
       <c r="E480" s="2"/>
       <c r="F480" s="2"/>
@@ -17432,10 +17446,10 @@
       <c r="W480" s="2"/>
       <c r="X480" s="2"/>
     </row>
-    <row r="481" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A481" s="16"/>
       <c r="B481" s="17"/>
-      <c r="C481" s="47"/>
+      <c r="C481" s="40"/>
       <c r="D481" s="2"/>
       <c r="E481" s="2"/>
       <c r="F481" s="2"/>
@@ -17458,10 +17472,10 @@
       <c r="W481" s="2"/>
       <c r="X481" s="2"/>
     </row>
-    <row r="482" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A482" s="16"/>
       <c r="B482" s="17"/>
-      <c r="C482" s="47"/>
+      <c r="C482" s="40"/>
       <c r="D482" s="2"/>
       <c r="E482" s="2"/>
       <c r="F482" s="2"/>
@@ -17484,10 +17498,10 @@
       <c r="W482" s="2"/>
       <c r="X482" s="2"/>
     </row>
-    <row r="483" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A483" s="16"/>
       <c r="B483" s="17"/>
-      <c r="C483" s="47"/>
+      <c r="C483" s="40"/>
       <c r="D483" s="2"/>
       <c r="E483" s="2"/>
       <c r="F483" s="2"/>
@@ -17510,10 +17524,10 @@
       <c r="W483" s="2"/>
       <c r="X483" s="2"/>
     </row>
-    <row r="484" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A484" s="16"/>
       <c r="B484" s="17"/>
-      <c r="C484" s="47"/>
+      <c r="C484" s="40"/>
       <c r="D484" s="2"/>
       <c r="E484" s="2"/>
       <c r="F484" s="2"/>
@@ -17536,10 +17550,10 @@
       <c r="W484" s="2"/>
       <c r="X484" s="2"/>
     </row>
-    <row r="485" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A485" s="16"/>
       <c r="B485" s="17"/>
-      <c r="C485" s="47"/>
+      <c r="C485" s="40"/>
       <c r="D485" s="2"/>
       <c r="E485" s="2"/>
       <c r="F485" s="2"/>
@@ -17562,10 +17576,10 @@
       <c r="W485" s="2"/>
       <c r="X485" s="2"/>
     </row>
-    <row r="486" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A486" s="16"/>
       <c r="B486" s="17"/>
-      <c r="C486" s="47"/>
+      <c r="C486" s="40"/>
       <c r="D486" s="2"/>
       <c r="E486" s="2"/>
       <c r="F486" s="2"/>
@@ -17588,10 +17602,10 @@
       <c r="W486" s="2"/>
       <c r="X486" s="2"/>
     </row>
-    <row r="487" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A487" s="16"/>
       <c r="B487" s="17"/>
-      <c r="C487" s="47"/>
+      <c r="C487" s="40"/>
       <c r="D487" s="2"/>
       <c r="E487" s="2"/>
       <c r="F487" s="2"/>
@@ -17614,10 +17628,10 @@
       <c r="W487" s="2"/>
       <c r="X487" s="2"/>
     </row>
-    <row r="488" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A488" s="16"/>
       <c r="B488" s="17"/>
-      <c r="C488" s="47"/>
+      <c r="C488" s="40"/>
       <c r="D488" s="2"/>
       <c r="E488" s="2"/>
       <c r="F488" s="2"/>
@@ -17640,10 +17654,10 @@
       <c r="W488" s="2"/>
       <c r="X488" s="2"/>
     </row>
-    <row r="489" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A489" s="16"/>
       <c r="B489" s="17"/>
-      <c r="C489" s="47"/>
+      <c r="C489" s="40"/>
       <c r="D489" s="2"/>
       <c r="E489" s="2"/>
       <c r="F489" s="2"/>
@@ -17666,10 +17680,10 @@
       <c r="W489" s="2"/>
       <c r="X489" s="2"/>
     </row>
-    <row r="490" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A490" s="16"/>
       <c r="B490" s="17"/>
-      <c r="C490" s="47"/>
+      <c r="C490" s="40"/>
       <c r="D490" s="2"/>
       <c r="E490" s="2"/>
       <c r="F490" s="2"/>
@@ -17692,10 +17706,10 @@
       <c r="W490" s="2"/>
       <c r="X490" s="2"/>
     </row>
-    <row r="491" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A491" s="16"/>
       <c r="B491" s="17"/>
-      <c r="C491" s="47"/>
+      <c r="C491" s="40"/>
       <c r="D491" s="2"/>
       <c r="E491" s="2"/>
       <c r="F491" s="2"/>
@@ -17718,10 +17732,10 @@
       <c r="W491" s="2"/>
       <c r="X491" s="2"/>
     </row>
-    <row r="492" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A492" s="16"/>
       <c r="B492" s="17"/>
-      <c r="C492" s="47"/>
+      <c r="C492" s="40"/>
       <c r="D492" s="2"/>
       <c r="E492" s="2"/>
       <c r="F492" s="2"/>
@@ -17744,10 +17758,10 @@
       <c r="W492" s="2"/>
       <c r="X492" s="2"/>
     </row>
-    <row r="493" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A493" s="16"/>
       <c r="B493" s="17"/>
-      <c r="C493" s="47"/>
+      <c r="C493" s="40"/>
       <c r="D493" s="2"/>
       <c r="E493" s="2"/>
       <c r="F493" s="2"/>
@@ -17770,10 +17784,10 @@
       <c r="W493" s="2"/>
       <c r="X493" s="2"/>
     </row>
-    <row r="494" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A494" s="16"/>
       <c r="B494" s="17"/>
-      <c r="C494" s="47"/>
+      <c r="C494" s="40"/>
       <c r="D494" s="2"/>
       <c r="E494" s="2"/>
       <c r="F494" s="2"/>
@@ -17796,10 +17810,10 @@
       <c r="W494" s="2"/>
       <c r="X494" s="2"/>
     </row>
-    <row r="495" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A495" s="16"/>
       <c r="B495" s="17"/>
-      <c r="C495" s="47"/>
+      <c r="C495" s="40"/>
       <c r="D495" s="2"/>
       <c r="E495" s="2"/>
       <c r="F495" s="2"/>
@@ -17822,10 +17836,10 @@
       <c r="W495" s="2"/>
       <c r="X495" s="2"/>
     </row>
-    <row r="496" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A496" s="16"/>
       <c r="B496" s="17"/>
-      <c r="C496" s="47"/>
+      <c r="C496" s="40"/>
       <c r="D496" s="2"/>
       <c r="E496" s="2"/>
       <c r="F496" s="2"/>
@@ -17848,10 +17862,10 @@
       <c r="W496" s="2"/>
       <c r="X496" s="2"/>
     </row>
-    <row r="497" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A497" s="16"/>
       <c r="B497" s="17"/>
-      <c r="C497" s="47"/>
+      <c r="C497" s="40"/>
       <c r="D497" s="2"/>
       <c r="E497" s="2"/>
       <c r="F497" s="2"/>
@@ -17874,10 +17888,10 @@
       <c r="W497" s="2"/>
       <c r="X497" s="2"/>
     </row>
-    <row r="498" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A498" s="16"/>
       <c r="B498" s="17"/>
-      <c r="C498" s="47"/>
+      <c r="C498" s="40"/>
       <c r="D498" s="2"/>
       <c r="E498" s="2"/>
       <c r="F498" s="2"/>
@@ -17900,10 +17914,10 @@
       <c r="W498" s="2"/>
       <c r="X498" s="2"/>
     </row>
-    <row r="499" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A499" s="16"/>
       <c r="B499" s="17"/>
-      <c r="C499" s="47"/>
+      <c r="C499" s="40"/>
       <c r="D499" s="2"/>
       <c r="E499" s="2"/>
       <c r="F499" s="2"/>
@@ -17926,10 +17940,10 @@
       <c r="W499" s="2"/>
       <c r="X499" s="2"/>
     </row>
-    <row r="500" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A500" s="16"/>
       <c r="B500" s="17"/>
-      <c r="C500" s="47"/>
+      <c r="C500" s="40"/>
       <c r="D500" s="2"/>
       <c r="E500" s="2"/>
       <c r="F500" s="2"/>
@@ -17952,10 +17966,10 @@
       <c r="W500" s="2"/>
       <c r="X500" s="2"/>
     </row>
-    <row r="501" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A501" s="16"/>
       <c r="B501" s="17"/>
-      <c r="C501" s="47"/>
+      <c r="C501" s="40"/>
       <c r="D501" s="2"/>
       <c r="E501" s="2"/>
       <c r="F501" s="2"/>
@@ -17978,10 +17992,10 @@
       <c r="W501" s="2"/>
       <c r="X501" s="2"/>
     </row>
-    <row r="502" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A502" s="16"/>
       <c r="B502" s="17"/>
-      <c r="C502" s="47"/>
+      <c r="C502" s="40"/>
       <c r="D502" s="2"/>
       <c r="E502" s="2"/>
       <c r="F502" s="2"/>
@@ -18004,10 +18018,10 @@
       <c r="W502" s="2"/>
       <c r="X502" s="2"/>
     </row>
-    <row r="503" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A503" s="16"/>
       <c r="B503" s="17"/>
-      <c r="C503" s="47"/>
+      <c r="C503" s="40"/>
       <c r="D503" s="2"/>
       <c r="E503" s="2"/>
       <c r="F503" s="2"/>
@@ -18030,10 +18044,10 @@
       <c r="W503" s="2"/>
       <c r="X503" s="2"/>
     </row>
-    <row r="504" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A504" s="16"/>
       <c r="B504" s="17"/>
-      <c r="C504" s="47"/>
+      <c r="C504" s="40"/>
       <c r="D504" s="2"/>
       <c r="E504" s="2"/>
       <c r="F504" s="2"/>
@@ -18056,10 +18070,10 @@
       <c r="W504" s="2"/>
       <c r="X504" s="2"/>
     </row>
-    <row r="505" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A505" s="16"/>
       <c r="B505" s="17"/>
-      <c r="C505" s="47"/>
+      <c r="C505" s="40"/>
       <c r="D505" s="2"/>
       <c r="E505" s="2"/>
       <c r="F505" s="2"/>
@@ -18082,10 +18096,10 @@
       <c r="W505" s="2"/>
       <c r="X505" s="2"/>
     </row>
-    <row r="506" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A506" s="16"/>
       <c r="B506" s="17"/>
-      <c r="C506" s="47"/>
+      <c r="C506" s="40"/>
       <c r="D506" s="2"/>
       <c r="E506" s="2"/>
       <c r="F506" s="2"/>
@@ -18108,10 +18122,10 @@
       <c r="W506" s="2"/>
       <c r="X506" s="2"/>
     </row>
-    <row r="507" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A507" s="16"/>
       <c r="B507" s="17"/>
-      <c r="C507" s="47"/>
+      <c r="C507" s="40"/>
       <c r="D507" s="2"/>
       <c r="E507" s="2"/>
       <c r="F507" s="2"/>
@@ -18134,10 +18148,10 @@
       <c r="W507" s="2"/>
       <c r="X507" s="2"/>
     </row>
-    <row r="508" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A508" s="16"/>
       <c r="B508" s="17"/>
-      <c r="C508" s="47"/>
+      <c r="C508" s="40"/>
       <c r="D508" s="2"/>
       <c r="E508" s="2"/>
       <c r="F508" s="2"/>
@@ -18160,10 +18174,10 @@
       <c r="W508" s="2"/>
       <c r="X508" s="2"/>
     </row>
-    <row r="509" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A509" s="16"/>
       <c r="B509" s="17"/>
-      <c r="C509" s="47"/>
+      <c r="C509" s="40"/>
       <c r="D509" s="2"/>
       <c r="E509" s="2"/>
       <c r="F509" s="2"/>
@@ -18186,10 +18200,10 @@
       <c r="W509" s="2"/>
       <c r="X509" s="2"/>
     </row>
-    <row r="510" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A510" s="16"/>
       <c r="B510" s="17"/>
-      <c r="C510" s="47"/>
+      <c r="C510" s="40"/>
       <c r="D510" s="2"/>
       <c r="E510" s="2"/>
       <c r="F510" s="2"/>
@@ -18212,10 +18226,10 @@
       <c r="W510" s="2"/>
       <c r="X510" s="2"/>
     </row>
-    <row r="511" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A511" s="16"/>
       <c r="B511" s="17"/>
-      <c r="C511" s="47"/>
+      <c r="C511" s="40"/>
       <c r="D511" s="2"/>
       <c r="E511" s="2"/>
       <c r="F511" s="2"/>
@@ -18238,10 +18252,10 @@
       <c r="W511" s="2"/>
       <c r="X511" s="2"/>
     </row>
-    <row r="512" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A512" s="16"/>
       <c r="B512" s="17"/>
-      <c r="C512" s="47"/>
+      <c r="C512" s="40"/>
       <c r="D512" s="2"/>
       <c r="E512" s="2"/>
       <c r="F512" s="2"/>
@@ -18264,10 +18278,10 @@
       <c r="W512" s="2"/>
       <c r="X512" s="2"/>
     </row>
-    <row r="513" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A513" s="16"/>
       <c r="B513" s="17"/>
-      <c r="C513" s="47"/>
+      <c r="C513" s="40"/>
       <c r="D513" s="2"/>
       <c r="E513" s="2"/>
       <c r="F513" s="2"/>
@@ -18290,10 +18304,10 @@
       <c r="W513" s="2"/>
       <c r="X513" s="2"/>
     </row>
-    <row r="514" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A514" s="16"/>
       <c r="B514" s="17"/>
-      <c r="C514" s="47"/>
+      <c r="C514" s="40"/>
       <c r="D514" s="2"/>
       <c r="E514" s="2"/>
       <c r="F514" s="2"/>
@@ -18316,10 +18330,10 @@
       <c r="W514" s="2"/>
       <c r="X514" s="2"/>
     </row>
-    <row r="515" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A515" s="16"/>
       <c r="B515" s="17"/>
-      <c r="C515" s="47"/>
+      <c r="C515" s="40"/>
       <c r="D515" s="2"/>
       <c r="E515" s="2"/>
       <c r="F515" s="2"/>
@@ -18342,10 +18356,10 @@
       <c r="W515" s="2"/>
       <c r="X515" s="2"/>
     </row>
-    <row r="516" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A516" s="16"/>
       <c r="B516" s="17"/>
-      <c r="C516" s="47"/>
+      <c r="C516" s="40"/>
       <c r="D516" s="2"/>
       <c r="E516" s="2"/>
       <c r="F516" s="2"/>
@@ -18368,10 +18382,10 @@
       <c r="W516" s="2"/>
       <c r="X516" s="2"/>
     </row>
-    <row r="517" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A517" s="16"/>
       <c r="B517" s="17"/>
-      <c r="C517" s="47"/>
+      <c r="C517" s="40"/>
       <c r="D517" s="2"/>
       <c r="E517" s="2"/>
       <c r="F517" s="2"/>
@@ -18394,10 +18408,10 @@
       <c r="W517" s="2"/>
       <c r="X517" s="2"/>
     </row>
-    <row r="518" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A518" s="16"/>
       <c r="B518" s="17"/>
-      <c r="C518" s="47"/>
+      <c r="C518" s="40"/>
       <c r="D518" s="2"/>
       <c r="E518" s="2"/>
       <c r="F518" s="2"/>
@@ -18420,10 +18434,10 @@
       <c r="W518" s="2"/>
       <c r="X518" s="2"/>
     </row>
-    <row r="519" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A519" s="16"/>
       <c r="B519" s="17"/>
-      <c r="C519" s="47"/>
+      <c r="C519" s="40"/>
       <c r="D519" s="2"/>
       <c r="E519" s="2"/>
       <c r="F519" s="2"/>
@@ -18446,10 +18460,10 @@
       <c r="W519" s="2"/>
       <c r="X519" s="2"/>
     </row>
-    <row r="520" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A520" s="16"/>
       <c r="B520" s="17"/>
-      <c r="C520" s="47"/>
+      <c r="C520" s="40"/>
       <c r="D520" s="2"/>
       <c r="E520" s="2"/>
       <c r="F520" s="2"/>
@@ -18472,10 +18486,10 @@
       <c r="W520" s="2"/>
       <c r="X520" s="2"/>
     </row>
-    <row r="521" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A521" s="16"/>
       <c r="B521" s="17"/>
-      <c r="C521" s="47"/>
+      <c r="C521" s="40"/>
       <c r="D521" s="2"/>
       <c r="E521" s="2"/>
       <c r="F521" s="2"/>
@@ -18498,10 +18512,10 @@
       <c r="W521" s="2"/>
       <c r="X521" s="2"/>
     </row>
-    <row r="522" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A522" s="16"/>
       <c r="B522" s="17"/>
-      <c r="C522" s="47"/>
+      <c r="C522" s="40"/>
       <c r="D522" s="2"/>
       <c r="E522" s="2"/>
       <c r="F522" s="2"/>
@@ -18524,10 +18538,10 @@
       <c r="W522" s="2"/>
       <c r="X522" s="2"/>
     </row>
-    <row r="523" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A523" s="16"/>
       <c r="B523" s="17"/>
-      <c r="C523" s="47"/>
+      <c r="C523" s="40"/>
       <c r="D523" s="2"/>
       <c r="E523" s="2"/>
       <c r="F523" s="2"/>
@@ -18550,10 +18564,10 @@
       <c r="W523" s="2"/>
       <c r="X523" s="2"/>
     </row>
-    <row r="524" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A524" s="16"/>
       <c r="B524" s="17"/>
-      <c r="C524" s="47"/>
+      <c r="C524" s="40"/>
       <c r="D524" s="2"/>
       <c r="E524" s="2"/>
       <c r="F524" s="2"/>
@@ -18576,10 +18590,10 @@
       <c r="W524" s="2"/>
       <c r="X524" s="2"/>
     </row>
-    <row r="525" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A525" s="16"/>
       <c r="B525" s="17"/>
-      <c r="C525" s="47"/>
+      <c r="C525" s="40"/>
       <c r="D525" s="2"/>
       <c r="E525" s="2"/>
       <c r="F525" s="2"/>
@@ -18602,10 +18616,10 @@
       <c r="W525" s="2"/>
       <c r="X525" s="2"/>
     </row>
-    <row r="526" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A526" s="16"/>
       <c r="B526" s="17"/>
-      <c r="C526" s="47"/>
+      <c r="C526" s="40"/>
       <c r="D526" s="2"/>
       <c r="E526" s="2"/>
       <c r="F526" s="2"/>
@@ -18628,10 +18642,10 @@
       <c r="W526" s="2"/>
       <c r="X526" s="2"/>
     </row>
-    <row r="527" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A527" s="16"/>
       <c r="B527" s="17"/>
-      <c r="C527" s="47"/>
+      <c r="C527" s="40"/>
       <c r="D527" s="2"/>
       <c r="E527" s="2"/>
       <c r="F527" s="2"/>
@@ -18654,10 +18668,10 @@
       <c r="W527" s="2"/>
       <c r="X527" s="2"/>
     </row>
-    <row r="528" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A528" s="16"/>
       <c r="B528" s="17"/>
-      <c r="C528" s="47"/>
+      <c r="C528" s="40"/>
       <c r="D528" s="2"/>
       <c r="E528" s="2"/>
       <c r="F528" s="2"/>
@@ -18680,10 +18694,10 @@
       <c r="W528" s="2"/>
       <c r="X528" s="2"/>
     </row>
-    <row r="529" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A529" s="16"/>
       <c r="B529" s="17"/>
-      <c r="C529" s="47"/>
+      <c r="C529" s="40"/>
       <c r="D529" s="2"/>
       <c r="E529" s="2"/>
       <c r="F529" s="2"/>
@@ -18706,10 +18720,10 @@
       <c r="W529" s="2"/>
       <c r="X529" s="2"/>
     </row>
-    <row r="530" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A530" s="16"/>
       <c r="B530" s="17"/>
-      <c r="C530" s="47"/>
+      <c r="C530" s="40"/>
       <c r="D530" s="2"/>
       <c r="E530" s="2"/>
       <c r="F530" s="2"/>
@@ -18732,10 +18746,10 @@
       <c r="W530" s="2"/>
       <c r="X530" s="2"/>
     </row>
-    <row r="531" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A531" s="16"/>
       <c r="B531" s="17"/>
-      <c r="C531" s="47"/>
+      <c r="C531" s="40"/>
       <c r="D531" s="2"/>
       <c r="E531" s="2"/>
       <c r="F531" s="2"/>
@@ -18758,10 +18772,10 @@
       <c r="W531" s="2"/>
       <c r="X531" s="2"/>
     </row>
-    <row r="532" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A532" s="16"/>
       <c r="B532" s="17"/>
-      <c r="C532" s="47"/>
+      <c r="C532" s="40"/>
       <c r="D532" s="2"/>
       <c r="E532" s="2"/>
       <c r="F532" s="2"/>
@@ -18784,10 +18798,10 @@
       <c r="W532" s="2"/>
       <c r="X532" s="2"/>
     </row>
-    <row r="533" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A533" s="16"/>
       <c r="B533" s="17"/>
-      <c r="C533" s="47"/>
+      <c r="C533" s="40"/>
       <c r="D533" s="2"/>
       <c r="E533" s="2"/>
       <c r="F533" s="2"/>
@@ -18810,10 +18824,10 @@
       <c r="W533" s="2"/>
       <c r="X533" s="2"/>
     </row>
-    <row r="534" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A534" s="16"/>
       <c r="B534" s="17"/>
-      <c r="C534" s="47"/>
+      <c r="C534" s="40"/>
       <c r="D534" s="2"/>
       <c r="E534" s="2"/>
       <c r="F534" s="2"/>
@@ -18836,10 +18850,10 @@
       <c r="W534" s="2"/>
       <c r="X534" s="2"/>
     </row>
-    <row r="535" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A535" s="16"/>
       <c r="B535" s="17"/>
-      <c r="C535" s="47"/>
+      <c r="C535" s="40"/>
       <c r="D535" s="2"/>
       <c r="E535" s="2"/>
       <c r="F535" s="2"/>
@@ -18862,10 +18876,10 @@
       <c r="W535" s="2"/>
       <c r="X535" s="2"/>
     </row>
-    <row r="536" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A536" s="16"/>
       <c r="B536" s="17"/>
-      <c r="C536" s="47"/>
+      <c r="C536" s="40"/>
       <c r="D536" s="2"/>
       <c r="E536" s="2"/>
       <c r="F536" s="2"/>
@@ -18888,10 +18902,10 @@
       <c r="W536" s="2"/>
       <c r="X536" s="2"/>
     </row>
-    <row r="537" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A537" s="16"/>
       <c r="B537" s="17"/>
-      <c r="C537" s="47"/>
+      <c r="C537" s="40"/>
       <c r="D537" s="2"/>
       <c r="E537" s="2"/>
       <c r="F537" s="2"/>
@@ -18914,10 +18928,10 @@
       <c r="W537" s="2"/>
       <c r="X537" s="2"/>
     </row>
-    <row r="538" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A538" s="16"/>
       <c r="B538" s="17"/>
-      <c r="C538" s="47"/>
+      <c r="C538" s="40"/>
       <c r="D538" s="2"/>
       <c r="E538" s="2"/>
       <c r="F538" s="2"/>
@@ -18940,10 +18954,10 @@
       <c r="W538" s="2"/>
       <c r="X538" s="2"/>
     </row>
-    <row r="539" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A539" s="16"/>
       <c r="B539" s="17"/>
-      <c r="C539" s="47"/>
+      <c r="C539" s="40"/>
       <c r="D539" s="2"/>
       <c r="E539" s="2"/>
       <c r="F539" s="2"/>
@@ -18966,10 +18980,10 @@
       <c r="W539" s="2"/>
       <c r="X539" s="2"/>
     </row>
-    <row r="540" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A540" s="16"/>
       <c r="B540" s="17"/>
-      <c r="C540" s="47"/>
+      <c r="C540" s="40"/>
       <c r="D540" s="2"/>
       <c r="E540" s="2"/>
       <c r="F540" s="2"/>
@@ -18992,10 +19006,10 @@
       <c r="W540" s="2"/>
       <c r="X540" s="2"/>
     </row>
-    <row r="541" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A541" s="16"/>
       <c r="B541" s="17"/>
-      <c r="C541" s="47"/>
+      <c r="C541" s="40"/>
       <c r="D541" s="2"/>
       <c r="E541" s="2"/>
       <c r="F541" s="2"/>
@@ -19018,10 +19032,10 @@
       <c r="W541" s="2"/>
       <c r="X541" s="2"/>
     </row>
-    <row r="542" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A542" s="16"/>
       <c r="B542" s="17"/>
-      <c r="C542" s="47"/>
+      <c r="C542" s="40"/>
       <c r="D542" s="2"/>
       <c r="E542" s="2"/>
       <c r="F542" s="2"/>
@@ -19044,10 +19058,10 @@
       <c r="W542" s="2"/>
       <c r="X542" s="2"/>
     </row>
-    <row r="543" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A543" s="16"/>
       <c r="B543" s="17"/>
-      <c r="C543" s="47"/>
+      <c r="C543" s="40"/>
       <c r="D543" s="2"/>
       <c r="E543" s="2"/>
       <c r="F543" s="2"/>
@@ -19070,10 +19084,10 @@
       <c r="W543" s="2"/>
       <c r="X543" s="2"/>
     </row>
-    <row r="544" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A544" s="16"/>
       <c r="B544" s="17"/>
-      <c r="C544" s="47"/>
+      <c r="C544" s="40"/>
       <c r="D544" s="2"/>
       <c r="E544" s="2"/>
       <c r="F544" s="2"/>
@@ -19096,10 +19110,10 @@
       <c r="W544" s="2"/>
       <c r="X544" s="2"/>
     </row>
-    <row r="545" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A545" s="16"/>
       <c r="B545" s="17"/>
-      <c r="C545" s="47"/>
+      <c r="C545" s="40"/>
       <c r="D545" s="2"/>
       <c r="E545" s="2"/>
       <c r="F545" s="2"/>
@@ -19122,10 +19136,10 @@
       <c r="W545" s="2"/>
       <c r="X545" s="2"/>
     </row>
-    <row r="546" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A546" s="16"/>
       <c r="B546" s="17"/>
-      <c r="C546" s="47"/>
+      <c r="C546" s="40"/>
       <c r="D546" s="2"/>
       <c r="E546" s="2"/>
       <c r="F546" s="2"/>
@@ -19148,10 +19162,10 @@
       <c r="W546" s="2"/>
       <c r="X546" s="2"/>
     </row>
-    <row r="547" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A547" s="16"/>
       <c r="B547" s="17"/>
-      <c r="C547" s="47"/>
+      <c r="C547" s="40"/>
       <c r="D547" s="2"/>
       <c r="E547" s="2"/>
       <c r="F547" s="2"/>
@@ -19174,10 +19188,10 @@
       <c r="W547" s="2"/>
       <c r="X547" s="2"/>
     </row>
-    <row r="548" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A548" s="16"/>
       <c r="B548" s="17"/>
-      <c r="C548" s="47"/>
+      <c r="C548" s="40"/>
       <c r="D548" s="2"/>
       <c r="E548" s="2"/>
       <c r="F548" s="2"/>
@@ -19200,10 +19214,10 @@
       <c r="W548" s="2"/>
       <c r="X548" s="2"/>
     </row>
-    <row r="549" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A549" s="16"/>
       <c r="B549" s="17"/>
-      <c r="C549" s="47"/>
+      <c r="C549" s="40"/>
       <c r="D549" s="2"/>
       <c r="E549" s="2"/>
       <c r="F549" s="2"/>
@@ -19226,10 +19240,10 @@
       <c r="W549" s="2"/>
       <c r="X549" s="2"/>
     </row>
-    <row r="550" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A550" s="16"/>
       <c r="B550" s="17"/>
-      <c r="C550" s="47"/>
+      <c r="C550" s="40"/>
       <c r="D550" s="2"/>
       <c r="E550" s="2"/>
       <c r="F550" s="2"/>
@@ -19252,10 +19266,10 @@
       <c r="W550" s="2"/>
       <c r="X550" s="2"/>
     </row>
-    <row r="551" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A551" s="16"/>
       <c r="B551" s="17"/>
-      <c r="C551" s="47"/>
+      <c r="C551" s="40"/>
       <c r="D551" s="2"/>
       <c r="E551" s="2"/>
       <c r="F551" s="2"/>
@@ -19278,10 +19292,10 @@
       <c r="W551" s="2"/>
       <c r="X551" s="2"/>
     </row>
-    <row r="552" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A552" s="16"/>
       <c r="B552" s="17"/>
-      <c r="C552" s="47"/>
+      <c r="C552" s="40"/>
       <c r="D552" s="2"/>
       <c r="E552" s="2"/>
       <c r="F552" s="2"/>
@@ -19304,10 +19318,10 @@
       <c r="W552" s="2"/>
       <c r="X552" s="2"/>
     </row>
-    <row r="553" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A553" s="16"/>
       <c r="B553" s="17"/>
-      <c r="C553" s="47"/>
+      <c r="C553" s="40"/>
       <c r="D553" s="2"/>
       <c r="E553" s="2"/>
       <c r="F553" s="2"/>
@@ -19330,10 +19344,10 @@
       <c r="W553" s="2"/>
       <c r="X553" s="2"/>
     </row>
-    <row r="554" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A554" s="16"/>
       <c r="B554" s="17"/>
-      <c r="C554" s="47"/>
+      <c r="C554" s="40"/>
       <c r="D554" s="2"/>
       <c r="E554" s="2"/>
       <c r="F554" s="2"/>
@@ -19356,10 +19370,10 @@
       <c r="W554" s="2"/>
       <c r="X554" s="2"/>
     </row>
-    <row r="555" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A555" s="16"/>
       <c r="B555" s="17"/>
-      <c r="C555" s="47"/>
+      <c r="C555" s="40"/>
       <c r="D555" s="2"/>
       <c r="E555" s="2"/>
       <c r="F555" s="2"/>
@@ -19382,10 +19396,10 @@
       <c r="W555" s="2"/>
       <c r="X555" s="2"/>
     </row>
-    <row r="556" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A556" s="16"/>
       <c r="B556" s="17"/>
-      <c r="C556" s="47"/>
+      <c r="C556" s="40"/>
       <c r="D556" s="2"/>
       <c r="E556" s="2"/>
       <c r="F556" s="2"/>
@@ -19408,10 +19422,10 @@
       <c r="W556" s="2"/>
       <c r="X556" s="2"/>
     </row>
-    <row r="557" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A557" s="16"/>
       <c r="B557" s="17"/>
-      <c r="C557" s="47"/>
+      <c r="C557" s="40"/>
       <c r="D557" s="2"/>
       <c r="E557" s="2"/>
       <c r="F557" s="2"/>
@@ -19434,10 +19448,10 @@
       <c r="W557" s="2"/>
       <c r="X557" s="2"/>
     </row>
-    <row r="558" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A558" s="16"/>
       <c r="B558" s="17"/>
-      <c r="C558" s="47"/>
+      <c r="C558" s="40"/>
       <c r="D558" s="2"/>
       <c r="E558" s="2"/>
       <c r="F558" s="2"/>
@@ -19460,10 +19474,10 @@
       <c r="W558" s="2"/>
       <c r="X558" s="2"/>
     </row>
-    <row r="559" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A559" s="16"/>
       <c r="B559" s="17"/>
-      <c r="C559" s="47"/>
+      <c r="C559" s="40"/>
       <c r="D559" s="2"/>
       <c r="E559" s="2"/>
       <c r="F559" s="2"/>
@@ -19486,10 +19500,10 @@
       <c r="W559" s="2"/>
       <c r="X559" s="2"/>
     </row>
-    <row r="560" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A560" s="16"/>
       <c r="B560" s="17"/>
-      <c r="C560" s="47"/>
+      <c r="C560" s="40"/>
       <c r="D560" s="2"/>
       <c r="E560" s="2"/>
       <c r="F560" s="2"/>
@@ -19512,10 +19526,10 @@
       <c r="W560" s="2"/>
       <c r="X560" s="2"/>
     </row>
-    <row r="561" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A561" s="16"/>
       <c r="B561" s="17"/>
-      <c r="C561" s="47"/>
+      <c r="C561" s="40"/>
       <c r="D561" s="2"/>
       <c r="E561" s="2"/>
       <c r="F561" s="2"/>
@@ -19538,10 +19552,10 @@
       <c r="W561" s="2"/>
       <c r="X561" s="2"/>
     </row>
-    <row r="562" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A562" s="16"/>
       <c r="B562" s="17"/>
-      <c r="C562" s="47"/>
+      <c r="C562" s="40"/>
       <c r="D562" s="2"/>
       <c r="E562" s="2"/>
       <c r="F562" s="2"/>
@@ -19564,10 +19578,10 @@
       <c r="W562" s="2"/>
       <c r="X562" s="2"/>
     </row>
-    <row r="563" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A563" s="16"/>
       <c r="B563" s="17"/>
-      <c r="C563" s="47"/>
+      <c r="C563" s="40"/>
       <c r="D563" s="2"/>
       <c r="E563" s="2"/>
       <c r="F563" s="2"/>
@@ -19590,10 +19604,10 @@
       <c r="W563" s="2"/>
       <c r="X563" s="2"/>
     </row>
-    <row r="564" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A564" s="16"/>
       <c r="B564" s="17"/>
-      <c r="C564" s="47"/>
+      <c r="C564" s="40"/>
       <c r="D564" s="2"/>
       <c r="E564" s="2"/>
       <c r="F564" s="2"/>
@@ -19616,10 +19630,10 @@
       <c r="W564" s="2"/>
       <c r="X564" s="2"/>
     </row>
-    <row r="565" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A565" s="16"/>
       <c r="B565" s="17"/>
-      <c r="C565" s="47"/>
+      <c r="C565" s="40"/>
       <c r="D565" s="2"/>
       <c r="E565" s="2"/>
       <c r="F565" s="2"/>
@@ -19642,10 +19656,10 @@
       <c r="W565" s="2"/>
       <c r="X565" s="2"/>
     </row>
-    <row r="566" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A566" s="16"/>
       <c r="B566" s="17"/>
-      <c r="C566" s="47"/>
+      <c r="C566" s="40"/>
       <c r="D566" s="2"/>
       <c r="E566" s="2"/>
       <c r="F566" s="2"/>
@@ -19668,10 +19682,10 @@
       <c r="W566" s="2"/>
       <c r="X566" s="2"/>
     </row>
-    <row r="567" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A567" s="16"/>
       <c r="B567" s="17"/>
-      <c r="C567" s="47"/>
+      <c r="C567" s="40"/>
       <c r="D567" s="2"/>
       <c r="E567" s="2"/>
       <c r="F567" s="2"/>
@@ -19694,10 +19708,10 @@
       <c r="W567" s="2"/>
       <c r="X567" s="2"/>
     </row>
-    <row r="568" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A568" s="16"/>
       <c r="B568" s="17"/>
-      <c r="C568" s="47"/>
+      <c r="C568" s="40"/>
       <c r="D568" s="2"/>
       <c r="E568" s="2"/>
       <c r="F568" s="2"/>
@@ -19720,10 +19734,10 @@
       <c r="W568" s="2"/>
       <c r="X568" s="2"/>
     </row>
-    <row r="569" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A569" s="16"/>
       <c r="B569" s="17"/>
-      <c r="C569" s="47"/>
+      <c r="C569" s="40"/>
       <c r="D569" s="2"/>
       <c r="E569" s="2"/>
       <c r="F569" s="2"/>
@@ -19746,10 +19760,10 @@
       <c r="W569" s="2"/>
       <c r="X569" s="2"/>
     </row>
-    <row r="570" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A570" s="16"/>
       <c r="B570" s="17"/>
-      <c r="C570" s="47"/>
+      <c r="C570" s="40"/>
       <c r="D570" s="2"/>
       <c r="E570" s="2"/>
       <c r="F570" s="2"/>
@@ -19772,10 +19786,10 @@
       <c r="W570" s="2"/>
       <c r="X570" s="2"/>
     </row>
-    <row r="571" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A571" s="16"/>
       <c r="B571" s="17"/>
-      <c r="C571" s="47"/>
+      <c r="C571" s="40"/>
       <c r="D571" s="2"/>
       <c r="E571" s="2"/>
       <c r="F571" s="2"/>
@@ -19798,10 +19812,10 @@
       <c r="W571" s="2"/>
       <c r="X571" s="2"/>
     </row>
-    <row r="572" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A572" s="16"/>
       <c r="B572" s="17"/>
-      <c r="C572" s="47"/>
+      <c r="C572" s="40"/>
       <c r="D572" s="2"/>
       <c r="E572" s="2"/>
       <c r="F572" s="2"/>
@@ -19824,10 +19838,10 @@
       <c r="W572" s="2"/>
       <c r="X572" s="2"/>
     </row>
-    <row r="573" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A573" s="16"/>
       <c r="B573" s="17"/>
-      <c r="C573" s="47"/>
+      <c r="C573" s="40"/>
       <c r="D573" s="2"/>
       <c r="E573" s="2"/>
       <c r="F573" s="2"/>
@@ -19850,10 +19864,10 @@
       <c r="W573" s="2"/>
       <c r="X573" s="2"/>
     </row>
-    <row r="574" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A574" s="16"/>
       <c r="B574" s="17"/>
-      <c r="C574" s="47"/>
+      <c r="C574" s="40"/>
       <c r="D574" s="2"/>
       <c r="E574" s="2"/>
       <c r="F574" s="2"/>
@@ -19876,10 +19890,10 @@
       <c r="W574" s="2"/>
       <c r="X574" s="2"/>
     </row>
-    <row r="575" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A575" s="16"/>
       <c r="B575" s="17"/>
-      <c r="C575" s="47"/>
+      <c r="C575" s="40"/>
       <c r="D575" s="2"/>
       <c r="E575" s="2"/>
       <c r="F575" s="2"/>
@@ -19902,10 +19916,10 @@
       <c r="W575" s="2"/>
       <c r="X575" s="2"/>
     </row>
-    <row r="576" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A576" s="16"/>
       <c r="B576" s="17"/>
-      <c r="C576" s="47"/>
+      <c r="C576" s="40"/>
       <c r="D576" s="2"/>
       <c r="E576" s="2"/>
       <c r="F576" s="2"/>
@@ -19928,10 +19942,10 @@
       <c r="W576" s="2"/>
       <c r="X576" s="2"/>
     </row>
-    <row r="577" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A577" s="16"/>
       <c r="B577" s="17"/>
-      <c r="C577" s="47"/>
+      <c r="C577" s="40"/>
       <c r="D577" s="2"/>
       <c r="E577" s="2"/>
       <c r="F577" s="2"/>
@@ -19954,10 +19968,10 @@
       <c r="W577" s="2"/>
       <c r="X577" s="2"/>
     </row>
-    <row r="578" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A578" s="16"/>
       <c r="B578" s="17"/>
-      <c r="C578" s="47"/>
+      <c r="C578" s="40"/>
       <c r="D578" s="2"/>
       <c r="E578" s="2"/>
       <c r="F578" s="2"/>
@@ -19980,10 +19994,10 @@
       <c r="W578" s="2"/>
       <c r="X578" s="2"/>
     </row>
-    <row r="579" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A579" s="16"/>
       <c r="B579" s="17"/>
-      <c r="C579" s="47"/>
+      <c r="C579" s="40"/>
       <c r="D579" s="2"/>
       <c r="E579" s="2"/>
       <c r="F579" s="2"/>
@@ -20006,10 +20020,10 @@
       <c r="W579" s="2"/>
       <c r="X579" s="2"/>
     </row>
-    <row r="580" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A580" s="16"/>
       <c r="B580" s="17"/>
-      <c r="C580" s="47"/>
+      <c r="C580" s="40"/>
       <c r="D580" s="2"/>
       <c r="E580" s="2"/>
       <c r="F580" s="2"/>
@@ -20032,10 +20046,10 @@
       <c r="W580" s="2"/>
       <c r="X580" s="2"/>
     </row>
-    <row r="581" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A581" s="16"/>
       <c r="B581" s="17"/>
-      <c r="C581" s="47"/>
+      <c r="C581" s="40"/>
       <c r="D581" s="2"/>
       <c r="E581" s="2"/>
       <c r="F581" s="2"/>
@@ -20058,10 +20072,10 @@
       <c r="W581" s="2"/>
       <c r="X581" s="2"/>
     </row>
-    <row r="582" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A582" s="16"/>
       <c r="B582" s="17"/>
-      <c r="C582" s="47"/>
+      <c r="C582" s="40"/>
       <c r="D582" s="2"/>
       <c r="E582" s="2"/>
       <c r="F582" s="2"/>
@@ -20084,10 +20098,10 @@
       <c r="W582" s="2"/>
       <c r="X582" s="2"/>
     </row>
-    <row r="583" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A583" s="16"/>
       <c r="B583" s="17"/>
-      <c r="C583" s="47"/>
+      <c r="C583" s="40"/>
       <c r="D583" s="2"/>
       <c r="E583" s="2"/>
       <c r="F583" s="2"/>
@@ -20110,10 +20124,10 @@
       <c r="W583" s="2"/>
       <c r="X583" s="2"/>
     </row>
-    <row r="584" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A584" s="16"/>
       <c r="B584" s="17"/>
-      <c r="C584" s="47"/>
+      <c r="C584" s="40"/>
       <c r="D584" s="2"/>
       <c r="E584" s="2"/>
       <c r="F584" s="2"/>
@@ -20136,10 +20150,10 @@
       <c r="W584" s="2"/>
       <c r="X584" s="2"/>
     </row>
-    <row r="585" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A585" s="16"/>
       <c r="B585" s="17"/>
-      <c r="C585" s="47"/>
+      <c r="C585" s="40"/>
       <c r="D585" s="2"/>
       <c r="E585" s="2"/>
       <c r="F585" s="2"/>
@@ -20162,10 +20176,10 @@
       <c r="W585" s="2"/>
       <c r="X585" s="2"/>
     </row>
-    <row r="586" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A586" s="16"/>
       <c r="B586" s="17"/>
-      <c r="C586" s="47"/>
+      <c r="C586" s="40"/>
       <c r="D586" s="2"/>
       <c r="E586" s="2"/>
       <c r="F586" s="2"/>
@@ -20188,10 +20202,10 @@
       <c r="W586" s="2"/>
       <c r="X586" s="2"/>
     </row>
-    <row r="587" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A587" s="16"/>
       <c r="B587" s="17"/>
-      <c r="C587" s="47"/>
+      <c r="C587" s="40"/>
       <c r="D587" s="2"/>
       <c r="E587" s="2"/>
       <c r="F587" s="2"/>
@@ -20214,10 +20228,10 @@
       <c r="W587" s="2"/>
       <c r="X587" s="2"/>
     </row>
-    <row r="588" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A588" s="16"/>
       <c r="B588" s="17"/>
-      <c r="C588" s="47"/>
+      <c r="C588" s="40"/>
       <c r="D588" s="2"/>
       <c r="E588" s="2"/>
       <c r="F588" s="2"/>
@@ -20240,10 +20254,10 @@
       <c r="W588" s="2"/>
       <c r="X588" s="2"/>
     </row>
-    <row r="589" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A589" s="16"/>
       <c r="B589" s="17"/>
-      <c r="C589" s="47"/>
+      <c r="C589" s="40"/>
       <c r="D589" s="2"/>
       <c r="E589" s="2"/>
       <c r="F589" s="2"/>
@@ -20266,10 +20280,10 @@
       <c r="W589" s="2"/>
       <c r="X589" s="2"/>
     </row>
-    <row r="590" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A590" s="16"/>
       <c r="B590" s="17"/>
-      <c r="C590" s="47"/>
+      <c r="C590" s="40"/>
       <c r="D590" s="2"/>
       <c r="E590" s="2"/>
       <c r="F590" s="2"/>
@@ -20292,10 +20306,10 @@
       <c r="W590" s="2"/>
       <c r="X590" s="2"/>
     </row>
-    <row r="591" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A591" s="16"/>
       <c r="B591" s="17"/>
-      <c r="C591" s="47"/>
+      <c r="C591" s="40"/>
       <c r="D591" s="2"/>
       <c r="E591" s="2"/>
       <c r="F591" s="2"/>
@@ -20318,10 +20332,10 @@
       <c r="W591" s="2"/>
       <c r="X591" s="2"/>
     </row>
-    <row r="592" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A592" s="16"/>
       <c r="B592" s="17"/>
-      <c r="C592" s="47"/>
+      <c r="C592" s="40"/>
       <c r="D592" s="2"/>
       <c r="E592" s="2"/>
       <c r="F592" s="2"/>
@@ -20344,10 +20358,10 @@
       <c r="W592" s="2"/>
       <c r="X592" s="2"/>
     </row>
-    <row r="593" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A593" s="16"/>
       <c r="B593" s="17"/>
-      <c r="C593" s="47"/>
+      <c r="C593" s="40"/>
       <c r="D593" s="2"/>
       <c r="E593" s="2"/>
       <c r="F593" s="2"/>
@@ -20370,10 +20384,10 @@
       <c r="W593" s="2"/>
       <c r="X593" s="2"/>
     </row>
-    <row r="594" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A594" s="16"/>
       <c r="B594" s="17"/>
-      <c r="C594" s="47"/>
+      <c r="C594" s="40"/>
       <c r="D594" s="2"/>
       <c r="E594" s="2"/>
       <c r="F594" s="2"/>
@@ -20396,10 +20410,10 @@
       <c r="W594" s="2"/>
       <c r="X594" s="2"/>
     </row>
-    <row r="595" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A595" s="16"/>
       <c r="B595" s="17"/>
-      <c r="C595" s="47"/>
+      <c r="C595" s="40"/>
       <c r="D595" s="2"/>
       <c r="E595" s="2"/>
       <c r="F595" s="2"/>
@@ -20422,10 +20436,10 @@
       <c r="W595" s="2"/>
       <c r="X595" s="2"/>
     </row>
-    <row r="596" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A596" s="16"/>
       <c r="B596" s="17"/>
-      <c r="C596" s="47"/>
+      <c r="C596" s="40"/>
       <c r="D596" s="2"/>
       <c r="E596" s="2"/>
       <c r="F596" s="2"/>
@@ -20448,10 +20462,10 @@
       <c r="W596" s="2"/>
       <c r="X596" s="2"/>
     </row>
-    <row r="597" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A597" s="16"/>
       <c r="B597" s="17"/>
-      <c r="C597" s="47"/>
+      <c r="C597" s="40"/>
       <c r="D597" s="2"/>
       <c r="E597" s="2"/>
       <c r="F597" s="2"/>
@@ -20474,10 +20488,10 @@
       <c r="W597" s="2"/>
       <c r="X597" s="2"/>
     </row>
-    <row r="598" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A598" s="16"/>
       <c r="B598" s="17"/>
-      <c r="C598" s="47"/>
+      <c r="C598" s="40"/>
       <c r="D598" s="2"/>
       <c r="E598" s="2"/>
       <c r="F598" s="2"/>
@@ -20500,10 +20514,10 @@
       <c r="W598" s="2"/>
       <c r="X598" s="2"/>
     </row>
-    <row r="599" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A599" s="16"/>
       <c r="B599" s="17"/>
-      <c r="C599" s="47"/>
+      <c r="C599" s="40"/>
       <c r="D599" s="2"/>
       <c r="E599" s="2"/>
       <c r="F599" s="2"/>
@@ -20526,10 +20540,10 @@
       <c r="W599" s="2"/>
       <c r="X599" s="2"/>
     </row>
-    <row r="600" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A600" s="16"/>
       <c r="B600" s="17"/>
-      <c r="C600" s="47"/>
+      <c r="C600" s="40"/>
       <c r="D600" s="2"/>
       <c r="E600" s="2"/>
       <c r="F600" s="2"/>
@@ -20552,10 +20566,10 @@
       <c r="W600" s="2"/>
       <c r="X600" s="2"/>
     </row>
-    <row r="601" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A601" s="16"/>
       <c r="B601" s="17"/>
-      <c r="C601" s="47"/>
+      <c r="C601" s="40"/>
       <c r="D601" s="2"/>
       <c r="E601" s="2"/>
       <c r="F601" s="2"/>
@@ -20578,10 +20592,10 @@
       <c r="W601" s="2"/>
       <c r="X601" s="2"/>
     </row>
-    <row r="602" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A602" s="16"/>
       <c r="B602" s="17"/>
-      <c r="C602" s="47"/>
+      <c r="C602" s="40"/>
       <c r="D602" s="2"/>
       <c r="E602" s="2"/>
       <c r="F602" s="2"/>
@@ -20604,10 +20618,10 @@
       <c r="W602" s="2"/>
       <c r="X602" s="2"/>
     </row>
-    <row r="603" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A603" s="16"/>
       <c r="B603" s="17"/>
-      <c r="C603" s="47"/>
+      <c r="C603" s="40"/>
       <c r="D603" s="2"/>
       <c r="E603" s="2"/>
       <c r="F603" s="2"/>
@@ -20630,10 +20644,10 @@
       <c r="W603" s="2"/>
       <c r="X603" s="2"/>
     </row>
-    <row r="604" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A604" s="16"/>
       <c r="B604" s="17"/>
-      <c r="C604" s="47"/>
+      <c r="C604" s="40"/>
       <c r="D604" s="2"/>
       <c r="E604" s="2"/>
       <c r="F604" s="2"/>
@@ -20656,10 +20670,10 @@
       <c r="W604" s="2"/>
       <c r="X604" s="2"/>
     </row>
-    <row r="605" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A605" s="16"/>
       <c r="B605" s="17"/>
-      <c r="C605" s="47"/>
+      <c r="C605" s="40"/>
       <c r="D605" s="2"/>
       <c r="E605" s="2"/>
       <c r="F605" s="2"/>
@@ -20682,10 +20696,10 @@
       <c r="W605" s="2"/>
       <c r="X605" s="2"/>
     </row>
-    <row r="606" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A606" s="16"/>
       <c r="B606" s="17"/>
-      <c r="C606" s="47"/>
+      <c r="C606" s="40"/>
       <c r="D606" s="2"/>
       <c r="E606" s="2"/>
       <c r="F606" s="2"/>
@@ -20708,10 +20722,10 @@
       <c r="W606" s="2"/>
       <c r="X606" s="2"/>
     </row>
-    <row r="607" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A607" s="16"/>
       <c r="B607" s="17"/>
-      <c r="C607" s="47"/>
+      <c r="C607" s="40"/>
       <c r="D607" s="2"/>
       <c r="E607" s="2"/>
       <c r="F607" s="2"/>
@@ -20734,10 +20748,10 @@
       <c r="W607" s="2"/>
       <c r="X607" s="2"/>
     </row>
-    <row r="608" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A608" s="16"/>
       <c r="B608" s="17"/>
-      <c r="C608" s="47"/>
+      <c r="C608" s="40"/>
       <c r="D608" s="2"/>
       <c r="E608" s="2"/>
       <c r="F608" s="2"/>
@@ -20760,10 +20774,10 @@
       <c r="W608" s="2"/>
       <c r="X608" s="2"/>
     </row>
-    <row r="609" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A609" s="16"/>
       <c r="B609" s="17"/>
-      <c r="C609" s="47"/>
+      <c r="C609" s="40"/>
       <c r="D609" s="2"/>
       <c r="E609" s="2"/>
       <c r="F609" s="2"/>
@@ -20786,10 +20800,10 @@
       <c r="W609" s="2"/>
       <c r="X609" s="2"/>
     </row>
-    <row r="610" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A610" s="16"/>
       <c r="B610" s="17"/>
-      <c r="C610" s="47"/>
+      <c r="C610" s="40"/>
       <c r="D610" s="2"/>
       <c r="E610" s="2"/>
       <c r="F610" s="2"/>
@@ -20812,10 +20826,10 @@
       <c r="W610" s="2"/>
       <c r="X610" s="2"/>
     </row>
-    <row r="611" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A611" s="16"/>
       <c r="B611" s="17"/>
-      <c r="C611" s="47"/>
+      <c r="C611" s="40"/>
       <c r="D611" s="2"/>
       <c r="E611" s="2"/>
       <c r="F611" s="2"/>
@@ -20838,10 +20852,10 @@
       <c r="W611" s="2"/>
       <c r="X611" s="2"/>
     </row>
-    <row r="612" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A612" s="16"/>
       <c r="B612" s="17"/>
-      <c r="C612" s="47"/>
+      <c r="C612" s="40"/>
       <c r="D612" s="2"/>
       <c r="E612" s="2"/>
       <c r="F612" s="2"/>
@@ -20864,10 +20878,10 @@
       <c r="W612" s="2"/>
       <c r="X612" s="2"/>
     </row>
-    <row r="613" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A613" s="16"/>
       <c r="B613" s="17"/>
-      <c r="C613" s="47"/>
+      <c r="C613" s="40"/>
       <c r="D613" s="2"/>
       <c r="E613" s="2"/>
       <c r="F613" s="2"/>
@@ -20890,10 +20904,10 @@
       <c r="W613" s="2"/>
       <c r="X613" s="2"/>
     </row>
-    <row r="614" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A614" s="16"/>
       <c r="B614" s="17"/>
-      <c r="C614" s="47"/>
+      <c r="C614" s="40"/>
       <c r="D614" s="2"/>
       <c r="E614" s="2"/>
       <c r="F614" s="2"/>
@@ -20916,10 +20930,10 @@
       <c r="W614" s="2"/>
       <c r="X614" s="2"/>
     </row>
-    <row r="615" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A615" s="16"/>
       <c r="B615" s="17"/>
-      <c r="C615" s="47"/>
+      <c r="C615" s="40"/>
       <c r="D615" s="2"/>
       <c r="E615" s="2"/>
       <c r="F615" s="2"/>
@@ -20942,10 +20956,10 @@
       <c r="W615" s="2"/>
       <c r="X615" s="2"/>
     </row>
-    <row r="616" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A616" s="16"/>
       <c r="B616" s="17"/>
-      <c r="C616" s="47"/>
+      <c r="C616" s="40"/>
       <c r="D616" s="2"/>
       <c r="E616" s="2"/>
       <c r="F616" s="2"/>
@@ -21354,39 +21368,39 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{A6CE0597-98E5-4A5B-AB5F-6EEE71119C0A}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{DB562CAF-E1A0-40F3-9192-5E17BE155BA5}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37" xr:uid="{352E9644-87C2-4861-B221-06B4B76568D9}"/>
+      <autoFilter ref="A11:D37" xr:uid="{0F3B6852-6A7A-46DF-9AF2-9E75C4D61840}"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
-          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="418346103"/>
+          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="1247552191"/>
+        </ext>
+      </extLst>
+    </customSheetView>
+    <customSheetView guid="{C68DABDE-8AC1-49C3-98CF-691EE57ABE88}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A293:C332" xr:uid="{9F76F1C4-F905-435F-B686-174F1960369F}"/>
+      <extLst>
+        <ext uri="GoogleSheetsCustomDataVersion1">
+          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="1542537633"/>
         </ext>
       </extLst>
     </customSheetView>
     <customSheetView guid="{FB58D069-98FB-40A6-98B6-6F873CC8E3CF}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{E8432798-2E69-4229-9EAA-8710C4D94DC5}"/>
+      <autoFilter ref="A11:D37" xr:uid="{41107013-996E-4B6D-806F-FFCDA3D6B302}"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
           <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="2099002125"/>
         </ext>
       </extLst>
     </customSheetView>
-    <customSheetView guid="{C68DABDE-8AC1-49C3-98CF-691EE57ABE88}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{A6CE0597-98E5-4A5B-AB5F-6EEE71119C0A}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332" xr:uid="{CE05456E-CC6B-4E02-A421-8ECAD5C51351}"/>
+      <autoFilter ref="A11:C37" xr:uid="{3D1507BF-AF02-498D-B191-89DE8EC6B919}"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
-          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="1542537633"/>
-        </ext>
-      </extLst>
-    </customSheetView>
-    <customSheetView guid="{DB562CAF-E1A0-40F3-9192-5E17BE155BA5}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{EBA477B7-B96E-4D24-A283-D9F856F6AC08}"/>
-      <extLst>
-        <ext uri="GoogleSheetsCustomDataVersion1">
-          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="1247552191"/>
+          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="418346103"/>
         </ext>
       </extLst>
     </customSheetView>
@@ -21790,44 +21804,44 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.6328125" customWidth="1"/>
-    <col min="2" max="2" width="63.453125" customWidth="1"/>
-    <col min="3" max="3" width="38.7265625" customWidth="1"/>
-    <col min="4" max="6" width="12.6328125" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="63.44140625" customWidth="1"/>
+    <col min="3" max="3" width="38.77734375" customWidth="1"/>
+    <col min="4" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -21836,7 +21850,7 @@
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
@@ -21845,7 +21859,7 @@
       </c>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
@@ -21854,31 +21868,31 @@
       </c>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="48" t="s">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="41" t="s">
         <v>657</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="41" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>61</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>586</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="40" t="s">
         <v>658</v>
       </c>
     </row>
@@ -21942,7 +21956,7 @@
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>169</v>
       </c>
@@ -21950,7 +21964,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>169</v>
       </c>
@@ -21958,15 +21972,15 @@
         <v>667</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="49"/>
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="42"/>
       <c r="B26" s="14"/>
     </row>
-    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="49"/>
+    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="42"/>
       <c r="B27" s="14"/>
     </row>
-    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>203</v>
       </c>
@@ -21974,7 +21988,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>203</v>
       </c>
@@ -21982,7 +21996,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>203</v>
       </c>
@@ -21990,7 +22004,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>203</v>
       </c>
@@ -21998,7 +22012,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>203</v>
       </c>
@@ -22006,15 +22020,15 @@
         <v>672</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="49"/>
+    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="42"/>
       <c r="B33" s="14"/>
     </row>
-    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="49"/>
+    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="42"/>
       <c r="B34" s="14"/>
     </row>
-    <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>253</v>
       </c>
@@ -22022,7 +22036,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>253</v>
       </c>
@@ -22030,7 +22044,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>253</v>
       </c>
@@ -22038,7 +22052,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="9" t="s">
         <v>253</v>
       </c>
@@ -22048,7 +22062,7 @@
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="5" t="s">
         <v>301</v>
       </c>
@@ -22056,7 +22070,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5" t="s">
         <v>301</v>
       </c>
@@ -22065,11 +22079,11 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="49"/>
+    <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="42"/>
       <c r="B44" s="14"/>
     </row>
-    <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="8" t="s">
         <v>334</v>
       </c>
@@ -22077,7 +22091,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="9" t="s">
         <v>334</v>
       </c>
@@ -22085,15 +22099,15 @@
         <v>680</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="49"/>
+    <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="42"/>
       <c r="B47" s="14"/>
     </row>
-    <row r="48" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="49"/>
+    <row r="48" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="42"/>
       <c r="B48" s="14"/>
     </row>
-    <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="5" t="s">
         <v>394</v>
       </c>
@@ -22101,15 +22115,15 @@
         <v>681</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="49"/>
+    <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="42"/>
       <c r="B50" s="14"/>
     </row>
-    <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="49"/>
+    <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="42"/>
       <c r="B51" s="14"/>
     </row>
-    <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="8" t="s">
         <v>429</v>
       </c>
@@ -22117,7 +22131,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="8" t="s">
         <v>429</v>
       </c>
@@ -22125,7 +22139,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="9" t="s">
         <v>429</v>
       </c>
@@ -22133,7 +22147,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="9" t="s">
         <v>429</v>
       </c>
@@ -22141,7 +22155,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="9" t="s">
         <v>429</v>
       </c>
@@ -22149,15 +22163,15 @@
         <v>686</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="49"/>
+    <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="42"/>
       <c r="B57" s="14"/>
     </row>
-    <row r="58" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="49"/>
+    <row r="58" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="42"/>
       <c r="B58" s="14"/>
     </row>
-    <row r="59" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="9" t="s">
         <v>474</v>
       </c>
@@ -22165,7 +22179,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="9" t="s">
         <v>474</v>
       </c>
@@ -22173,7 +22187,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="9" t="s">
         <v>474</v>
       </c>
@@ -22181,15 +22195,15 @@
         <v>331</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="49"/>
+    <row r="62" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="42"/>
       <c r="B62" s="12"/>
     </row>
-    <row r="63" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="49"/>
+    <row r="63" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="42"/>
       <c r="B63" s="12"/>
     </row>
-    <row r="64" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="8" t="s">
         <v>551</v>
       </c>
@@ -22197,7 +22211,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="8" t="s">
         <v>551</v>
       </c>
@@ -22205,7 +22219,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="8" t="s">
         <v>551</v>
       </c>
@@ -22213,7 +22227,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="8" t="s">
         <v>551</v>
       </c>
@@ -22221,7 +22235,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="8" t="s">
         <v>551</v>
       </c>
@@ -22229,7 +22243,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="9" t="s">
         <v>551</v>
       </c>
@@ -22237,7 +22251,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="9" t="s">
         <v>551</v>
       </c>
@@ -22245,7 +22259,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="9" t="s">
         <v>551</v>
       </c>

--- a/DSA by Shradha Didi & Aman Bhaiya.xlsx
+++ b/DSA by Shradha Didi & Aman Bhaiya.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nimit\Downloads\other\study\java-practice-programs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECD97F1-F836-4986-B925-032E955311D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B628722D-97BB-4C69-AEDC-FF2CF13FEED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,10 +24,10 @@
   </definedNames>
   <calcPr calcId="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 1" guid="{C68DABDE-8AC1-49C3-98CF-691EE57ABE88}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{FB58D069-98FB-40A6-98B6-6F873CC8E3CF}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{A6CE0597-98E5-4A5B-AB5F-6EEE71119C0A}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 4" guid="{DB562CAF-E1A0-40F3-9192-5E17BE155BA5}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{A6CE0597-98E5-4A5B-AB5F-6EEE71119C0A}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{FB58D069-98FB-40A6-98B6-6F873CC8E3CF}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{C68DABDE-8AC1-49C3-98CF-691EE57ABE88}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -2350,7 +2350,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2435,6 +2435,12 @@
         <bgColor rgb="FFA2C4C9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2448,7 +2454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2571,16 +2577,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2606,6 +2602,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2827,8 +2836,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="A153" sqref="A153:XFD153"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="D191" sqref="D191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2841,12 +2850,12 @@
     <col min="7" max="7" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2869,12 +2878,12 @@
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
     </row>
-    <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
+    <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2896,10 +2905,10 @@
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
     </row>
-    <row r="3" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
+    <row r="3" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2924,10 +2933,10 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
+    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -2950,7 +2959,7 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -2978,7 +2987,7 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -3008,14 +3017,14 @@
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
     </row>
-    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="62" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="2"/>
@@ -3040,14 +3049,14 @@
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="49"/>
+      <c r="C8" s="60"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -3070,7 +3079,7 @@
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="10"/>
       <c r="B9" s="4"/>
       <c r="C9" s="7"/>
@@ -3096,7 +3105,7 @@
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="10"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -3122,7 +3131,7 @@
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
         <v>10</v>
       </c>
@@ -3156,7 +3165,7 @@
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -3188,7 +3197,7 @@
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
@@ -3220,7 +3229,7 @@
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
@@ -3254,7 +3263,7 @@
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
@@ -3286,7 +3295,7 @@
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -3318,7 +3327,7 @@
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
@@ -3350,7 +3359,7 @@
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="8" t="s">
         <v>14</v>
       </c>
@@ -3382,7 +3391,7 @@
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="8" t="s">
         <v>14</v>
       </c>
@@ -3414,7 +3423,7 @@
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="8" t="s">
         <v>14</v>
       </c>
@@ -3446,7 +3455,7 @@
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="8" t="s">
         <v>14</v>
       </c>
@@ -3478,7 +3487,7 @@
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="8" t="s">
         <v>14</v>
       </c>
@@ -3510,7 +3519,7 @@
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="8" t="s">
         <v>14</v>
       </c>
@@ -3542,7 +3551,7 @@
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="8" t="s">
         <v>14</v>
       </c>
@@ -3574,7 +3583,7 @@
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="8" t="s">
         <v>14</v>
       </c>
@@ -3606,7 +3615,7 @@
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="8" t="s">
         <v>14</v>
       </c>
@@ -3638,7 +3647,7 @@
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
     </row>
-    <row r="27" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="8" t="s">
         <v>14</v>
       </c>
@@ -3670,7 +3679,7 @@
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
     </row>
-    <row r="28" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8" t="s">
         <v>14</v>
       </c>
@@ -3702,7 +3711,7 @@
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
     </row>
-    <row r="29" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="8" t="s">
         <v>14</v>
       </c>
@@ -3734,7 +3743,7 @@
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
     </row>
-    <row r="30" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="8" t="s">
         <v>14</v>
       </c>
@@ -3766,7 +3775,7 @@
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
     </row>
-    <row r="31" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8" t="s">
         <v>14</v>
       </c>
@@ -3798,7 +3807,7 @@
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
     </row>
-    <row r="32" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="8" t="s">
         <v>14</v>
       </c>
@@ -3830,7 +3839,7 @@
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
     </row>
-    <row r="33" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="8" t="s">
         <v>14</v>
       </c>
@@ -3862,7 +3871,7 @@
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
     </row>
-    <row r="34" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="8" t="s">
         <v>14</v>
       </c>
@@ -3894,7 +3903,7 @@
       <c r="W34" s="2"/>
       <c r="X34" s="2"/>
     </row>
-    <row r="35" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="9" t="s">
         <v>14</v>
       </c>
@@ -3926,7 +3935,7 @@
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
     </row>
-    <row r="36" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="9" t="s">
         <v>14</v>
       </c>
@@ -3958,7 +3967,7 @@
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
     </row>
-    <row r="37" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="9" t="s">
         <v>14</v>
       </c>
@@ -3990,7 +3999,7 @@
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
     </row>
-    <row r="38" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="16"/>
       <c r="B38" s="17"/>
       <c r="C38" s="7"/>
@@ -4016,7 +4025,7 @@
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
     </row>
-    <row r="39" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="17"/>
       <c r="C39" s="7"/>
@@ -4042,7 +4051,7 @@
       <c r="W39" s="2"/>
       <c r="X39" s="2"/>
     </row>
-    <row r="40" spans="1:24" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="43" t="s">
         <v>61</v>
       </c>
@@ -4074,7 +4083,7 @@
       <c r="W40" s="46"/>
       <c r="X40" s="46"/>
     </row>
-    <row r="41" spans="1:24" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="43" t="s">
         <v>61</v>
       </c>
@@ -4106,7 +4115,7 @@
       <c r="W41" s="46"/>
       <c r="X41" s="46"/>
     </row>
-    <row r="42" spans="1:24" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="43" t="s">
         <v>61</v>
       </c>
@@ -4140,7 +4149,7 @@
       <c r="W42" s="46"/>
       <c r="X42" s="46"/>
     </row>
-    <row r="43" spans="1:24" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="43" t="s">
         <v>61</v>
       </c>
@@ -4172,7 +4181,7 @@
       <c r="W43" s="46"/>
       <c r="X43" s="46"/>
     </row>
-    <row r="44" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="5" t="s">
         <v>61</v>
       </c>
@@ -4204,7 +4213,7 @@
       <c r="W44" s="2"/>
       <c r="X44" s="2"/>
     </row>
-    <row r="45" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="5" t="s">
         <v>61</v>
       </c>
@@ -4236,7 +4245,7 @@
       <c r="W45" s="2"/>
       <c r="X45" s="2"/>
     </row>
-    <row r="46" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="5" t="s">
         <v>61</v>
       </c>
@@ -4268,7 +4277,7 @@
       <c r="W46" s="2"/>
       <c r="X46" s="2"/>
     </row>
-    <row r="47" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="8" t="s">
         <v>61</v>
       </c>
@@ -4300,7 +4309,7 @@
       <c r="W47" s="2"/>
       <c r="X47" s="2"/>
     </row>
-    <row r="48" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="8" t="s">
         <v>61</v>
       </c>
@@ -4332,7 +4341,7 @@
       <c r="W48" s="2"/>
       <c r="X48" s="2"/>
     </row>
-    <row r="49" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="8" t="s">
         <v>61</v>
       </c>
@@ -4364,7 +4373,7 @@
       <c r="W49" s="2"/>
       <c r="X49" s="2"/>
     </row>
-    <row r="50" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="8" t="s">
         <v>61</v>
       </c>
@@ -4396,7 +4405,7 @@
       <c r="W50" s="2"/>
       <c r="X50" s="2"/>
     </row>
-    <row r="51" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="8" t="s">
         <v>61</v>
       </c>
@@ -4428,7 +4437,7 @@
       <c r="W51" s="2"/>
       <c r="X51" s="2"/>
     </row>
-    <row r="52" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="8" t="s">
         <v>61</v>
       </c>
@@ -4460,7 +4469,7 @@
       <c r="W52" s="2"/>
       <c r="X52" s="2"/>
     </row>
-    <row r="53" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="8" t="s">
         <v>61</v>
       </c>
@@ -4492,7 +4501,7 @@
       <c r="W53" s="2"/>
       <c r="X53" s="2"/>
     </row>
-    <row r="54" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="8" t="s">
         <v>61</v>
       </c>
@@ -4524,7 +4533,7 @@
       <c r="W54" s="2"/>
       <c r="X54" s="2"/>
     </row>
-    <row r="55" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="8" t="s">
         <v>61</v>
       </c>
@@ -4556,7 +4565,7 @@
       <c r="W55" s="2"/>
       <c r="X55" s="2"/>
     </row>
-    <row r="56" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="8" t="s">
         <v>61</v>
       </c>
@@ -4588,7 +4597,7 @@
       <c r="W56" s="2"/>
       <c r="X56" s="2"/>
     </row>
-    <row r="57" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="8" t="s">
         <v>61</v>
       </c>
@@ -4620,7 +4629,7 @@
       <c r="W57" s="2"/>
       <c r="X57" s="2"/>
     </row>
-    <row r="58" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="8" t="s">
         <v>61</v>
       </c>
@@ -4652,7 +4661,7 @@
       <c r="W58" s="2"/>
       <c r="X58" s="2"/>
     </row>
-    <row r="59" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="9" t="s">
         <v>61</v>
       </c>
@@ -4684,7 +4693,7 @@
       <c r="W59" s="2"/>
       <c r="X59" s="2"/>
     </row>
-    <row r="60" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="9" t="s">
         <v>61</v>
       </c>
@@ -4716,7 +4725,7 @@
       <c r="W60" s="2"/>
       <c r="X60" s="2"/>
     </row>
-    <row r="61" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="9" t="s">
         <v>61</v>
       </c>
@@ -4750,7 +4759,7 @@
       <c r="W61" s="2"/>
       <c r="X61" s="2"/>
     </row>
-    <row r="62" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="16"/>
       <c r="B62" s="17"/>
       <c r="C62" s="7"/>
@@ -4776,7 +4785,7 @@
       <c r="W62" s="2"/>
       <c r="X62" s="2"/>
     </row>
-    <row r="63" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="16"/>
       <c r="B63" s="17"/>
       <c r="C63" s="7"/>
@@ -4802,7 +4811,7 @@
       <c r="W63" s="2"/>
       <c r="X63" s="2"/>
     </row>
-    <row r="64" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="8" t="s">
         <v>105</v>
       </c>
@@ -4834,7 +4843,7 @@
       <c r="W64" s="2"/>
       <c r="X64" s="2"/>
     </row>
-    <row r="65" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="8" t="s">
         <v>105</v>
       </c>
@@ -4866,7 +4875,7 @@
       <c r="W65" s="2"/>
       <c r="X65" s="2"/>
     </row>
-    <row r="66" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="8" t="s">
         <v>105</v>
       </c>
@@ -4898,7 +4907,7 @@
       <c r="W66" s="2"/>
       <c r="X66" s="2"/>
     </row>
-    <row r="67" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="8" t="s">
         <v>105</v>
       </c>
@@ -4930,7 +4939,7 @@
       <c r="W67" s="2"/>
       <c r="X67" s="2"/>
     </row>
-    <row r="68" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="8" t="s">
         <v>105</v>
       </c>
@@ -4962,7 +4971,7 @@
       <c r="W68" s="2"/>
       <c r="X68" s="2"/>
     </row>
-    <row r="69" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="8" t="s">
         <v>105</v>
       </c>
@@ -4996,7 +5005,7 @@
       <c r="W69" s="2"/>
       <c r="X69" s="2"/>
     </row>
-    <row r="70" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="8" t="s">
         <v>105</v>
       </c>
@@ -5028,7 +5037,7 @@
       <c r="W70" s="2"/>
       <c r="X70" s="2"/>
     </row>
-    <row r="71" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="8" t="s">
         <v>105</v>
       </c>
@@ -5060,7 +5069,7 @@
       <c r="W71" s="2"/>
       <c r="X71" s="2"/>
     </row>
-    <row r="72" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="8" t="s">
         <v>105</v>
       </c>
@@ -5092,7 +5101,7 @@
       <c r="W72" s="2"/>
       <c r="X72" s="2"/>
     </row>
-    <row r="73" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="9" t="s">
         <v>105</v>
       </c>
@@ -5124,7 +5133,7 @@
       <c r="W73" s="2"/>
       <c r="X73" s="2"/>
     </row>
-    <row r="74" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="18"/>
       <c r="B74" s="17"/>
       <c r="C74" s="7"/>
@@ -5150,7 +5159,7 @@
       <c r="W74" s="2"/>
       <c r="X74" s="2"/>
     </row>
-    <row r="75" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="18"/>
       <c r="B75" s="17"/>
       <c r="C75" s="7"/>
@@ -5176,7 +5185,7 @@
       <c r="W75" s="2"/>
       <c r="X75" s="2"/>
     </row>
-    <row r="76" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="19" t="s">
         <v>126</v>
       </c>
@@ -5208,7 +5217,7 @@
       <c r="W76" s="2"/>
       <c r="X76" s="2"/>
     </row>
-    <row r="77" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="19" t="s">
         <v>126</v>
       </c>
@@ -5240,7 +5249,7 @@
       <c r="W77" s="2"/>
       <c r="X77" s="2"/>
     </row>
-    <row r="78" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="19" t="s">
         <v>126</v>
       </c>
@@ -5272,7 +5281,7 @@
       <c r="W78" s="2"/>
       <c r="X78" s="2"/>
     </row>
-    <row r="79" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="19" t="s">
         <v>126</v>
       </c>
@@ -5304,7 +5313,7 @@
       <c r="W79" s="2"/>
       <c r="X79" s="2"/>
     </row>
-    <row r="80" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="19" t="s">
         <v>126</v>
       </c>
@@ -7548,136 +7557,136 @@
       <c r="X151" s="2"/>
     </row>
     <row r="152" spans="1:26" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A152" s="52" t="s">
+      <c r="A152" s="48" t="s">
         <v>253</v>
       </c>
-      <c r="B152" s="53" t="s">
+      <c r="B152" s="49" t="s">
         <v>254</v>
       </c>
-      <c r="C152" s="54" t="s">
+      <c r="C152" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="D152" s="55"/>
-      <c r="E152" s="55"/>
-      <c r="F152" s="55"/>
-      <c r="G152" s="55"/>
-      <c r="H152" s="55"/>
-      <c r="I152" s="55"/>
-      <c r="J152" s="55"/>
-      <c r="K152" s="55"/>
-      <c r="L152" s="55"/>
-      <c r="M152" s="55"/>
-      <c r="N152" s="55"/>
-      <c r="O152" s="55"/>
-      <c r="P152" s="55"/>
-      <c r="Q152" s="55"/>
-      <c r="R152" s="55"/>
-      <c r="S152" s="55"/>
-      <c r="T152" s="55"/>
-      <c r="U152" s="55"/>
-      <c r="V152" s="55"/>
-      <c r="W152" s="55"/>
-      <c r="X152" s="55"/>
-      <c r="Y152" s="56"/>
-      <c r="Z152" s="56"/>
+      <c r="D152" s="51"/>
+      <c r="E152" s="51"/>
+      <c r="F152" s="51"/>
+      <c r="G152" s="51"/>
+      <c r="H152" s="51"/>
+      <c r="I152" s="51"/>
+      <c r="J152" s="51"/>
+      <c r="K152" s="51"/>
+      <c r="L152" s="51"/>
+      <c r="M152" s="51"/>
+      <c r="N152" s="51"/>
+      <c r="O152" s="51"/>
+      <c r="P152" s="51"/>
+      <c r="Q152" s="51"/>
+      <c r="R152" s="51"/>
+      <c r="S152" s="51"/>
+      <c r="T152" s="51"/>
+      <c r="U152" s="51"/>
+      <c r="V152" s="51"/>
+      <c r="W152" s="51"/>
+      <c r="X152" s="51"/>
+      <c r="Y152" s="52"/>
+      <c r="Z152" s="52"/>
     </row>
     <row r="153" spans="1:26" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A153" s="57" t="s">
+      <c r="A153" s="53" t="s">
         <v>253</v>
       </c>
-      <c r="B153" s="58" t="s">
+      <c r="B153" s="54" t="s">
         <v>256</v>
       </c>
-      <c r="C153" s="59" t="s">
+      <c r="C153" s="55" t="s">
         <v>257</v>
       </c>
-      <c r="D153" s="60"/>
-      <c r="E153" s="61"/>
-      <c r="F153" s="61"/>
-      <c r="G153" s="61"/>
-      <c r="H153" s="61"/>
-      <c r="I153" s="61"/>
-      <c r="J153" s="61"/>
-      <c r="K153" s="61"/>
-      <c r="L153" s="61"/>
-      <c r="M153" s="61"/>
-      <c r="N153" s="61"/>
-      <c r="O153" s="61"/>
-      <c r="P153" s="61"/>
-      <c r="Q153" s="61"/>
-      <c r="R153" s="61"/>
-      <c r="S153" s="61"/>
-      <c r="T153" s="61"/>
-      <c r="U153" s="61"/>
-      <c r="V153" s="61"/>
-      <c r="W153" s="61"/>
-      <c r="X153" s="61"/>
-      <c r="Y153" s="62"/>
-      <c r="Z153" s="62"/>
-    </row>
-    <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A154" s="5" t="s">
+      <c r="D153" s="56"/>
+      <c r="E153" s="57"/>
+      <c r="F153" s="57"/>
+      <c r="G153" s="57"/>
+      <c r="H153" s="57"/>
+      <c r="I153" s="57"/>
+      <c r="J153" s="57"/>
+      <c r="K153" s="57"/>
+      <c r="L153" s="57"/>
+      <c r="M153" s="57"/>
+      <c r="N153" s="57"/>
+      <c r="O153" s="57"/>
+      <c r="P153" s="57"/>
+      <c r="Q153" s="57"/>
+      <c r="R153" s="57"/>
+      <c r="S153" s="57"/>
+      <c r="T153" s="57"/>
+      <c r="U153" s="57"/>
+      <c r="V153" s="57"/>
+      <c r="W153" s="57"/>
+      <c r="X153" s="57"/>
+      <c r="Y153" s="58"/>
+      <c r="Z153" s="58"/>
+    </row>
+    <row r="154" spans="1:26" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A154" s="43" t="s">
         <v>253</v>
       </c>
-      <c r="B154" s="14" t="s">
+      <c r="B154" s="44" t="s">
         <v>258</v>
       </c>
-      <c r="C154" s="13" t="s">
+      <c r="C154" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="D154" s="29"/>
-      <c r="E154" s="2"/>
-      <c r="F154" s="2"/>
-      <c r="G154" s="2"/>
-      <c r="H154" s="2"/>
-      <c r="I154" s="2"/>
-      <c r="J154" s="2"/>
-      <c r="K154" s="2"/>
-      <c r="L154" s="2"/>
-      <c r="M154" s="2"/>
-      <c r="N154" s="2"/>
-      <c r="O154" s="2"/>
-      <c r="P154" s="2"/>
-      <c r="Q154" s="2"/>
-      <c r="R154" s="2"/>
-      <c r="S154" s="2"/>
-      <c r="T154" s="2"/>
-      <c r="U154" s="2"/>
-      <c r="V154" s="2"/>
-      <c r="W154" s="2"/>
-      <c r="X154" s="2"/>
-    </row>
-    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A155" s="5" t="s">
+      <c r="D154" s="63"/>
+      <c r="E154" s="46"/>
+      <c r="F154" s="46"/>
+      <c r="G154" s="46"/>
+      <c r="H154" s="46"/>
+      <c r="I154" s="46"/>
+      <c r="J154" s="46"/>
+      <c r="K154" s="46"/>
+      <c r="L154" s="46"/>
+      <c r="M154" s="46"/>
+      <c r="N154" s="46"/>
+      <c r="O154" s="46"/>
+      <c r="P154" s="46"/>
+      <c r="Q154" s="46"/>
+      <c r="R154" s="46"/>
+      <c r="S154" s="46"/>
+      <c r="T154" s="46"/>
+      <c r="U154" s="46"/>
+      <c r="V154" s="46"/>
+      <c r="W154" s="46"/>
+      <c r="X154" s="46"/>
+    </row>
+    <row r="155" spans="1:26" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A155" s="43" t="s">
         <v>253</v>
       </c>
-      <c r="B155" s="14" t="s">
+      <c r="B155" s="44" t="s">
         <v>260</v>
       </c>
-      <c r="C155" s="13" t="s">
+      <c r="C155" s="45" t="s">
         <v>261</v>
       </c>
-      <c r="D155" s="29"/>
-      <c r="E155" s="2"/>
-      <c r="F155" s="2"/>
-      <c r="G155" s="2"/>
-      <c r="H155" s="2"/>
-      <c r="I155" s="2"/>
-      <c r="J155" s="2"/>
-      <c r="K155" s="2"/>
-      <c r="L155" s="2"/>
-      <c r="M155" s="2"/>
-      <c r="N155" s="2"/>
-      <c r="O155" s="2"/>
-      <c r="P155" s="2"/>
-      <c r="Q155" s="2"/>
-      <c r="R155" s="2"/>
-      <c r="S155" s="2"/>
-      <c r="T155" s="2"/>
-      <c r="U155" s="2"/>
-      <c r="V155" s="2"/>
-      <c r="W155" s="2"/>
-      <c r="X155" s="2"/>
+      <c r="D155" s="63"/>
+      <c r="E155" s="46"/>
+      <c r="F155" s="46"/>
+      <c r="G155" s="46"/>
+      <c r="H155" s="46"/>
+      <c r="I155" s="46"/>
+      <c r="J155" s="46"/>
+      <c r="K155" s="46"/>
+      <c r="L155" s="46"/>
+      <c r="M155" s="46"/>
+      <c r="N155" s="46"/>
+      <c r="O155" s="46"/>
+      <c r="P155" s="46"/>
+      <c r="Q155" s="46"/>
+      <c r="R155" s="46"/>
+      <c r="S155" s="46"/>
+      <c r="T155" s="46"/>
+      <c r="U155" s="46"/>
+      <c r="V155" s="46"/>
+      <c r="W155" s="46"/>
+      <c r="X155" s="46"/>
     </row>
     <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="5" t="s">
@@ -7711,37 +7720,37 @@
       <c r="W156" s="2"/>
       <c r="X156" s="2"/>
     </row>
-    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A157" s="5" t="s">
+    <row r="157" spans="1:26" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A157" s="43" t="s">
         <v>253</v>
       </c>
-      <c r="B157" s="14" t="s">
+      <c r="B157" s="44" t="s">
         <v>264</v>
       </c>
-      <c r="C157" s="13" t="s">
+      <c r="C157" s="45" t="s">
         <v>265</v>
       </c>
-      <c r="D157" s="29"/>
-      <c r="E157" s="2"/>
-      <c r="F157" s="2"/>
-      <c r="G157" s="2"/>
-      <c r="H157" s="2"/>
-      <c r="I157" s="2"/>
-      <c r="J157" s="2"/>
-      <c r="K157" s="2"/>
-      <c r="L157" s="2"/>
-      <c r="M157" s="2"/>
-      <c r="N157" s="2"/>
-      <c r="O157" s="2"/>
-      <c r="P157" s="2"/>
-      <c r="Q157" s="2"/>
-      <c r="R157" s="2"/>
-      <c r="S157" s="2"/>
-      <c r="T157" s="2"/>
-      <c r="U157" s="2"/>
-      <c r="V157" s="2"/>
-      <c r="W157" s="2"/>
-      <c r="X157" s="2"/>
+      <c r="D157" s="63"/>
+      <c r="E157" s="46"/>
+      <c r="F157" s="46"/>
+      <c r="G157" s="46"/>
+      <c r="H157" s="46"/>
+      <c r="I157" s="46"/>
+      <c r="J157" s="46"/>
+      <c r="K157" s="46"/>
+      <c r="L157" s="46"/>
+      <c r="M157" s="46"/>
+      <c r="N157" s="46"/>
+      <c r="O157" s="46"/>
+      <c r="P157" s="46"/>
+      <c r="Q157" s="46"/>
+      <c r="R157" s="46"/>
+      <c r="S157" s="46"/>
+      <c r="T157" s="46"/>
+      <c r="U157" s="46"/>
+      <c r="V157" s="46"/>
+      <c r="W157" s="46"/>
+      <c r="X157" s="46"/>
     </row>
     <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="8" t="s">
@@ -21368,39 +21377,39 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{DB562CAF-E1A0-40F3-9192-5E17BE155BA5}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{A6CE0597-98E5-4A5B-AB5F-6EEE71119C0A}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{0F3B6852-6A7A-46DF-9AF2-9E75C4D61840}"/>
+      <autoFilter ref="A11:C37" xr:uid="{19B65649-6521-4AFA-A1B3-E330D03FF921}"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
-          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="1247552191"/>
+          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="418346103"/>
+        </ext>
+      </extLst>
+    </customSheetView>
+    <customSheetView guid="{FB58D069-98FB-40A6-98B6-6F873CC8E3CF}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A11:D37" xr:uid="{AAA5C973-A249-475F-A022-812DFF1B2338}"/>
+      <extLst>
+        <ext uri="GoogleSheetsCustomDataVersion1">
+          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="2099002125"/>
         </ext>
       </extLst>
     </customSheetView>
     <customSheetView guid="{C68DABDE-8AC1-49C3-98CF-691EE57ABE88}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332" xr:uid="{9F76F1C4-F905-435F-B686-174F1960369F}"/>
+      <autoFilter ref="A293:C332" xr:uid="{3CEDEE09-C182-40CE-847E-A3C670121D35}"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
           <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="1542537633"/>
         </ext>
       </extLst>
     </customSheetView>
-    <customSheetView guid="{FB58D069-98FB-40A6-98B6-6F873CC8E3CF}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{DB562CAF-E1A0-40F3-9192-5E17BE155BA5}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{41107013-996E-4B6D-806F-FFCDA3D6B302}"/>
+      <autoFilter ref="A11:D37" xr:uid="{47911D17-7E56-4593-ABFD-11BAC1B31A9B}"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
-          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="2099002125"/>
-        </ext>
-      </extLst>
-    </customSheetView>
-    <customSheetView guid="{A6CE0597-98E5-4A5B-AB5F-6EEE71119C0A}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37" xr:uid="{3D1507BF-AF02-498D-B191-89DE8EC6B919}"/>
-      <extLst>
-        <ext uri="GoogleSheetsCustomDataVersion1">
-          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="418346103"/>
+          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="1247552191"/>
         </ext>
       </extLst>
     </customSheetView>
@@ -21813,35 +21822,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="10"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -21850,7 +21859,7 @@
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
@@ -21859,7 +21868,7 @@
       </c>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
@@ -21868,7 +21877,7 @@
       </c>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="10"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -21885,7 +21894,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
         <v>61</v>
       </c>
@@ -21956,7 +21965,7 @@
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="8" t="s">
         <v>169</v>
       </c>
@@ -21964,7 +21973,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="9" t="s">
         <v>169</v>
       </c>
@@ -21972,15 +21981,15 @@
         <v>667</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="42"/>
       <c r="B26" s="14"/>
     </row>
-    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="42"/>
       <c r="B27" s="14"/>
     </row>
-    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8" t="s">
         <v>203</v>
       </c>
@@ -21988,7 +21997,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="8" t="s">
         <v>203</v>
       </c>
@@ -21996,7 +22005,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="9" t="s">
         <v>203</v>
       </c>
@@ -22004,7 +22013,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="9" t="s">
         <v>203</v>
       </c>
@@ -22012,7 +22021,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="9" t="s">
         <v>203</v>
       </c>
@@ -22020,15 +22029,15 @@
         <v>672</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="42"/>
       <c r="B33" s="14"/>
     </row>
-    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="42"/>
       <c r="B34" s="14"/>
     </row>
-    <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="8" t="s">
         <v>253</v>
       </c>
@@ -22036,7 +22045,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="9" t="s">
         <v>253</v>
       </c>
@@ -22044,7 +22053,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="9" t="s">
         <v>253</v>
       </c>
